--- a/cluster algorithm/Results_clusters=3/Efficiency_results.xlsx
+++ b/cluster algorithm/Results_clusters=3/Efficiency_results.xlsx
@@ -379,7058 +379,7058 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>3.335752342850768</v>
+        <v>2.10829668459361</v>
       </c>
       <c r="B2">
-        <v>3.335752342850768</v>
+        <v>2.10829668459361</v>
       </c>
       <c r="C2">
-        <v>3.335752342850768</v>
+        <v>2.10829668459361</v>
       </c>
       <c r="D2">
-        <v>3.335752342850768</v>
+        <v>2.10829668459361</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>3.258952096985218</v>
+        <v>2.09463805595536</v>
       </c>
       <c r="B3">
-        <v>3.258952096985218</v>
+        <v>2.09463805595536</v>
       </c>
       <c r="C3">
-        <v>3.258952096985218</v>
+        <v>2.09463805595536</v>
       </c>
       <c r="D3">
-        <v>3.258952096985218</v>
+        <v>2.09463805595536</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>3.22895853001067</v>
+        <v>2.09408545301166</v>
       </c>
       <c r="B4">
-        <v>3.22895853001067</v>
+        <v>2.09408545301166</v>
       </c>
       <c r="C4">
-        <v>3.22895853001067</v>
+        <v>2.09408545301166</v>
       </c>
       <c r="D4">
-        <v>3.22895853001067</v>
+        <v>2.09408545301166</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3.213091565816192</v>
+        <v>2.07332370180904</v>
       </c>
       <c r="B5">
-        <v>3.213091565816192</v>
+        <v>2.07332370180904</v>
       </c>
       <c r="C5">
-        <v>3.213091565816192</v>
+        <v>2.07332370180904</v>
       </c>
       <c r="D5">
-        <v>3.213091565816192</v>
+        <v>2.07332370180904</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>3.153650773523604</v>
+        <v>2.03162763193447</v>
       </c>
       <c r="B6">
-        <v>3.153650773523604</v>
+        <v>2.03162763193447</v>
       </c>
       <c r="C6">
-        <v>3.153650773523604</v>
+        <v>2.03162763193447</v>
       </c>
       <c r="D6">
-        <v>3.153650773523604</v>
+        <v>2.03162763193447</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>3.111221068563745</v>
+        <v>2.01766317400231</v>
       </c>
       <c r="B7">
-        <v>3.111221068563745</v>
+        <v>2.01766317400231</v>
       </c>
       <c r="C7">
-        <v>3.111221068563745</v>
+        <v>2.01766317400231</v>
       </c>
       <c r="D7">
-        <v>3.111221068563745</v>
+        <v>2.01766317400231</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>3.095954676213165</v>
+        <v>2.02716465407411</v>
       </c>
       <c r="B8">
-        <v>3.095954676213165</v>
+        <v>2.02716465407411</v>
       </c>
       <c r="C8">
-        <v>3.095954676213165</v>
+        <v>2.02716465407411</v>
       </c>
       <c r="D8">
-        <v>3.095954676213165</v>
+        <v>2.02716465407411</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>3.174172476556505</v>
+        <v>2.01183679811599</v>
       </c>
       <c r="B9">
-        <v>3.174172476556505</v>
+        <v>2.01183679811599</v>
       </c>
       <c r="C9">
-        <v>3.174172476556505</v>
+        <v>2.01183679811599</v>
       </c>
       <c r="D9">
-        <v>3.174172476556505</v>
+        <v>2.01183679811599</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>3.295049552391567</v>
+        <v>2.01770588842574</v>
       </c>
       <c r="B10">
-        <v>3.295049552391567</v>
+        <v>2.01770588842574</v>
       </c>
       <c r="C10">
-        <v>3.295049552391567</v>
+        <v>2.01770588842574</v>
       </c>
       <c r="D10">
-        <v>3.295049552391567</v>
+        <v>2.01770588842574</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>3.423798216232569</v>
+        <v>2.06477940154408</v>
       </c>
       <c r="B11">
-        <v>3.423798216232569</v>
+        <v>2.06477940154408</v>
       </c>
       <c r="C11">
-        <v>3.423798216232569</v>
+        <v>2.06477940154408</v>
       </c>
       <c r="D11">
-        <v>3.423798216232569</v>
+        <v>2.06477940154408</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>3.540126408192214</v>
+        <v>2.11733537347416</v>
       </c>
       <c r="B12">
-        <v>3.540126408192214</v>
+        <v>2.11733537347416</v>
       </c>
       <c r="C12">
-        <v>3.540126408192214</v>
+        <v>2.11733537347416</v>
       </c>
       <c r="D12">
-        <v>3.540126408192214</v>
+        <v>2.11733537347416</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>3.63402680942143</v>
+        <v>2.18233504187179</v>
       </c>
       <c r="B13">
-        <v>3.63402680942143</v>
+        <v>2.18233504187179</v>
       </c>
       <c r="C13">
-        <v>3.63402680942143</v>
+        <v>2.18233504187179</v>
       </c>
       <c r="D13">
-        <v>3.63402680942143</v>
+        <v>2.18233504187179</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>3.724800715690307</v>
+        <v>2.23527124115048</v>
       </c>
       <c r="B14">
-        <v>3.724800715690307</v>
+        <v>2.23527124115048</v>
       </c>
       <c r="C14">
-        <v>3.724800715690307</v>
+        <v>2.23527124115048</v>
       </c>
       <c r="D14">
-        <v>3.724800715690307</v>
+        <v>2.23527124115048</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>3.764647775944206</v>
+        <v>2.2628651704972</v>
       </c>
       <c r="B15">
-        <v>3.764647775944206</v>
+        <v>2.2628651704972</v>
       </c>
       <c r="C15">
-        <v>3.764647775944206</v>
+        <v>2.2628651704972</v>
       </c>
       <c r="D15">
-        <v>3.764647775944206</v>
+        <v>2.2628651704972</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>3.79608529659774</v>
+        <v>2.29943374087447</v>
       </c>
       <c r="B16">
-        <v>3.79608529659774</v>
+        <v>2.29943374087447</v>
       </c>
       <c r="C16">
-        <v>3.79608529659774</v>
+        <v>2.29943374087447</v>
       </c>
       <c r="D16">
-        <v>3.79608529659774</v>
+        <v>2.29943374087447</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>3.837653895279842</v>
+        <v>2.29251902770116</v>
       </c>
       <c r="B17">
-        <v>3.837653895279842</v>
+        <v>2.29251902770116</v>
       </c>
       <c r="C17">
-        <v>3.837653895279842</v>
+        <v>2.29251902770116</v>
       </c>
       <c r="D17">
-        <v>3.837653895279842</v>
+        <v>2.29251902770116</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>3.840958608764185</v>
+        <v>2.25537714282327</v>
       </c>
       <c r="B18">
-        <v>3.840958608764185</v>
+        <v>2.25537714282327</v>
       </c>
       <c r="C18">
-        <v>3.840958608764185</v>
+        <v>2.25537714282327</v>
       </c>
       <c r="D18">
-        <v>3.840958608764185</v>
+        <v>2.25537714282327</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>3.842059209746759</v>
+        <v>2.21258209201435</v>
       </c>
       <c r="B19">
-        <v>3.842059209746759</v>
+        <v>2.21258209201435</v>
       </c>
       <c r="C19">
-        <v>3.842059209746759</v>
+        <v>2.21258209201435</v>
       </c>
       <c r="D19">
-        <v>3.842059209746759</v>
+        <v>2.21258209201435</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>3.79969608550237</v>
+        <v>2.20001460742924</v>
       </c>
       <c r="B20">
-        <v>3.79969608550237</v>
+        <v>2.20001460742924</v>
       </c>
       <c r="C20">
-        <v>3.79969608550237</v>
+        <v>2.20001460742924</v>
       </c>
       <c r="D20">
-        <v>3.79969608550237</v>
+        <v>2.20001460742924</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>3.777236300965437</v>
+        <v>2.17622378812586</v>
       </c>
       <c r="B21">
-        <v>3.777236300965437</v>
+        <v>2.17622378812586</v>
       </c>
       <c r="C21">
-        <v>3.777236300965437</v>
+        <v>2.17622378812586</v>
       </c>
       <c r="D21">
-        <v>3.777236300965437</v>
+        <v>2.17622378812586</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>3.644258969319662</v>
+        <v>2.14742677062265</v>
       </c>
       <c r="B22">
-        <v>3.644258969319662</v>
+        <v>2.14742677062265</v>
       </c>
       <c r="C22">
-        <v>3.644258969319662</v>
+        <v>2.14742677062265</v>
       </c>
       <c r="D22">
-        <v>3.644258969319662</v>
+        <v>2.14742677062265</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>3.536165738083675</v>
+        <v>2.12255554672014</v>
       </c>
       <c r="B23">
-        <v>3.536165738083675</v>
+        <v>2.12255554672014</v>
       </c>
       <c r="C23">
-        <v>3.536165738083675</v>
+        <v>2.12255554672014</v>
       </c>
       <c r="D23">
-        <v>3.536165738083675</v>
+        <v>2.12255554672014</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>3.412034804552373</v>
+        <v>2.1148262526791</v>
       </c>
       <c r="B24">
-        <v>3.412034804552373</v>
+        <v>2.1148262526791</v>
       </c>
       <c r="C24">
-        <v>3.412034804552373</v>
+        <v>2.1148262526791</v>
       </c>
       <c r="D24">
-        <v>3.412034804552373</v>
+        <v>2.1148262526791</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>3.318972131867984</v>
+        <v>2.11072764416951</v>
       </c>
       <c r="B25">
-        <v>3.318972131867984</v>
+        <v>2.11072764416951</v>
       </c>
       <c r="C25">
-        <v>3.318972131867984</v>
+        <v>2.11072764416951</v>
       </c>
       <c r="D25">
-        <v>3.318972131867984</v>
+        <v>2.11072764416951</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>3.24946862099223</v>
+        <v>2.08840752646682</v>
       </c>
       <c r="B26">
-        <v>3.24946862099223</v>
+        <v>2.08840752646682</v>
       </c>
       <c r="C26">
-        <v>3.24946862099223</v>
+        <v>2.08840752646682</v>
       </c>
       <c r="D26">
-        <v>3.24946862099223</v>
+        <v>2.08840752646682</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>3.211185700276953</v>
+        <v>2.06742525172779</v>
       </c>
       <c r="B27">
-        <v>3.211185700276953</v>
+        <v>2.06742525172779</v>
       </c>
       <c r="C27">
-        <v>3.211185700276953</v>
+        <v>2.06742525172779</v>
       </c>
       <c r="D27">
-        <v>3.211185700276953</v>
+        <v>2.06742525172779</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>3.14829443623892</v>
+        <v>2.04351019578865</v>
       </c>
       <c r="B28">
-        <v>3.14829443623892</v>
+        <v>2.04351019578865</v>
       </c>
       <c r="C28">
-        <v>3.14829443623892</v>
+        <v>2.04351019578865</v>
       </c>
       <c r="D28">
-        <v>3.14829443623892</v>
+        <v>2.04351019578865</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>3.106805780446286</v>
+        <v>2.02685357819675</v>
       </c>
       <c r="B29">
-        <v>3.106805780446286</v>
+        <v>2.02685357819675</v>
       </c>
       <c r="C29">
-        <v>3.106805780446286</v>
+        <v>2.02685357819675</v>
       </c>
       <c r="D29">
-        <v>3.106805780446286</v>
+        <v>2.02685357819675</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>3.074784352147483</v>
+        <v>2.01539470995136</v>
       </c>
       <c r="B30">
-        <v>3.074784352147483</v>
+        <v>2.01539470995136</v>
       </c>
       <c r="C30">
-        <v>3.074784352147483</v>
+        <v>2.01539470995136</v>
       </c>
       <c r="D30">
-        <v>3.074784352147483</v>
+        <v>2.01539470995136</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>3.051846570723873</v>
+        <v>2.00576651075294</v>
       </c>
       <c r="B31">
-        <v>3.051846570723873</v>
+        <v>2.00576651075294</v>
       </c>
       <c r="C31">
-        <v>3.051846570723873</v>
+        <v>2.00576651075294</v>
       </c>
       <c r="D31">
-        <v>3.051846570723873</v>
+        <v>2.00576651075294</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>3.032699715346079</v>
+        <v>1.99718094270538</v>
       </c>
       <c r="B32">
-        <v>3.032699715346079</v>
+        <v>1.99718094270538</v>
       </c>
       <c r="C32">
-        <v>3.032699715346079</v>
+        <v>1.99718094270538</v>
       </c>
       <c r="D32">
-        <v>3.032699715346079</v>
+        <v>1.99718094270538</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>3.077562908402808</v>
+        <v>1.97338138966401</v>
       </c>
       <c r="B33">
-        <v>3.077562908402808</v>
+        <v>1.97338138966401</v>
       </c>
       <c r="C33">
-        <v>3.077562908402808</v>
+        <v>1.97338138966401</v>
       </c>
       <c r="D33">
-        <v>3.077562908402808</v>
+        <v>1.97338138966401</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>3.184713083742517</v>
+        <v>1.98888529881145</v>
       </c>
       <c r="B34">
-        <v>3.184713083742517</v>
+        <v>1.98888529881145</v>
       </c>
       <c r="C34">
-        <v>3.184713083742517</v>
+        <v>1.98888529881145</v>
       </c>
       <c r="D34">
-        <v>3.184713083742517</v>
+        <v>1.98888529881145</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>3.353545748712351</v>
+        <v>2.03623372769605</v>
       </c>
       <c r="B35">
-        <v>3.353545748712351</v>
+        <v>2.03623372769605</v>
       </c>
       <c r="C35">
-        <v>3.353545748712351</v>
+        <v>2.03623372769605</v>
       </c>
       <c r="D35">
-        <v>3.353545748712351</v>
+        <v>2.03623372769605</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>3.491515755626502</v>
+        <v>2.09297508291288</v>
       </c>
       <c r="B36">
-        <v>3.491515755626502</v>
+        <v>2.09297508291288</v>
       </c>
       <c r="C36">
-        <v>3.491515755626502</v>
+        <v>2.09297508291288</v>
       </c>
       <c r="D36">
-        <v>3.491515755626502</v>
+        <v>2.09297508291288</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>3.58784408904</v>
+        <v>2.14943747513181</v>
       </c>
       <c r="B37">
-        <v>3.58784408904</v>
+        <v>2.14943747513181</v>
       </c>
       <c r="C37">
-        <v>3.58784408904</v>
+        <v>2.14943747513181</v>
       </c>
       <c r="D37">
-        <v>3.58784408904</v>
+        <v>2.14943747513181</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>3.661104470295045</v>
+        <v>2.18147879959372</v>
       </c>
       <c r="B38">
-        <v>3.661104470295045</v>
+        <v>2.18147879959372</v>
       </c>
       <c r="C38">
-        <v>3.661104470295045</v>
+        <v>2.18147879959372</v>
       </c>
       <c r="D38">
-        <v>3.661104470295045</v>
+        <v>2.18147879959372</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>3.694134909707811</v>
+        <v>2.23022671009663</v>
       </c>
       <c r="B39">
-        <v>3.694134909707811</v>
+        <v>2.23022671009663</v>
       </c>
       <c r="C39">
-        <v>3.694134909707811</v>
+        <v>2.23022671009663</v>
       </c>
       <c r="D39">
-        <v>3.694134909707811</v>
+        <v>2.23022671009663</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>3.722944903377497</v>
+        <v>2.25336712159609</v>
       </c>
       <c r="B40">
-        <v>3.722944903377497</v>
+        <v>2.25336712159609</v>
       </c>
       <c r="C40">
-        <v>3.722944903377497</v>
+        <v>2.25336712159609</v>
       </c>
       <c r="D40">
-        <v>3.722944903377497</v>
+        <v>2.25336712159609</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>3.739757073365824</v>
+        <v>2.24522354896554</v>
       </c>
       <c r="B41">
-        <v>3.739757073365824</v>
+        <v>2.24522354896554</v>
       </c>
       <c r="C41">
-        <v>3.739757073365824</v>
+        <v>2.24522354896554</v>
       </c>
       <c r="D41">
-        <v>3.739757073365824</v>
+        <v>2.24522354896554</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>3.760095276170511</v>
+        <v>2.20254193916058</v>
       </c>
       <c r="B42">
-        <v>3.760095276170511</v>
+        <v>2.20254193916058</v>
       </c>
       <c r="C42">
-        <v>3.760095276170511</v>
+        <v>2.20254193916058</v>
       </c>
       <c r="D42">
-        <v>3.760095276170511</v>
+        <v>2.20254193916058</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>3.754275663348855</v>
+        <v>2.1611220501774</v>
       </c>
       <c r="B43">
-        <v>3.754275663348855</v>
+        <v>2.1611220501774</v>
       </c>
       <c r="C43">
-        <v>3.754275663348855</v>
+        <v>2.1611220501774</v>
       </c>
       <c r="D43">
-        <v>3.754275663348855</v>
+        <v>2.1611220501774</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>3.696563456529264</v>
+        <v>2.13247152921334</v>
       </c>
       <c r="B44">
-        <v>3.696563456529264</v>
+        <v>2.13247152921334</v>
       </c>
       <c r="C44">
-        <v>3.696563456529264</v>
+        <v>2.13247152921334</v>
       </c>
       <c r="D44">
-        <v>3.696563456529264</v>
+        <v>2.13247152921334</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>3.701320128657655</v>
+        <v>2.09766783028309</v>
       </c>
       <c r="B45">
-        <v>3.701320128657655</v>
+        <v>2.09766783028309</v>
       </c>
       <c r="C45">
-        <v>3.701320128657655</v>
+        <v>2.09766783028309</v>
       </c>
       <c r="D45">
-        <v>3.701320128657655</v>
+        <v>2.09766783028309</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>3.677075693531275</v>
+        <v>2.07497335446788</v>
       </c>
       <c r="B46">
-        <v>3.677075693531275</v>
+        <v>2.07497335446788</v>
       </c>
       <c r="C46">
-        <v>3.677075693531275</v>
+        <v>2.07497335446788</v>
       </c>
       <c r="D46">
-        <v>3.677075693531275</v>
+        <v>2.07497335446788</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>3.601604933371169</v>
+        <v>2.06433991500957</v>
       </c>
       <c r="B47">
-        <v>3.601604933371169</v>
+        <v>2.06433991500957</v>
       </c>
       <c r="C47">
-        <v>3.601604933371169</v>
+        <v>2.06433991500957</v>
       </c>
       <c r="D47">
-        <v>3.601604933371169</v>
+        <v>2.06433991500957</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>3.511834594641367</v>
+        <v>2.04456851359002</v>
       </c>
       <c r="B48">
-        <v>3.511834594641367</v>
+        <v>2.04456851359002</v>
       </c>
       <c r="C48">
-        <v>3.511834594641367</v>
+        <v>2.04456851359002</v>
       </c>
       <c r="D48">
-        <v>3.511834594641367</v>
+        <v>2.04456851359002</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>3.406616865551817</v>
+        <v>2.01860789495083</v>
       </c>
       <c r="B49">
-        <v>3.406616865551817</v>
+        <v>2.01860789495083</v>
       </c>
       <c r="C49">
-        <v>3.406616865551817</v>
+        <v>2.01860789495083</v>
       </c>
       <c r="D49">
-        <v>3.406616865551817</v>
+        <v>2.01860789495083</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>3.38155832792946</v>
+        <v>2.00640055111843</v>
       </c>
       <c r="B50">
-        <v>3.38155832792946</v>
+        <v>2.00640055111843</v>
       </c>
       <c r="C50">
-        <v>3.38155832792946</v>
+        <v>2.00640055111843</v>
       </c>
       <c r="D50">
-        <v>3.38155832792946</v>
+        <v>2.00640055111843</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>3.342590362880645</v>
+        <v>1.9854199581703</v>
       </c>
       <c r="B51">
-        <v>3.342590362880645</v>
+        <v>1.9854199581703</v>
       </c>
       <c r="C51">
-        <v>3.342590362880645</v>
+        <v>1.9854199581703</v>
       </c>
       <c r="D51">
-        <v>3.342590362880645</v>
+        <v>1.9854199581703</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>3.234621719323786</v>
+        <v>1.98526670654318</v>
       </c>
       <c r="B52">
-        <v>3.234621719323786</v>
+        <v>1.98526670654318</v>
       </c>
       <c r="C52">
-        <v>3.234621719323786</v>
+        <v>1.98526670654318</v>
       </c>
       <c r="D52">
-        <v>3.234621719323786</v>
+        <v>1.98526670654318</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>3.250627977115176</v>
+        <v>1.98936410915112</v>
       </c>
       <c r="B53">
-        <v>3.250627977115176</v>
+        <v>1.98936410915112</v>
       </c>
       <c r="C53">
-        <v>3.250627977115176</v>
+        <v>1.98936410915112</v>
       </c>
       <c r="D53">
-        <v>3.250627977115176</v>
+        <v>1.98936410915112</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>3.263020476642455</v>
+        <v>1.98350720320156</v>
       </c>
       <c r="B54">
-        <v>3.263020476642455</v>
+        <v>1.98350720320156</v>
       </c>
       <c r="C54">
-        <v>3.263020476642455</v>
+        <v>1.98350720320156</v>
       </c>
       <c r="D54">
-        <v>3.263020476642455</v>
+        <v>1.98350720320156</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>3.200348595784786</v>
+        <v>1.97106223560601</v>
       </c>
       <c r="B55">
-        <v>3.200348595784786</v>
+        <v>1.97106223560601</v>
       </c>
       <c r="C55">
-        <v>3.200348595784786</v>
+        <v>1.97106223560601</v>
       </c>
       <c r="D55">
-        <v>3.200348595784786</v>
+        <v>1.97106223560601</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>3.163350600725403</v>
+        <v>1.96642329284883</v>
       </c>
       <c r="B56">
-        <v>3.163350600725403</v>
+        <v>1.96642329284883</v>
       </c>
       <c r="C56">
-        <v>3.163350600725403</v>
+        <v>1.96642329284883</v>
       </c>
       <c r="D56">
-        <v>3.163350600725403</v>
+        <v>1.96642329284883</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>3.191888981860816</v>
+        <v>1.96790282035953</v>
       </c>
       <c r="B57">
-        <v>3.191888981860816</v>
+        <v>1.96790282035953</v>
       </c>
       <c r="C57">
-        <v>3.191888981860816</v>
+        <v>1.96790282035953</v>
       </c>
       <c r="D57">
-        <v>3.191888981860816</v>
+        <v>1.96790282035953</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>3.269844307342375</v>
+        <v>1.99292380165325</v>
       </c>
       <c r="B58">
-        <v>3.269844307342375</v>
+        <v>1.99292380165325</v>
       </c>
       <c r="C58">
-        <v>3.269844307342375</v>
+        <v>1.99292380165325</v>
       </c>
       <c r="D58">
-        <v>3.269844307342375</v>
+        <v>1.99292380165325</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>3.425384743533304</v>
+        <v>2.0456179513047</v>
       </c>
       <c r="B59">
-        <v>3.425384743533304</v>
+        <v>2.0456179513047</v>
       </c>
       <c r="C59">
-        <v>3.425384743533304</v>
+        <v>2.0456179513047</v>
       </c>
       <c r="D59">
-        <v>3.425384743533304</v>
+        <v>2.0456179513047</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>3.540884511240215</v>
+        <v>2.08679963809949</v>
       </c>
       <c r="B60">
-        <v>3.540884511240215</v>
+        <v>2.08679963809949</v>
       </c>
       <c r="C60">
-        <v>3.540884511240215</v>
+        <v>2.08679963809949</v>
       </c>
       <c r="D60">
-        <v>3.540884511240215</v>
+        <v>2.08679963809949</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>3.644596539264295</v>
+        <v>2.13001662020944</v>
       </c>
       <c r="B61">
-        <v>3.644596539264295</v>
+        <v>2.13001662020944</v>
       </c>
       <c r="C61">
-        <v>3.644596539264295</v>
+        <v>2.13001662020944</v>
       </c>
       <c r="D61">
-        <v>3.644596539264295</v>
+        <v>2.13001662020944</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>3.681141484914912</v>
+        <v>2.19003409323057</v>
       </c>
       <c r="B62">
-        <v>3.681141484914912</v>
+        <v>2.19003409323057</v>
       </c>
       <c r="C62">
-        <v>3.681141484914912</v>
+        <v>2.19003409323057</v>
       </c>
       <c r="D62">
-        <v>3.681141484914912</v>
+        <v>2.19003409323057</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>3.732567266416344</v>
+        <v>2.22042284227858</v>
       </c>
       <c r="B63">
-        <v>3.732567266416344</v>
+        <v>2.22042284227858</v>
       </c>
       <c r="C63">
-        <v>3.732567266416344</v>
+        <v>2.22042284227858</v>
       </c>
       <c r="D63">
-        <v>3.732567266416344</v>
+        <v>2.22042284227858</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>3.777086586355688</v>
+        <v>2.23980107894237</v>
       </c>
       <c r="B64">
-        <v>3.777086586355688</v>
+        <v>2.23980107894237</v>
       </c>
       <c r="C64">
-        <v>3.777086586355688</v>
+        <v>2.23980107894237</v>
       </c>
       <c r="D64">
-        <v>3.777086586355688</v>
+        <v>2.23980107894237</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>3.778396382349944</v>
+        <v>2.22845772599496</v>
       </c>
       <c r="B65">
-        <v>3.778396382349944</v>
+        <v>2.22845772599496</v>
       </c>
       <c r="C65">
-        <v>3.778396382349944</v>
+        <v>2.22845772599496</v>
       </c>
       <c r="D65">
-        <v>3.778396382349944</v>
+        <v>2.22845772599496</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>3.836751319813255</v>
+        <v>2.19916139547312</v>
       </c>
       <c r="B66">
-        <v>3.836751319813255</v>
+        <v>2.19916139547312</v>
       </c>
       <c r="C66">
-        <v>3.836751319813255</v>
+        <v>2.19916139547312</v>
       </c>
       <c r="D66">
-        <v>3.836751319813255</v>
+        <v>2.19916139547312</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>3.805593156968384</v>
+        <v>2.15996142136685</v>
       </c>
       <c r="B67">
-        <v>3.805593156968384</v>
+        <v>2.15996142136685</v>
       </c>
       <c r="C67">
-        <v>3.805593156968384</v>
+        <v>2.15996142136685</v>
       </c>
       <c r="D67">
-        <v>3.805593156968384</v>
+        <v>2.15996142136685</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>3.752730699204357</v>
+        <v>2.11038418271714</v>
       </c>
       <c r="B68">
-        <v>3.752730699204357</v>
+        <v>2.11038418271714</v>
       </c>
       <c r="C68">
-        <v>3.752730699204357</v>
+        <v>2.11038418271714</v>
       </c>
       <c r="D68">
-        <v>3.752730699204357</v>
+        <v>2.11038418271714</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>3.709584688593021</v>
+        <v>2.07561481866582</v>
       </c>
       <c r="B69">
-        <v>3.709584688593021</v>
+        <v>2.07561481866582</v>
       </c>
       <c r="C69">
-        <v>3.709584688593021</v>
+        <v>2.07561481866582</v>
       </c>
       <c r="D69">
-        <v>3.709584688593021</v>
+        <v>2.07561481866582</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>3.640525344001943</v>
+        <v>2.05162090013137</v>
       </c>
       <c r="B70">
-        <v>3.640525344001943</v>
+        <v>2.05162090013137</v>
       </c>
       <c r="C70">
-        <v>3.640525344001943</v>
+        <v>2.05162090013137</v>
       </c>
       <c r="D70">
-        <v>3.640525344001943</v>
+        <v>2.05162090013137</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>3.492603801342914</v>
+        <v>2.0317109835767</v>
       </c>
       <c r="B71">
-        <v>3.492603801342914</v>
+        <v>2.0317109835767</v>
       </c>
       <c r="C71">
-        <v>3.492603801342914</v>
+        <v>2.0317109835767</v>
       </c>
       <c r="D71">
-        <v>3.492603801342914</v>
+        <v>2.0317109835767</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>3.431055808614426</v>
+        <v>2.00573269254751</v>
       </c>
       <c r="B72">
-        <v>3.431055808614426</v>
+        <v>2.00573269254751</v>
       </c>
       <c r="C72">
-        <v>3.431055808614426</v>
+        <v>2.00573269254751</v>
       </c>
       <c r="D72">
-        <v>3.431055808614426</v>
+        <v>2.00573269254751</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>3.378263000186916</v>
+        <v>1.98633420281962</v>
       </c>
       <c r="B73">
-        <v>3.378263000186916</v>
+        <v>1.98633420281962</v>
       </c>
       <c r="C73">
-        <v>3.378263000186916</v>
+        <v>1.98633420281962</v>
       </c>
       <c r="D73">
-        <v>3.378263000186916</v>
+        <v>1.98633420281962</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>3.356519357781737</v>
+        <v>1.97222716083529</v>
       </c>
       <c r="B74">
-        <v>3.356519357781737</v>
+        <v>1.97222716083529</v>
       </c>
       <c r="C74">
-        <v>3.356519357781737</v>
+        <v>1.97222716083529</v>
       </c>
       <c r="D74">
-        <v>3.356519357781737</v>
+        <v>1.97222716083529</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>3.270788753780485</v>
+        <v>1.96269797967156</v>
       </c>
       <c r="B75">
-        <v>3.270788753780485</v>
+        <v>1.96269797967156</v>
       </c>
       <c r="C75">
-        <v>3.270788753780485</v>
+        <v>1.96269797967156</v>
       </c>
       <c r="D75">
-        <v>3.270788753780485</v>
+        <v>1.96269797967156</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>3.238199580637342</v>
+        <v>1.95816466213392</v>
       </c>
       <c r="B76">
-        <v>3.238199580637342</v>
+        <v>1.95816466213392</v>
       </c>
       <c r="C76">
-        <v>3.238199580637342</v>
+        <v>1.95816466213392</v>
       </c>
       <c r="D76">
-        <v>3.238199580637342</v>
+        <v>1.95816466213392</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>3.167234606554725</v>
+        <v>1.93581165046019</v>
       </c>
       <c r="B77">
-        <v>3.167234606554725</v>
+        <v>1.93581165046019</v>
       </c>
       <c r="C77">
-        <v>3.167234606554725</v>
+        <v>1.93581165046019</v>
       </c>
       <c r="D77">
-        <v>3.167234606554725</v>
+        <v>1.93581165046019</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>3.141962839678865</v>
+        <v>1.91684029136315</v>
       </c>
       <c r="B78">
-        <v>3.141962839678865</v>
+        <v>1.91684029136315</v>
       </c>
       <c r="C78">
-        <v>3.141962839678865</v>
+        <v>1.91684029136315</v>
       </c>
       <c r="D78">
-        <v>3.141962839678865</v>
+        <v>1.91684029136315</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>3.095033228613066</v>
+        <v>1.91845028889542</v>
       </c>
       <c r="B79">
-        <v>3.095033228613066</v>
+        <v>1.91845028889542</v>
       </c>
       <c r="C79">
-        <v>3.095033228613066</v>
+        <v>1.91845028889542</v>
       </c>
       <c r="D79">
-        <v>3.095033228613066</v>
+        <v>1.91845028889542</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>3.054793363387845</v>
+        <v>1.90879502836272</v>
       </c>
       <c r="B80">
-        <v>3.054793363387845</v>
+        <v>1.90879502836272</v>
       </c>
       <c r="C80">
-        <v>3.054793363387845</v>
+        <v>1.90879502836272</v>
       </c>
       <c r="D80">
-        <v>3.054793363387845</v>
+        <v>1.90879502836272</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>3.132572486583818</v>
+        <v>1.9039928252802</v>
       </c>
       <c r="B81">
-        <v>3.132572486583818</v>
+        <v>1.9039928252802</v>
       </c>
       <c r="C81">
-        <v>3.132572486583818</v>
+        <v>1.9039928252802</v>
       </c>
       <c r="D81">
-        <v>3.132572486583818</v>
+        <v>1.9039928252802</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>3.279770009726333</v>
+        <v>1.90525577282005</v>
       </c>
       <c r="B82">
-        <v>3.279770009726333</v>
+        <v>1.90525577282005</v>
       </c>
       <c r="C82">
-        <v>3.279770009726333</v>
+        <v>1.90525577282005</v>
       </c>
       <c r="D82">
-        <v>3.279770009726333</v>
+        <v>1.90525577282005</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>3.437017028335126</v>
+        <v>1.97201179491129</v>
       </c>
       <c r="B83">
-        <v>3.437017028335126</v>
+        <v>1.97201179491129</v>
       </c>
       <c r="C83">
-        <v>3.437017028335126</v>
+        <v>1.97201179491129</v>
       </c>
       <c r="D83">
-        <v>3.437017028335126</v>
+        <v>1.97201179491129</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>3.592697654692082</v>
+        <v>2.01604022826769</v>
       </c>
       <c r="B84">
-        <v>3.592697654692082</v>
+        <v>2.01604022826769</v>
       </c>
       <c r="C84">
-        <v>3.592697654692082</v>
+        <v>2.01604022826769</v>
       </c>
       <c r="D84">
-        <v>3.592697654692082</v>
+        <v>2.01604022826769</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>3.682788992642335</v>
+        <v>2.08417751627025</v>
       </c>
       <c r="B85">
-        <v>3.682788992642335</v>
+        <v>2.08417751627025</v>
       </c>
       <c r="C85">
-        <v>3.682788992642335</v>
+        <v>2.08417751627025</v>
       </c>
       <c r="D85">
-        <v>3.682788992642335</v>
+        <v>2.08417751627025</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>3.780457383695865</v>
+        <v>2.12550538158865</v>
       </c>
       <c r="B86">
-        <v>3.780457383695865</v>
+        <v>2.12550538158865</v>
       </c>
       <c r="C86">
-        <v>3.780457383695865</v>
+        <v>2.12550538158865</v>
       </c>
       <c r="D86">
-        <v>3.780457383695865</v>
+        <v>2.12550538158865</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>3.865935748712129</v>
+        <v>2.1670519880233</v>
       </c>
       <c r="B87">
-        <v>3.865935748712129</v>
+        <v>2.1670519880233</v>
       </c>
       <c r="C87">
-        <v>3.865935748712129</v>
+        <v>2.1670519880233</v>
       </c>
       <c r="D87">
-        <v>3.865935748712129</v>
+        <v>2.1670519880233</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>3.912955120482027</v>
+        <v>2.18416356131052</v>
       </c>
       <c r="B88">
-        <v>3.912955120482027</v>
+        <v>2.18416356131052</v>
       </c>
       <c r="C88">
-        <v>3.912955120482027</v>
+        <v>2.18416356131052</v>
       </c>
       <c r="D88">
-        <v>3.912955120482027</v>
+        <v>2.18416356131052</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>3.93577338342618</v>
+        <v>2.19112892503681</v>
       </c>
       <c r="B89">
-        <v>3.93577338342618</v>
+        <v>2.19112892503681</v>
       </c>
       <c r="C89">
-        <v>3.93577338342618</v>
+        <v>2.19112892503681</v>
       </c>
       <c r="D89">
-        <v>3.93577338342618</v>
+        <v>2.19112892503681</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>3.953923177803204</v>
+        <v>2.16688135876787</v>
       </c>
       <c r="B90">
-        <v>3.953923177803204</v>
+        <v>2.16688135876787</v>
       </c>
       <c r="C90">
-        <v>3.953923177803204</v>
+        <v>2.16688135876787</v>
       </c>
       <c r="D90">
-        <v>3.953923177803204</v>
+        <v>2.16688135876787</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>3.947597622764544</v>
+        <v>2.11763909657389</v>
       </c>
       <c r="B91">
-        <v>3.947597622764544</v>
+        <v>2.11763909657389</v>
       </c>
       <c r="C91">
-        <v>3.947597622764544</v>
+        <v>2.11763909657389</v>
       </c>
       <c r="D91">
-        <v>3.947597622764544</v>
+        <v>2.11763909657389</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>3.907022935566003</v>
+        <v>2.07105821716151</v>
       </c>
       <c r="B92">
-        <v>3.907022935566003</v>
+        <v>2.07105821716151</v>
       </c>
       <c r="C92">
-        <v>3.907022935566003</v>
+        <v>2.07105821716151</v>
       </c>
       <c r="D92">
-        <v>3.907022935566003</v>
+        <v>2.07105821716151</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>3.879524132192176</v>
+        <v>2.03915735189778</v>
       </c>
       <c r="B93">
-        <v>3.879524132192176</v>
+        <v>2.03915735189778</v>
       </c>
       <c r="C93">
-        <v>3.879524132192176</v>
+        <v>2.03915735189778</v>
       </c>
       <c r="D93">
-        <v>3.879524132192176</v>
+        <v>2.03915735189778</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>3.789421381761034</v>
+        <v>2.02134223371188</v>
       </c>
       <c r="B94">
-        <v>3.789421381761034</v>
+        <v>2.02134223371188</v>
       </c>
       <c r="C94">
-        <v>3.789421381761034</v>
+        <v>2.02134223371188</v>
       </c>
       <c r="D94">
-        <v>3.789421381761034</v>
+        <v>2.02134223371188</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>3.623438172479954</v>
+        <v>2.00735645009658</v>
       </c>
       <c r="B95">
-        <v>3.623438172479954</v>
+        <v>2.00735645009658</v>
       </c>
       <c r="C95">
-        <v>3.623438172479954</v>
+        <v>2.00735645009658</v>
       </c>
       <c r="D95">
-        <v>3.623438172479954</v>
+        <v>2.00735645009658</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>3.532895848296106</v>
+        <v>1.9873664032489</v>
       </c>
       <c r="B96">
-        <v>3.532895848296106</v>
+        <v>1.9873664032489</v>
       </c>
       <c r="C96">
-        <v>3.532895848296106</v>
+        <v>1.9873664032489</v>
       </c>
       <c r="D96">
-        <v>3.532895848296106</v>
+        <v>1.9873664032489</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>3.460174962790628</v>
+        <v>1.97491030016831</v>
       </c>
       <c r="B97">
-        <v>3.460174962790628</v>
+        <v>1.97491030016831</v>
       </c>
       <c r="C97">
-        <v>3.460174962790628</v>
+        <v>1.97491030016831</v>
       </c>
       <c r="D97">
-        <v>3.460174962790628</v>
+        <v>1.97491030016831</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>3.411365759898344</v>
+        <v>1.97257001093884</v>
       </c>
       <c r="B98">
-        <v>3.411365759898344</v>
+        <v>1.97257001093884</v>
       </c>
       <c r="C98">
-        <v>3.411365759898344</v>
+        <v>1.97257001093884</v>
       </c>
       <c r="D98">
-        <v>3.411365759898344</v>
+        <v>1.97257001093884</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>3.356075147527474</v>
+        <v>1.96507482940691</v>
       </c>
       <c r="B99">
-        <v>3.356075147527474</v>
+        <v>1.96507482940691</v>
       </c>
       <c r="C99">
-        <v>3.356075147527474</v>
+        <v>1.96507482940691</v>
       </c>
       <c r="D99">
-        <v>3.356075147527474</v>
+        <v>1.96507482940691</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>3.293237806543635</v>
+        <v>1.97006969485959</v>
       </c>
       <c r="B100">
-        <v>3.293237806543635</v>
+        <v>1.97006969485959</v>
       </c>
       <c r="C100">
-        <v>3.293237806543635</v>
+        <v>1.97006969485959</v>
       </c>
       <c r="D100">
-        <v>3.293237806543635</v>
+        <v>1.97006969485959</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>3.209318898743057</v>
+        <v>1.95292662615814</v>
       </c>
       <c r="B101">
-        <v>3.209318898743057</v>
+        <v>1.95292662615814</v>
       </c>
       <c r="C101">
-        <v>3.209318898743057</v>
+        <v>1.95292662615814</v>
       </c>
       <c r="D101">
-        <v>3.209318898743057</v>
+        <v>1.95292662615814</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>3.16701421020802</v>
+        <v>1.94790995775099</v>
       </c>
       <c r="B102">
-        <v>3.16701421020802</v>
+        <v>1.94790995775099</v>
       </c>
       <c r="C102">
-        <v>3.16701421020802</v>
+        <v>1.94790995775099</v>
       </c>
       <c r="D102">
-        <v>3.16701421020802</v>
+        <v>1.94790995775099</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>3.098544423842233</v>
+        <v>1.95194018160102</v>
       </c>
       <c r="B103">
-        <v>3.098544423842233</v>
+        <v>1.95194018160102</v>
       </c>
       <c r="C103">
-        <v>3.098544423842233</v>
+        <v>1.95194018160102</v>
       </c>
       <c r="D103">
-        <v>3.098544423842233</v>
+        <v>1.95194018160102</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>3.096939268055023</v>
+        <v>1.93447049520526</v>
       </c>
       <c r="B104">
-        <v>3.096939268055023</v>
+        <v>1.93447049520526</v>
       </c>
       <c r="C104">
-        <v>3.096939268055023</v>
+        <v>1.93447049520526</v>
       </c>
       <c r="D104">
-        <v>3.096939268055023</v>
+        <v>1.93447049520526</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>3.167204531825085</v>
+        <v>1.93743600748584</v>
       </c>
       <c r="B105">
-        <v>3.167204531825085</v>
+        <v>1.93743600748584</v>
       </c>
       <c r="C105">
-        <v>3.167204531825085</v>
+        <v>1.93743600748584</v>
       </c>
       <c r="D105">
-        <v>3.167204531825085</v>
+        <v>1.93743600748584</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>3.317445258533412</v>
+        <v>1.95858393613116</v>
       </c>
       <c r="B106">
-        <v>3.317445258533412</v>
+        <v>1.95858393613116</v>
       </c>
       <c r="C106">
-        <v>3.317445258533412</v>
+        <v>1.95858393613116</v>
       </c>
       <c r="D106">
-        <v>3.317445258533412</v>
+        <v>1.95858393613116</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>3.503160192078251</v>
+        <v>1.98592187588113</v>
       </c>
       <c r="B107">
-        <v>3.503160192078251</v>
+        <v>1.98592187588113</v>
       </c>
       <c r="C107">
-        <v>3.503160192078251</v>
+        <v>1.98592187588113</v>
       </c>
       <c r="D107">
-        <v>3.503160192078251</v>
+        <v>1.98592187588113</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>3.618876407884105</v>
+        <v>2.03640979281921</v>
       </c>
       <c r="B108">
-        <v>3.618876407884105</v>
+        <v>2.03640979281921</v>
       </c>
       <c r="C108">
-        <v>3.618876407884105</v>
+        <v>2.03640979281921</v>
       </c>
       <c r="D108">
-        <v>3.618876407884105</v>
+        <v>2.03640979281921</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>3.721566347286569</v>
+        <v>2.09232275526598</v>
       </c>
       <c r="B109">
-        <v>3.721566347286569</v>
+        <v>2.09232275526598</v>
       </c>
       <c r="C109">
-        <v>3.721566347286569</v>
+        <v>2.09232275526598</v>
       </c>
       <c r="D109">
-        <v>3.721566347286569</v>
+        <v>2.09232275526598</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>3.830597826775667</v>
+        <v>2.13216111695458</v>
       </c>
       <c r="B110">
-        <v>3.830597826775667</v>
+        <v>2.13216111695458</v>
       </c>
       <c r="C110">
-        <v>3.830597826775667</v>
+        <v>2.13216111695458</v>
       </c>
       <c r="D110">
-        <v>3.830597826775667</v>
+        <v>2.13216111695458</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>3.884852317793596</v>
+        <v>2.15719008461664</v>
       </c>
       <c r="B111">
-        <v>3.884852317793596</v>
+        <v>2.15719008461664</v>
       </c>
       <c r="C111">
-        <v>3.884852317793596</v>
+        <v>2.15719008461664</v>
       </c>
       <c r="D111">
-        <v>3.884852317793596</v>
+        <v>2.15719008461664</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>3.854334968701732</v>
+        <v>2.17400478076992</v>
       </c>
       <c r="B112">
-        <v>3.854334968701732</v>
+        <v>2.17400478076992</v>
       </c>
       <c r="C112">
-        <v>3.854334968701732</v>
+        <v>2.17400478076992</v>
       </c>
       <c r="D112">
-        <v>3.854334968701732</v>
+        <v>2.17400478076992</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>3.845407534829213</v>
+        <v>2.17985189900232</v>
       </c>
       <c r="B113">
-        <v>3.845407534829213</v>
+        <v>2.17985189900232</v>
       </c>
       <c r="C113">
-        <v>3.845407534829213</v>
+        <v>2.17985189900232</v>
       </c>
       <c r="D113">
-        <v>3.845407534829213</v>
+        <v>2.17985189900232</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>3.829578674551078</v>
+        <v>2.16574368223756</v>
       </c>
       <c r="B114">
-        <v>3.829578674551078</v>
+        <v>2.16574368223756</v>
       </c>
       <c r="C114">
-        <v>3.829578674551078</v>
+        <v>2.16574368223756</v>
       </c>
       <c r="D114">
-        <v>3.829578674551078</v>
+        <v>2.16574368223756</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>3.824593385546378</v>
+        <v>2.12637244128438</v>
       </c>
       <c r="B115">
-        <v>3.824593385546378</v>
+        <v>2.12637244128438</v>
       </c>
       <c r="C115">
-        <v>3.824593385546378</v>
+        <v>2.12637244128438</v>
       </c>
       <c r="D115">
-        <v>3.824593385546378</v>
+        <v>2.12637244128438</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>3.811477830901602</v>
+        <v>2.10020570780914</v>
       </c>
       <c r="B116">
-        <v>3.811477830901602</v>
+        <v>2.10020570780914</v>
       </c>
       <c r="C116">
-        <v>3.811477830901602</v>
+        <v>2.10020570780914</v>
       </c>
       <c r="D116">
-        <v>3.811477830901602</v>
+        <v>2.10020570780914</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>3.792932599297786</v>
+        <v>2.08179988447587</v>
       </c>
       <c r="B117">
-        <v>3.792932599297786</v>
+        <v>2.08179988447587</v>
       </c>
       <c r="C117">
-        <v>3.792932599297786</v>
+        <v>2.08179988447587</v>
       </c>
       <c r="D117">
-        <v>3.792932599297786</v>
+        <v>2.08179988447587</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>3.721624777416056</v>
+        <v>2.06714542232962</v>
       </c>
       <c r="B118">
-        <v>3.721624777416056</v>
+        <v>2.06714542232962</v>
       </c>
       <c r="C118">
-        <v>3.721624777416056</v>
+        <v>2.06714542232962</v>
       </c>
       <c r="D118">
-        <v>3.721624777416056</v>
+        <v>2.06714542232962</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>3.629122850186017</v>
+        <v>2.0493866275288</v>
       </c>
       <c r="B119">
-        <v>3.629122850186017</v>
+        <v>2.0493866275288</v>
       </c>
       <c r="C119">
-        <v>3.629122850186017</v>
+        <v>2.0493866275288</v>
       </c>
       <c r="D119">
-        <v>3.629122850186017</v>
+        <v>2.0493866275288</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>3.535161615416061</v>
+        <v>2.022092025402</v>
       </c>
       <c r="B120">
-        <v>3.535161615416061</v>
+        <v>2.022092025402</v>
       </c>
       <c r="C120">
-        <v>3.535161615416061</v>
+        <v>2.022092025402</v>
       </c>
       <c r="D120">
-        <v>3.535161615416061</v>
+        <v>2.022092025402</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>3.472615287742585</v>
+        <v>2.02144748924058</v>
       </c>
       <c r="B121">
-        <v>3.472615287742585</v>
+        <v>2.02144748924058</v>
       </c>
       <c r="C121">
-        <v>3.472615287742585</v>
+        <v>2.02144748924058</v>
       </c>
       <c r="D121">
-        <v>3.472615287742585</v>
+        <v>2.02144748924058</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>3.393765813549452</v>
+        <v>1.97741375432809</v>
       </c>
       <c r="B122">
-        <v>3.393765813549452</v>
+        <v>1.97741375432809</v>
       </c>
       <c r="C122">
-        <v>3.393765813549452</v>
+        <v>1.97741375432809</v>
       </c>
       <c r="D122">
-        <v>3.393765813549452</v>
+        <v>1.97741375432809</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>3.360518759392457</v>
+        <v>1.99257043886081</v>
       </c>
       <c r="B123">
-        <v>3.360518759392457</v>
+        <v>1.99257043886081</v>
       </c>
       <c r="C123">
-        <v>3.360518759392457</v>
+        <v>1.99257043886081</v>
       </c>
       <c r="D123">
-        <v>3.360518759392457</v>
+        <v>1.99257043886081</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>3.373828573399168</v>
+        <v>1.99322293413111</v>
       </c>
       <c r="B124">
-        <v>3.373828573399168</v>
+        <v>1.99322293413111</v>
       </c>
       <c r="C124">
-        <v>3.373828573399168</v>
+        <v>1.99322293413111</v>
       </c>
       <c r="D124">
-        <v>3.373828573399168</v>
+        <v>1.99322293413111</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>3.273288558400787</v>
+        <v>1.98617246359098</v>
       </c>
       <c r="B125">
-        <v>3.273288558400787</v>
+        <v>1.98617246359098</v>
       </c>
       <c r="C125">
-        <v>3.273288558400787</v>
+        <v>1.98617246359098</v>
       </c>
       <c r="D125">
-        <v>3.273288558400787</v>
+        <v>1.98617246359098</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>3.199015171597209</v>
+        <v>1.98803676943337</v>
       </c>
       <c r="B126">
-        <v>3.199015171597209</v>
+        <v>1.98803676943337</v>
       </c>
       <c r="C126">
-        <v>3.199015171597209</v>
+        <v>1.98803676943337</v>
       </c>
       <c r="D126">
-        <v>3.199015171597209</v>
+        <v>1.98803676943337</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>3.160022711501577</v>
+        <v>1.97587871719075</v>
       </c>
       <c r="B127">
-        <v>3.160022711501577</v>
+        <v>1.97587871719075</v>
       </c>
       <c r="C127">
-        <v>3.160022711501577</v>
+        <v>1.97587871719075</v>
       </c>
       <c r="D127">
-        <v>3.160022711501577</v>
+        <v>1.97587871719075</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>3.137429680447227</v>
+        <v>1.97130803578694</v>
       </c>
       <c r="B128">
-        <v>3.137429680447227</v>
+        <v>1.97130803578694</v>
       </c>
       <c r="C128">
-        <v>3.137429680447227</v>
+        <v>1.97130803578694</v>
       </c>
       <c r="D128">
-        <v>3.137429680447227</v>
+        <v>1.97130803578694</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>3.147566020560781</v>
+        <v>1.95207249830288</v>
       </c>
       <c r="B129">
-        <v>3.147566020560781</v>
+        <v>1.95207249830288</v>
       </c>
       <c r="C129">
-        <v>3.147566020560781</v>
+        <v>1.95207249830288</v>
       </c>
       <c r="D129">
-        <v>3.147566020560781</v>
+        <v>1.95207249830288</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>3.29422635885077</v>
+        <v>1.95908635976348</v>
       </c>
       <c r="B130">
-        <v>3.29422635885077</v>
+        <v>1.95908635976348</v>
       </c>
       <c r="C130">
-        <v>3.29422635885077</v>
+        <v>1.95908635976348</v>
       </c>
       <c r="D130">
-        <v>3.29422635885077</v>
+        <v>1.95908635976348</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>3.476652381540591</v>
+        <v>1.99513972407408</v>
       </c>
       <c r="B131">
-        <v>3.476652381540591</v>
+        <v>1.99513972407408</v>
       </c>
       <c r="C131">
-        <v>3.476652381540591</v>
+        <v>1.99513972407408</v>
       </c>
       <c r="D131">
-        <v>3.476652381540591</v>
+        <v>1.99513972407408</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>3.571252055468502</v>
+        <v>2.02178903933606</v>
       </c>
       <c r="B132">
-        <v>3.571252055468502</v>
+        <v>2.02178903933606</v>
       </c>
       <c r="C132">
-        <v>3.571252055468502</v>
+        <v>2.02178903933606</v>
       </c>
       <c r="D132">
-        <v>3.571252055468502</v>
+        <v>2.02178903933606</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>3.593435866109187</v>
+        <v>2.06415551864441</v>
       </c>
       <c r="B133">
-        <v>3.593435866109187</v>
+        <v>2.06415551864441</v>
       </c>
       <c r="C133">
-        <v>3.593435866109187</v>
+        <v>2.06415551864441</v>
       </c>
       <c r="D133">
-        <v>3.593435866109187</v>
+        <v>2.06415551864441</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>3.669831901783378</v>
+        <v>2.1189242917129</v>
       </c>
       <c r="B134">
-        <v>3.669831901783378</v>
+        <v>2.1189242917129</v>
       </c>
       <c r="C134">
-        <v>3.669831901783378</v>
+        <v>2.1189242917129</v>
       </c>
       <c r="D134">
-        <v>3.669831901783378</v>
+        <v>2.1189242917129</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>3.752198298807498</v>
+        <v>2.14267779014739</v>
       </c>
       <c r="B135">
-        <v>3.752198298807498</v>
+        <v>2.14267779014739</v>
       </c>
       <c r="C135">
-        <v>3.752198298807498</v>
+        <v>2.14267779014739</v>
       </c>
       <c r="D135">
-        <v>3.752198298807498</v>
+        <v>2.14267779014739</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>3.777691961605371</v>
+        <v>2.16724443342577</v>
       </c>
       <c r="B136">
-        <v>3.777691961605371</v>
+        <v>2.16724443342577</v>
       </c>
       <c r="C136">
-        <v>3.777691961605371</v>
+        <v>2.16724443342577</v>
       </c>
       <c r="D136">
-        <v>3.777691961605371</v>
+        <v>2.16724443342577</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>3.797515603192121</v>
+        <v>2.15867688110866</v>
       </c>
       <c r="B137">
-        <v>3.797515603192121</v>
+        <v>2.15867688110866</v>
       </c>
       <c r="C137">
-        <v>3.797515603192121</v>
+        <v>2.15867688110866</v>
       </c>
       <c r="D137">
-        <v>3.797515603192121</v>
+        <v>2.15867688110866</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>3.817757890673914</v>
+        <v>2.15225333576907</v>
       </c>
       <c r="B138">
-        <v>3.817757890673914</v>
+        <v>2.15225333576907</v>
       </c>
       <c r="C138">
-        <v>3.817757890673914</v>
+        <v>2.15225333576907</v>
       </c>
       <c r="D138">
-        <v>3.817757890673914</v>
+        <v>2.15225333576907</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>3.785440515514822</v>
+        <v>2.1319754667868</v>
       </c>
       <c r="B139">
-        <v>3.785440515514822</v>
+        <v>2.1319754667868</v>
       </c>
       <c r="C139">
-        <v>3.785440515514822</v>
+        <v>2.1319754667868</v>
       </c>
       <c r="D139">
-        <v>3.785440515514822</v>
+        <v>2.1319754667868</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>3.713133876269042</v>
+        <v>2.09516908215876</v>
       </c>
       <c r="B140">
-        <v>3.713133876269042</v>
+        <v>2.09516908215876</v>
       </c>
       <c r="C140">
-        <v>3.713133876269042</v>
+        <v>2.09516908215876</v>
       </c>
       <c r="D140">
-        <v>3.713133876269042</v>
+        <v>2.09516908215876</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>3.642614851168876</v>
+        <v>2.08238935103253</v>
       </c>
       <c r="B141">
-        <v>3.642614851168876</v>
+        <v>2.08238935103253</v>
       </c>
       <c r="C141">
-        <v>3.642614851168876</v>
+        <v>2.08238935103253</v>
       </c>
       <c r="D141">
-        <v>3.642614851168876</v>
+        <v>2.08238935103253</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>3.555171891878486</v>
+        <v>2.05671475615325</v>
       </c>
       <c r="B142">
-        <v>3.555171891878486</v>
+        <v>2.05671475615325</v>
       </c>
       <c r="C142">
-        <v>3.555171891878486</v>
+        <v>2.05671475615325</v>
       </c>
       <c r="D142">
-        <v>3.555171891878486</v>
+        <v>2.05671475615325</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>3.437148904984915</v>
+        <v>2.06078740560514</v>
       </c>
       <c r="B143">
-        <v>3.437148904984915</v>
+        <v>2.06078740560514</v>
       </c>
       <c r="C143">
-        <v>3.437148904984915</v>
+        <v>2.06078740560514</v>
       </c>
       <c r="D143">
-        <v>3.437148904984915</v>
+        <v>2.06078740560514</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>3.427485982835274</v>
+        <v>2.0426269019284</v>
       </c>
       <c r="B144">
-        <v>3.427485982835274</v>
+        <v>2.0426269019284</v>
       </c>
       <c r="C144">
-        <v>3.427485982835274</v>
+        <v>2.0426269019284</v>
       </c>
       <c r="D144">
-        <v>3.427485982835274</v>
+        <v>2.0426269019284</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>3.35888427382769</v>
+        <v>2.02840616162762</v>
       </c>
       <c r="B145">
-        <v>3.35888427382769</v>
+        <v>2.02840616162762</v>
       </c>
       <c r="C145">
-        <v>3.35888427382769</v>
+        <v>2.02840616162762</v>
       </c>
       <c r="D145">
-        <v>3.35888427382769</v>
+        <v>2.02840616162762</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>3.311687901946687</v>
+        <v>2.01541392216943</v>
       </c>
       <c r="B146">
-        <v>3.311687901946687</v>
+        <v>2.01541392216943</v>
       </c>
       <c r="C146">
-        <v>3.311687901946687</v>
+        <v>2.01541392216943</v>
       </c>
       <c r="D146">
-        <v>3.311687901946687</v>
+        <v>2.01541392216943</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>3.257800528212158</v>
+        <v>2.02132902811002</v>
       </c>
       <c r="B147">
-        <v>3.257800528212158</v>
+        <v>2.02132902811002</v>
       </c>
       <c r="C147">
-        <v>3.257800528212158</v>
+        <v>2.02132902811002</v>
       </c>
       <c r="D147">
-        <v>3.257800528212158</v>
+        <v>2.02132902811002</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>3.205066760034546</v>
+        <v>2.03039030655285</v>
       </c>
       <c r="B148">
-        <v>3.205066760034546</v>
+        <v>2.03039030655285</v>
       </c>
       <c r="C148">
-        <v>3.205066760034546</v>
+        <v>2.03039030655285</v>
       </c>
       <c r="D148">
-        <v>3.205066760034546</v>
+        <v>2.03039030655285</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>3.168993066810666</v>
+        <v>2.01673649957344</v>
       </c>
       <c r="B149">
-        <v>3.168993066810666</v>
+        <v>2.01673649957344</v>
       </c>
       <c r="C149">
-        <v>3.168993066810666</v>
+        <v>2.01673649957344</v>
       </c>
       <c r="D149">
-        <v>3.168993066810666</v>
+        <v>2.01673649957344</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>3.128391856389153</v>
+        <v>1.99214140635377</v>
       </c>
       <c r="B150">
-        <v>3.128391856389153</v>
+        <v>1.99214140635377</v>
       </c>
       <c r="C150">
-        <v>3.128391856389153</v>
+        <v>1.99214140635377</v>
       </c>
       <c r="D150">
-        <v>3.128391856389153</v>
+        <v>1.99214140635377</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>3.101835924100664</v>
+        <v>1.99883444940302</v>
       </c>
       <c r="B151">
-        <v>3.101835924100664</v>
+        <v>1.99883444940302</v>
       </c>
       <c r="C151">
-        <v>3.101835924100664</v>
+        <v>1.99883444940302</v>
       </c>
       <c r="D151">
-        <v>3.101835924100664</v>
+        <v>1.99883444940302</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>3.134826928565678</v>
+        <v>2.0092197711761</v>
       </c>
       <c r="B152">
-        <v>3.134826928565678</v>
+        <v>2.0092197711761</v>
       </c>
       <c r="C152">
-        <v>3.134826928565678</v>
+        <v>2.0092197711761</v>
       </c>
       <c r="D152">
-        <v>3.134826928565678</v>
+        <v>2.0092197711761</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>3.190177327756921</v>
+        <v>2.00847658030723</v>
       </c>
       <c r="B153">
-        <v>3.190177327756921</v>
+        <v>2.00847658030723</v>
       </c>
       <c r="C153">
-        <v>3.190177327756921</v>
+        <v>2.00847658030723</v>
       </c>
       <c r="D153">
-        <v>3.190177327756921</v>
+        <v>2.00847658030723</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>3.293771884909756</v>
+        <v>2.0122887410449</v>
       </c>
       <c r="B154">
-        <v>3.293771884909756</v>
+        <v>2.0122887410449</v>
       </c>
       <c r="C154">
-        <v>3.293771884909756</v>
+        <v>2.0122887410449</v>
       </c>
       <c r="D154">
-        <v>3.293771884909756</v>
+        <v>2.0122887410449</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>3.408206294471928</v>
+        <v>2.03747958666187</v>
       </c>
       <c r="B155">
-        <v>3.408206294471928</v>
+        <v>2.03747958666187</v>
       </c>
       <c r="C155">
-        <v>3.408206294471928</v>
+        <v>2.03747958666187</v>
       </c>
       <c r="D155">
-        <v>3.408206294471928</v>
+        <v>2.03747958666187</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>3.515499411671656</v>
+        <v>2.07863830434727</v>
       </c>
       <c r="B156">
-        <v>3.515499411671656</v>
+        <v>2.07863830434727</v>
       </c>
       <c r="C156">
-        <v>3.515499411671656</v>
+        <v>2.07863830434727</v>
       </c>
       <c r="D156">
-        <v>3.515499411671656</v>
+        <v>2.07863830434727</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>3.569493146664315</v>
+        <v>2.14009594233449</v>
       </c>
       <c r="B157">
-        <v>3.569493146664315</v>
+        <v>2.14009594233449</v>
       </c>
       <c r="C157">
-        <v>3.569493146664315</v>
+        <v>2.14009594233449</v>
       </c>
       <c r="D157">
-        <v>3.569493146664315</v>
+        <v>2.14009594233449</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>3.655825434538043</v>
+        <v>2.19570482170966</v>
       </c>
       <c r="B158">
-        <v>3.655825434538043</v>
+        <v>2.19570482170966</v>
       </c>
       <c r="C158">
-        <v>3.655825434538043</v>
+        <v>2.19570482170966</v>
       </c>
       <c r="D158">
-        <v>3.655825434538043</v>
+        <v>2.19570482170966</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>3.69725254118267</v>
+        <v>2.24674422911927</v>
       </c>
       <c r="B159">
-        <v>3.69725254118267</v>
+        <v>2.24674422911927</v>
       </c>
       <c r="C159">
-        <v>3.69725254118267</v>
+        <v>2.24674422911927</v>
       </c>
       <c r="D159">
-        <v>3.69725254118267</v>
+        <v>2.24674422911927</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>3.668872581026805</v>
+        <v>2.28026354603077</v>
       </c>
       <c r="B160">
-        <v>3.668872581026805</v>
+        <v>2.28026354603077</v>
       </c>
       <c r="C160">
-        <v>3.668872581026805</v>
+        <v>2.28026354603077</v>
       </c>
       <c r="D160">
-        <v>3.668872581026805</v>
+        <v>2.28026354603077</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>3.69014796471545</v>
+        <v>2.27671000584979</v>
       </c>
       <c r="B161">
-        <v>3.69014796471545</v>
+        <v>2.27671000584979</v>
       </c>
       <c r="C161">
-        <v>3.69014796471545</v>
+        <v>2.27671000584979</v>
       </c>
       <c r="D161">
-        <v>3.69014796471545</v>
+        <v>2.27671000584979</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>3.713338485567962</v>
+        <v>2.24734392419411</v>
       </c>
       <c r="B162">
-        <v>3.713338485567962</v>
+        <v>2.24734392419411</v>
       </c>
       <c r="C162">
-        <v>3.713338485567962</v>
+        <v>2.24734392419411</v>
       </c>
       <c r="D162">
-        <v>3.713338485567962</v>
+        <v>2.24734392419411</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>3.757823915076272</v>
+        <v>2.20878122973382</v>
       </c>
       <c r="B163">
-        <v>3.757823915076272</v>
+        <v>2.20878122973382</v>
       </c>
       <c r="C163">
-        <v>3.757823915076272</v>
+        <v>2.20878122973382</v>
       </c>
       <c r="D163">
-        <v>3.757823915076272</v>
+        <v>2.20878122973382</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>3.731972174397274</v>
+        <v>2.17501043092645</v>
       </c>
       <c r="B164">
-        <v>3.731972174397274</v>
+        <v>2.17501043092645</v>
       </c>
       <c r="C164">
-        <v>3.731972174397274</v>
+        <v>2.17501043092645</v>
       </c>
       <c r="D164">
-        <v>3.731972174397274</v>
+        <v>2.17501043092645</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>3.70763719634248</v>
+        <v>2.16571319959657</v>
       </c>
       <c r="B165">
-        <v>3.70763719634248</v>
+        <v>2.16571319959657</v>
       </c>
       <c r="C165">
-        <v>3.70763719634248</v>
+        <v>2.16571319959657</v>
       </c>
       <c r="D165">
-        <v>3.70763719634248</v>
+        <v>2.16571319959657</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>3.597374005164613</v>
+        <v>2.14730992305856</v>
       </c>
       <c r="B166">
-        <v>3.597374005164613</v>
+        <v>2.14730992305856</v>
       </c>
       <c r="C166">
-        <v>3.597374005164613</v>
+        <v>2.14730992305856</v>
       </c>
       <c r="D166">
-        <v>3.597374005164613</v>
+        <v>2.14730992305856</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>3.498019680398476</v>
+        <v>2.14329562335627</v>
       </c>
       <c r="B167">
-        <v>3.498019680398476</v>
+        <v>2.14329562335627</v>
       </c>
       <c r="C167">
-        <v>3.498019680398476</v>
+        <v>2.14329562335627</v>
       </c>
       <c r="D167">
-        <v>3.498019680398476</v>
+        <v>2.14329562335627</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>3.383717789451359</v>
+        <v>2.12906426057831</v>
       </c>
       <c r="B168">
-        <v>3.383717789451359</v>
+        <v>2.12906426057831</v>
       </c>
       <c r="C168">
-        <v>3.383717789451359</v>
+        <v>2.12906426057831</v>
       </c>
       <c r="D168">
-        <v>3.383717789451359</v>
+        <v>2.12906426057831</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>3.325348215276117</v>
+        <v>2.10705619751534</v>
       </c>
       <c r="B169">
-        <v>3.325348215276117</v>
+        <v>2.10705619751534</v>
       </c>
       <c r="C169">
-        <v>3.325348215276117</v>
+        <v>2.10705619751534</v>
       </c>
       <c r="D169">
-        <v>3.325348215276117</v>
+        <v>2.10705619751534</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>2.753624371946896</v>
+        <v>2.82139337081137</v>
       </c>
       <c r="B170">
-        <v>2.753624371946896</v>
+        <v>2.82139337081137</v>
       </c>
       <c r="C170">
-        <v>2.753624371946896</v>
+        <v>2.82139337081137</v>
       </c>
       <c r="D170">
-        <v>2.753624371946896</v>
+        <v>2.82139337081137</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>2.689391924994894</v>
+        <v>2.75476843565561</v>
       </c>
       <c r="B171">
-        <v>2.689391924994894</v>
+        <v>2.75476843565561</v>
       </c>
       <c r="C171">
-        <v>2.689391924994894</v>
+        <v>2.75476843565561</v>
       </c>
       <c r="D171">
-        <v>2.689391924994894</v>
+        <v>2.75476843565561</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>2.649542280030886</v>
+        <v>2.7146869275243</v>
       </c>
       <c r="B172">
-        <v>2.649542280030886</v>
+        <v>2.7146869275243</v>
       </c>
       <c r="C172">
-        <v>2.649542280030886</v>
+        <v>2.7146869275243</v>
       </c>
       <c r="D172">
-        <v>2.649542280030886</v>
+        <v>2.7146869275243</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>2.62210715566883</v>
+        <v>2.69077423962442</v>
       </c>
       <c r="B173">
-        <v>2.62210715566883</v>
+        <v>2.69077423962442</v>
       </c>
       <c r="C173">
-        <v>2.62210715566883</v>
+        <v>2.69077423962442</v>
       </c>
       <c r="D173">
-        <v>2.62210715566883</v>
+        <v>2.69077423962442</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>2.581809722031521</v>
+        <v>2.65454211383465</v>
       </c>
       <c r="B174">
-        <v>2.581809722031521</v>
+        <v>2.65454211383465</v>
       </c>
       <c r="C174">
-        <v>2.581809722031521</v>
+        <v>2.65454211383465</v>
       </c>
       <c r="D174">
-        <v>2.581809722031521</v>
+        <v>2.65454211383465</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>2.565213335142826</v>
+        <v>2.63292858937106</v>
       </c>
       <c r="B175">
-        <v>2.565213335142826</v>
+        <v>2.63292858937106</v>
       </c>
       <c r="C175">
-        <v>2.565213335142826</v>
+        <v>2.63292858937106</v>
       </c>
       <c r="D175">
-        <v>2.565213335142826</v>
+        <v>2.63292858937106</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>2.533058604482056</v>
+        <v>2.59752536208026</v>
       </c>
       <c r="B176">
-        <v>2.533058604482056</v>
+        <v>2.59752536208026</v>
       </c>
       <c r="C176">
-        <v>2.533058604482056</v>
+        <v>2.59752536208026</v>
       </c>
       <c r="D176">
-        <v>2.533058604482056</v>
+        <v>2.59752536208026</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>2.579085059477469</v>
+        <v>2.65438379616153</v>
       </c>
       <c r="B177">
-        <v>2.579085059477469</v>
+        <v>2.65438379616153</v>
       </c>
       <c r="C177">
-        <v>2.579085059477469</v>
+        <v>2.65438379616153</v>
       </c>
       <c r="D177">
-        <v>2.579085059477469</v>
+        <v>2.65438379616153</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>2.668590504716993</v>
+        <v>2.75128683974957</v>
       </c>
       <c r="B178">
-        <v>2.668590504716993</v>
+        <v>2.75128683974957</v>
       </c>
       <c r="C178">
-        <v>2.668590504716993</v>
+        <v>2.75128683974957</v>
       </c>
       <c r="D178">
-        <v>2.668590504716993</v>
+        <v>2.75128683974957</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>2.800933412158633</v>
+        <v>2.88423059783367</v>
       </c>
       <c r="B179">
-        <v>2.800933412158633</v>
+        <v>2.88423059783367</v>
       </c>
       <c r="C179">
-        <v>2.800933412158633</v>
+        <v>2.88423059783367</v>
       </c>
       <c r="D179">
-        <v>2.800933412158633</v>
+        <v>2.88423059783367</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>2.906028263982387</v>
+        <v>2.99060534619521</v>
       </c>
       <c r="B180">
-        <v>2.906028263982387</v>
+        <v>2.99060534619521</v>
       </c>
       <c r="C180">
-        <v>2.906028263982387</v>
+        <v>2.99060534619521</v>
       </c>
       <c r="D180">
-        <v>2.906028263982387</v>
+        <v>2.99060534619521</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>3.028120612742662</v>
+        <v>3.10827076199445</v>
       </c>
       <c r="B181">
-        <v>3.028120612742662</v>
+        <v>3.10827076199445</v>
       </c>
       <c r="C181">
-        <v>3.028120612742662</v>
+        <v>3.10827076199445</v>
       </c>
       <c r="D181">
-        <v>3.028120612742662</v>
+        <v>3.10827076199445</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>3.119808232636457</v>
+        <v>3.19873915991903</v>
       </c>
       <c r="B182">
-        <v>3.119808232636457</v>
+        <v>3.19873915991903</v>
       </c>
       <c r="C182">
-        <v>3.119808232636457</v>
+        <v>3.19873915991903</v>
       </c>
       <c r="D182">
-        <v>3.119808232636457</v>
+        <v>3.19873915991903</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>3.212336585820376</v>
+        <v>3.29580834603713</v>
       </c>
       <c r="B183">
-        <v>3.212336585820376</v>
+        <v>3.29580834603713</v>
       </c>
       <c r="C183">
-        <v>3.212336585820376</v>
+        <v>3.29580834603713</v>
       </c>
       <c r="D183">
-        <v>3.212336585820376</v>
+        <v>3.29580834603713</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>3.275297230903058</v>
+        <v>3.35671799334777</v>
       </c>
       <c r="B184">
-        <v>3.275297230903058</v>
+        <v>3.35671799334777</v>
       </c>
       <c r="C184">
-        <v>3.275297230903058</v>
+        <v>3.35671799334777</v>
       </c>
       <c r="D184">
-        <v>3.275297230903058</v>
+        <v>3.35671799334777</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>3.295023521476803</v>
+        <v>3.3736547840629</v>
       </c>
       <c r="B185">
-        <v>3.295023521476803</v>
+        <v>3.3736547840629</v>
       </c>
       <c r="C185">
-        <v>3.295023521476803</v>
+        <v>3.3736547840629</v>
       </c>
       <c r="D185">
-        <v>3.295023521476803</v>
+        <v>3.3736547840629</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>3.266829024238279</v>
+        <v>3.3392433761854</v>
       </c>
       <c r="B186">
-        <v>3.266829024238279</v>
+        <v>3.3392433761854</v>
       </c>
       <c r="C186">
-        <v>3.266829024238279</v>
+        <v>3.3392433761854</v>
       </c>
       <c r="D186">
-        <v>3.266829024238279</v>
+        <v>3.3392433761854</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>3.196623313623227</v>
+        <v>3.27028907523222</v>
       </c>
       <c r="B187">
-        <v>3.196623313623227</v>
+        <v>3.27028907523222</v>
       </c>
       <c r="C187">
-        <v>3.196623313623227</v>
+        <v>3.27028907523222</v>
       </c>
       <c r="D187">
-        <v>3.196623313623227</v>
+        <v>3.27028907523222</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>3.135593195348929</v>
+        <v>3.21535148689936</v>
       </c>
       <c r="B188">
-        <v>3.135593195348929</v>
+        <v>3.21535148689936</v>
       </c>
       <c r="C188">
-        <v>3.135593195348929</v>
+        <v>3.21535148689936</v>
       </c>
       <c r="D188">
-        <v>3.135593195348929</v>
+        <v>3.21535148689936</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>3.072759208018623</v>
+        <v>3.15777215265559</v>
       </c>
       <c r="B189">
-        <v>3.072759208018623</v>
+        <v>3.15777215265559</v>
       </c>
       <c r="C189">
-        <v>3.072759208018623</v>
+        <v>3.15777215265559</v>
       </c>
       <c r="D189">
-        <v>3.072759208018623</v>
+        <v>3.15777215265559</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>2.964868678049097</v>
+        <v>3.04804405487482</v>
       </c>
       <c r="B190">
-        <v>2.964868678049097</v>
+        <v>3.04804405487482</v>
       </c>
       <c r="C190">
-        <v>2.964868678049097</v>
+        <v>3.04804405487482</v>
       </c>
       <c r="D190">
-        <v>2.964868678049097</v>
+        <v>3.04804405487482</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>2.88674349580814</v>
+        <v>2.96143069445783</v>
       </c>
       <c r="B191">
-        <v>2.88674349580814</v>
+        <v>2.96143069445783</v>
       </c>
       <c r="C191">
-        <v>2.88674349580814</v>
+        <v>2.96143069445783</v>
       </c>
       <c r="D191">
-        <v>2.88674349580814</v>
+        <v>2.96143069445783</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>2.807800502963847</v>
+        <v>2.88025138969398</v>
       </c>
       <c r="B192">
-        <v>2.807800502963847</v>
+        <v>2.88025138969398</v>
       </c>
       <c r="C192">
-        <v>2.807800502963847</v>
+        <v>2.88025138969398</v>
       </c>
       <c r="D192">
-        <v>2.807800502963847</v>
+        <v>2.88025138969398</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>2.743793391081004</v>
+        <v>2.80658969732262</v>
       </c>
       <c r="B193">
-        <v>2.743793391081004</v>
+        <v>2.80658969732262</v>
       </c>
       <c r="C193">
-        <v>2.743793391081004</v>
+        <v>2.80658969732262</v>
       </c>
       <c r="D193">
-        <v>2.743793391081004</v>
+        <v>2.80658969732262</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>2.712641702697607</v>
+        <v>2.77873323451376</v>
       </c>
       <c r="B194">
-        <v>2.712641702697607</v>
+        <v>2.77873323451376</v>
       </c>
       <c r="C194">
-        <v>2.712641702697607</v>
+        <v>2.77873323451376</v>
       </c>
       <c r="D194">
-        <v>2.712641702697607</v>
+        <v>2.77873323451376</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>2.656604237455984</v>
+        <v>2.71984592239177</v>
       </c>
       <c r="B195">
-        <v>2.656604237455984</v>
+        <v>2.71984592239177</v>
       </c>
       <c r="C195">
-        <v>2.656604237455984</v>
+        <v>2.71984592239177</v>
       </c>
       <c r="D195">
-        <v>2.656604237455984</v>
+        <v>2.71984592239177</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>2.61374483286466</v>
+        <v>2.67570478284456</v>
       </c>
       <c r="B196">
-        <v>2.61374483286466</v>
+        <v>2.67570478284456</v>
       </c>
       <c r="C196">
-        <v>2.61374483286466</v>
+        <v>2.67570478284456</v>
       </c>
       <c r="D196">
-        <v>2.61374483286466</v>
+        <v>2.67570478284456</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>2.595471292576792</v>
+        <v>2.65640468007376</v>
       </c>
       <c r="B197">
-        <v>2.595471292576792</v>
+        <v>2.65640468007376</v>
       </c>
       <c r="C197">
-        <v>2.595471292576792</v>
+        <v>2.65640468007376</v>
       </c>
       <c r="D197">
-        <v>2.595471292576792</v>
+        <v>2.65640468007376</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>2.572554936736856</v>
+        <v>2.6315078984205</v>
       </c>
       <c r="B198">
-        <v>2.572554936736856</v>
+        <v>2.6315078984205</v>
       </c>
       <c r="C198">
-        <v>2.572554936736856</v>
+        <v>2.6315078984205</v>
       </c>
       <c r="D198">
-        <v>2.572554936736856</v>
+        <v>2.6315078984205</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>2.530550222550295</v>
+        <v>2.58370562687395</v>
       </c>
       <c r="B199">
-        <v>2.530550222550295</v>
+        <v>2.58370562687395</v>
       </c>
       <c r="C199">
-        <v>2.530550222550295</v>
+        <v>2.58370562687395</v>
       </c>
       <c r="D199">
-        <v>2.530550222550295</v>
+        <v>2.58370562687395</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>2.526267334487388</v>
+        <v>2.57395570238611</v>
       </c>
       <c r="B200">
-        <v>2.526267334487388</v>
+        <v>2.57395570238611</v>
       </c>
       <c r="C200">
-        <v>2.526267334487388</v>
+        <v>2.57395570238611</v>
       </c>
       <c r="D200">
-        <v>2.526267334487388</v>
+        <v>2.57395570238611</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>2.554336788206617</v>
+        <v>2.60972244496317</v>
       </c>
       <c r="B201">
-        <v>2.554336788206617</v>
+        <v>2.60972244496317</v>
       </c>
       <c r="C201">
-        <v>2.554336788206617</v>
+        <v>2.60972244496317</v>
       </c>
       <c r="D201">
-        <v>2.554336788206617</v>
+        <v>2.60972244496317</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>2.621970072356885</v>
+        <v>2.68575557359148</v>
       </c>
       <c r="B202">
-        <v>2.621970072356885</v>
+        <v>2.68575557359148</v>
       </c>
       <c r="C202">
-        <v>2.621970072356885</v>
+        <v>2.68575557359148</v>
       </c>
       <c r="D202">
-        <v>2.621970072356885</v>
+        <v>2.68575557359148</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>2.758341053120106</v>
+        <v>2.82708978809448</v>
       </c>
       <c r="B203">
-        <v>2.758341053120106</v>
+        <v>2.82708978809448</v>
       </c>
       <c r="C203">
-        <v>2.758341053120106</v>
+        <v>2.82708978809448</v>
       </c>
       <c r="D203">
-        <v>2.758341053120106</v>
+        <v>2.82708978809448</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>2.897783094559285</v>
+        <v>2.96475597048584</v>
       </c>
       <c r="B204">
-        <v>2.897783094559285</v>
+        <v>2.96475597048584</v>
       </c>
       <c r="C204">
-        <v>2.897783094559285</v>
+        <v>2.96475597048584</v>
       </c>
       <c r="D204">
-        <v>2.897783094559285</v>
+        <v>2.96475597048584</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>2.995805462457917</v>
+        <v>3.07100410830188</v>
       </c>
       <c r="B205">
-        <v>2.995805462457917</v>
+        <v>3.07100410830188</v>
       </c>
       <c r="C205">
-        <v>2.995805462457917</v>
+        <v>3.07100410830188</v>
       </c>
       <c r="D205">
-        <v>2.995805462457917</v>
+        <v>3.07100410830188</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>3.090614524608534</v>
+        <v>3.17361000275031</v>
       </c>
       <c r="B206">
-        <v>3.090614524608534</v>
+        <v>3.17361000275031</v>
       </c>
       <c r="C206">
-        <v>3.090614524608534</v>
+        <v>3.17361000275031</v>
       </c>
       <c r="D206">
-        <v>3.090614524608534</v>
+        <v>3.17361000275031</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>3.159797487351483</v>
+        <v>3.24510295234187</v>
       </c>
       <c r="B207">
-        <v>3.159797487351483</v>
+        <v>3.24510295234187</v>
       </c>
       <c r="C207">
-        <v>3.159797487351483</v>
+        <v>3.24510295234187</v>
       </c>
       <c r="D207">
-        <v>3.159797487351483</v>
+        <v>3.24510295234187</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>3.173071467504775</v>
+        <v>3.25709027356859</v>
       </c>
       <c r="B208">
-        <v>3.173071467504775</v>
+        <v>3.25709027356859</v>
       </c>
       <c r="C208">
-        <v>3.173071467504775</v>
+        <v>3.25709027356859</v>
       </c>
       <c r="D208">
-        <v>3.173071467504775</v>
+        <v>3.25709027356859</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>3.216276703703111</v>
+        <v>3.30300764412366</v>
       </c>
       <c r="B209">
-        <v>3.216276703703111</v>
+        <v>3.30300764412366</v>
       </c>
       <c r="C209">
-        <v>3.216276703703111</v>
+        <v>3.30300764412366</v>
       </c>
       <c r="D209">
-        <v>3.216276703703111</v>
+        <v>3.30300764412366</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>3.232180480314329</v>
+        <v>3.32028582118276</v>
       </c>
       <c r="B210">
-        <v>3.232180480314329</v>
+        <v>3.32028582118276</v>
       </c>
       <c r="C210">
-        <v>3.232180480314329</v>
+        <v>3.32028582118276</v>
       </c>
       <c r="D210">
-        <v>3.232180480314329</v>
+        <v>3.32028582118276</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>3.18867660989717</v>
+        <v>3.27589768386235</v>
       </c>
       <c r="B211">
-        <v>3.18867660989717</v>
+        <v>3.27589768386235</v>
       </c>
       <c r="C211">
-        <v>3.18867660989717</v>
+        <v>3.27589768386235</v>
       </c>
       <c r="D211">
-        <v>3.18867660989717</v>
+        <v>3.27589768386235</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>3.142768098842258</v>
+        <v>3.23383119453805</v>
       </c>
       <c r="B212">
-        <v>3.142768098842258</v>
+        <v>3.23383119453805</v>
       </c>
       <c r="C212">
-        <v>3.142768098842258</v>
+        <v>3.23383119453805</v>
       </c>
       <c r="D212">
-        <v>3.142768098842258</v>
+        <v>3.23383119453805</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>3.051444540398232</v>
+        <v>3.14142439250835</v>
       </c>
       <c r="B213">
-        <v>3.051444540398232</v>
+        <v>3.14142439250835</v>
       </c>
       <c r="C213">
-        <v>3.051444540398232</v>
+        <v>3.14142439250835</v>
       </c>
       <c r="D213">
-        <v>3.051444540398232</v>
+        <v>3.14142439250835</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>2.921254168302798</v>
+        <v>3.00181595879388</v>
       </c>
       <c r="B214">
-        <v>2.921254168302798</v>
+        <v>3.00181595879388</v>
       </c>
       <c r="C214">
-        <v>2.921254168302798</v>
+        <v>3.00181595879388</v>
       </c>
       <c r="D214">
-        <v>2.921254168302798</v>
+        <v>3.00181595879388</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>2.82952392682549</v>
+        <v>2.90328298119366</v>
       </c>
       <c r="B215">
-        <v>2.82952392682549</v>
+        <v>2.90328298119366</v>
       </c>
       <c r="C215">
-        <v>2.82952392682549</v>
+        <v>2.90328298119366</v>
       </c>
       <c r="D215">
-        <v>2.82952392682549</v>
+        <v>2.90328298119366</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>2.772767217106875</v>
+        <v>2.837307633394</v>
       </c>
       <c r="B216">
-        <v>2.772767217106875</v>
+        <v>2.837307633394</v>
       </c>
       <c r="C216">
-        <v>2.772767217106875</v>
+        <v>2.837307633394</v>
       </c>
       <c r="D216">
-        <v>2.772767217106875</v>
+        <v>2.837307633394</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>2.732173505646249</v>
+        <v>2.78804999645985</v>
       </c>
       <c r="B217">
-        <v>2.732173505646249</v>
+        <v>2.78804999645985</v>
       </c>
       <c r="C217">
-        <v>2.732173505646249</v>
+        <v>2.78804999645985</v>
       </c>
       <c r="D217">
-        <v>2.732173505646249</v>
+        <v>2.78804999645985</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <v>2.673338976736923</v>
+        <v>2.71862485629789</v>
       </c>
       <c r="B218">
-        <v>2.673338976736923</v>
+        <v>2.71862485629789</v>
       </c>
       <c r="C218">
-        <v>2.673338976736923</v>
+        <v>2.71862485629789</v>
       </c>
       <c r="D218">
-        <v>2.673338976736923</v>
+        <v>2.71862485629789</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219">
-        <v>2.631375548023831</v>
+        <v>2.67303495843675</v>
       </c>
       <c r="B219">
-        <v>2.631375548023831</v>
+        <v>2.67303495843675</v>
       </c>
       <c r="C219">
-        <v>2.631375548023831</v>
+        <v>2.67303495843675</v>
       </c>
       <c r="D219">
-        <v>2.631375548023831</v>
+        <v>2.67303495843675</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
-        <v>2.579220144842</v>
+        <v>2.62024276908021</v>
       </c>
       <c r="B220">
-        <v>2.579220144842</v>
+        <v>2.62024276908021</v>
       </c>
       <c r="C220">
-        <v>2.579220144842</v>
+        <v>2.62024276908021</v>
       </c>
       <c r="D220">
-        <v>2.579220144842</v>
+        <v>2.62024276908021</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221">
-        <v>2.534688751583065</v>
+        <v>2.5777767504107</v>
       </c>
       <c r="B221">
-        <v>2.534688751583065</v>
+        <v>2.5777767504107</v>
       </c>
       <c r="C221">
-        <v>2.534688751583065</v>
+        <v>2.5777767504107</v>
       </c>
       <c r="D221">
-        <v>2.534688751583065</v>
+        <v>2.5777767504107</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <v>2.515510546772644</v>
+        <v>2.55570363942749</v>
       </c>
       <c r="B222">
-        <v>2.515510546772644</v>
+        <v>2.55570363942749</v>
       </c>
       <c r="C222">
-        <v>2.515510546772644</v>
+        <v>2.55570363942749</v>
       </c>
       <c r="D222">
-        <v>2.515510546772644</v>
+        <v>2.55570363942749</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223">
-        <v>2.486686269414918</v>
+        <v>2.52339404214754</v>
       </c>
       <c r="B223">
-        <v>2.486686269414918</v>
+        <v>2.52339404214754</v>
       </c>
       <c r="C223">
-        <v>2.486686269414918</v>
+        <v>2.52339404214754</v>
       </c>
       <c r="D223">
-        <v>2.486686269414918</v>
+        <v>2.52339404214754</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224">
-        <v>2.484540970247599</v>
+        <v>2.51910538095763</v>
       </c>
       <c r="B224">
-        <v>2.484540970247599</v>
+        <v>2.51910538095763</v>
       </c>
       <c r="C224">
-        <v>2.484540970247599</v>
+        <v>2.51910538095763</v>
       </c>
       <c r="D224">
-        <v>2.484540970247599</v>
+        <v>2.51910538095763</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225">
-        <v>2.532187030777815</v>
+        <v>2.57008722225604</v>
       </c>
       <c r="B225">
-        <v>2.532187030777815</v>
+        <v>2.57008722225604</v>
       </c>
       <c r="C225">
-        <v>2.532187030777815</v>
+        <v>2.57008722225604</v>
       </c>
       <c r="D225">
-        <v>2.532187030777815</v>
+        <v>2.57008722225604</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <v>2.630671654274901</v>
+        <v>2.67648080470945</v>
       </c>
       <c r="B226">
-        <v>2.630671654274901</v>
+        <v>2.67648080470945</v>
       </c>
       <c r="C226">
-        <v>2.630671654274901</v>
+        <v>2.67648080470945</v>
       </c>
       <c r="D226">
-        <v>2.630671654274901</v>
+        <v>2.67648080470945</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>2.761121096847508</v>
+        <v>2.81181273947191</v>
       </c>
       <c r="B227">
-        <v>2.761121096847508</v>
+        <v>2.81181273947191</v>
       </c>
       <c r="C227">
-        <v>2.761121096847508</v>
+        <v>2.81181273947191</v>
       </c>
       <c r="D227">
-        <v>2.761121096847508</v>
+        <v>2.81181273947191</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>2.873553451648436</v>
+        <v>2.93003448870504</v>
       </c>
       <c r="B228">
-        <v>2.873553451648436</v>
+        <v>2.93003448870504</v>
       </c>
       <c r="C228">
-        <v>2.873553451648436</v>
+        <v>2.93003448870504</v>
       </c>
       <c r="D228">
-        <v>2.873553451648436</v>
+        <v>2.93003448870504</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>2.99243120625936</v>
+        <v>3.04914725615309</v>
       </c>
       <c r="B229">
-        <v>2.99243120625936</v>
+        <v>3.04914725615309</v>
       </c>
       <c r="C229">
-        <v>2.99243120625936</v>
+        <v>3.04914725615309</v>
       </c>
       <c r="D229">
-        <v>2.99243120625936</v>
+        <v>3.04914725615309</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>3.106746173962514</v>
+        <v>3.1635075997576</v>
       </c>
       <c r="B230">
-        <v>3.106746173962514</v>
+        <v>3.1635075997576</v>
       </c>
       <c r="C230">
-        <v>3.106746173962514</v>
+        <v>3.1635075997576</v>
       </c>
       <c r="D230">
-        <v>3.106746173962514</v>
+        <v>3.1635075997576</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <v>3.196855628197576</v>
+        <v>3.25762394162918</v>
       </c>
       <c r="B231">
-        <v>3.196855628197576</v>
+        <v>3.25762394162918</v>
       </c>
       <c r="C231">
-        <v>3.196855628197576</v>
+        <v>3.25762394162918</v>
       </c>
       <c r="D231">
-        <v>3.196855628197576</v>
+        <v>3.25762394162918</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>3.250018105718956</v>
+        <v>3.31027787298637</v>
       </c>
       <c r="B232">
-        <v>3.250018105718956</v>
+        <v>3.31027787298637</v>
       </c>
       <c r="C232">
-        <v>3.250018105718956</v>
+        <v>3.31027787298637</v>
       </c>
       <c r="D232">
-        <v>3.250018105718956</v>
+        <v>3.31027787298637</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>3.236472801501943</v>
+        <v>3.2953869073534</v>
       </c>
       <c r="B233">
-        <v>3.236472801501943</v>
+        <v>3.2953869073534</v>
       </c>
       <c r="C233">
-        <v>3.236472801501943</v>
+        <v>3.2953869073534</v>
       </c>
       <c r="D233">
-        <v>3.236472801501943</v>
+        <v>3.2953869073534</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>3.209048627985875</v>
+        <v>3.2708019835454</v>
       </c>
       <c r="B234">
-        <v>3.209048627985875</v>
+        <v>3.2708019835454</v>
       </c>
       <c r="C234">
-        <v>3.209048627985875</v>
+        <v>3.2708019835454</v>
       </c>
       <c r="D234">
-        <v>3.209048627985875</v>
+        <v>3.2708019835454</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>3.21471295446832</v>
+        <v>3.27965071781489</v>
       </c>
       <c r="B235">
-        <v>3.21471295446832</v>
+        <v>3.27965071781489</v>
       </c>
       <c r="C235">
-        <v>3.21471295446832</v>
+        <v>3.27965071781489</v>
       </c>
       <c r="D235">
-        <v>3.21471295446832</v>
+        <v>3.27965071781489</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>3.13872841869949</v>
+        <v>3.20586072041194</v>
       </c>
       <c r="B236">
-        <v>3.13872841869949</v>
+        <v>3.20586072041194</v>
       </c>
       <c r="C236">
-        <v>3.13872841869949</v>
+        <v>3.20586072041194</v>
       </c>
       <c r="D236">
-        <v>3.13872841869949</v>
+        <v>3.20586072041194</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>3.070943242875837</v>
+        <v>3.13685777405989</v>
       </c>
       <c r="B237">
-        <v>3.070943242875837</v>
+        <v>3.13685777405989</v>
       </c>
       <c r="C237">
-        <v>3.070943242875837</v>
+        <v>3.13685777405989</v>
       </c>
       <c r="D237">
-        <v>3.070943242875837</v>
+        <v>3.13685777405989</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>2.982453972265107</v>
+        <v>3.04255647702171</v>
       </c>
       <c r="B238">
-        <v>2.982453972265107</v>
+        <v>3.04255647702171</v>
       </c>
       <c r="C238">
-        <v>2.982453972265107</v>
+        <v>3.04255647702171</v>
       </c>
       <c r="D238">
-        <v>2.982453972265107</v>
+        <v>3.04255647702171</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <v>2.886719423478854</v>
+        <v>2.94869773440484</v>
       </c>
       <c r="B239">
-        <v>2.886719423478854</v>
+        <v>2.94869773440484</v>
       </c>
       <c r="C239">
-        <v>2.886719423478854</v>
+        <v>2.94869773440484</v>
       </c>
       <c r="D239">
-        <v>2.886719423478854</v>
+        <v>2.94869773440484</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <v>2.83585444683804</v>
+        <v>2.88907754520732</v>
       </c>
       <c r="B240">
-        <v>2.83585444683804</v>
+        <v>2.88907754520732</v>
       </c>
       <c r="C240">
-        <v>2.83585444683804</v>
+        <v>2.88907754520732</v>
       </c>
       <c r="D240">
-        <v>2.83585444683804</v>
+        <v>2.88907754520732</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <v>2.751739004740903</v>
+        <v>2.80149310927469</v>
       </c>
       <c r="B241">
-        <v>2.751739004740903</v>
+        <v>2.80149310927469</v>
       </c>
       <c r="C241">
-        <v>2.751739004740903</v>
+        <v>2.80149310927469</v>
       </c>
       <c r="D241">
-        <v>2.751739004740903</v>
+        <v>2.80149310927469</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>2.705922846664313</v>
+        <v>2.75107575223043</v>
       </c>
       <c r="B242">
-        <v>2.705922846664313</v>
+        <v>2.75107575223043</v>
       </c>
       <c r="C242">
-        <v>2.705922846664313</v>
+        <v>2.75107575223043</v>
       </c>
       <c r="D242">
-        <v>2.705922846664313</v>
+        <v>2.75107575223043</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243">
-        <v>2.609757331703626</v>
+        <v>2.65103694282748</v>
       </c>
       <c r="B243">
-        <v>2.609757331703626</v>
+        <v>2.65103694282748</v>
       </c>
       <c r="C243">
-        <v>2.609757331703626</v>
+        <v>2.65103694282748</v>
       </c>
       <c r="D243">
-        <v>2.609757331703626</v>
+        <v>2.65103694282748</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <v>2.610862099269075</v>
+        <v>2.65475340605578</v>
       </c>
       <c r="B244">
-        <v>2.610862099269075</v>
+        <v>2.65475340605578</v>
       </c>
       <c r="C244">
-        <v>2.610862099269075</v>
+        <v>2.65475340605578</v>
       </c>
       <c r="D244">
-        <v>2.610862099269075</v>
+        <v>2.65475340605578</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>2.59956069790486</v>
+        <v>2.63995911845351</v>
       </c>
       <c r="B245">
-        <v>2.59956069790486</v>
+        <v>2.63995911845351</v>
       </c>
       <c r="C245">
-        <v>2.59956069790486</v>
+        <v>2.63995911845351</v>
       </c>
       <c r="D245">
-        <v>2.59956069790486</v>
+        <v>2.63995911845351</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>2.591486580016547</v>
+        <v>2.6311872372909</v>
       </c>
       <c r="B246">
-        <v>2.591486580016547</v>
+        <v>2.6311872372909</v>
       </c>
       <c r="C246">
-        <v>2.591486580016547</v>
+        <v>2.6311872372909</v>
       </c>
       <c r="D246">
-        <v>2.591486580016547</v>
+        <v>2.6311872372909</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
-        <v>2.569112552322171</v>
+        <v>2.60751063434874</v>
       </c>
       <c r="B247">
-        <v>2.569112552322171</v>
+        <v>2.60751063434874</v>
       </c>
       <c r="C247">
-        <v>2.569112552322171</v>
+        <v>2.60751063434874</v>
       </c>
       <c r="D247">
-        <v>2.569112552322171</v>
+        <v>2.60751063434874</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248">
-        <v>2.567133276987267</v>
+        <v>2.60739400141817</v>
       </c>
       <c r="B248">
-        <v>2.567133276987267</v>
+        <v>2.60739400141817</v>
       </c>
       <c r="C248">
-        <v>2.567133276987267</v>
+        <v>2.60739400141817</v>
       </c>
       <c r="D248">
-        <v>2.567133276987267</v>
+        <v>2.60739400141817</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249">
-        <v>2.603446160609741</v>
+        <v>2.64605737021344</v>
       </c>
       <c r="B249">
-        <v>2.603446160609741</v>
+        <v>2.64605737021344</v>
       </c>
       <c r="C249">
-        <v>2.603446160609741</v>
+        <v>2.64605737021344</v>
       </c>
       <c r="D249">
-        <v>2.603446160609741</v>
+        <v>2.64605737021344</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250">
-        <v>2.717601689496326</v>
+        <v>2.77824171400355</v>
       </c>
       <c r="B250">
-        <v>2.717601689496326</v>
+        <v>2.77824171400355</v>
       </c>
       <c r="C250">
-        <v>2.717601689496326</v>
+        <v>2.77824171400355</v>
       </c>
       <c r="D250">
-        <v>2.717601689496326</v>
+        <v>2.77824171400355</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251">
-        <v>2.858450426204497</v>
+        <v>2.92228852275617</v>
       </c>
       <c r="B251">
-        <v>2.858450426204497</v>
+        <v>2.92228852275617</v>
       </c>
       <c r="C251">
-        <v>2.858450426204497</v>
+        <v>2.92228852275617</v>
       </c>
       <c r="D251">
-        <v>2.858450426204497</v>
+        <v>2.92228852275617</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252">
-        <v>2.987179327941169</v>
+        <v>3.05760786736691</v>
       </c>
       <c r="B252">
-        <v>2.987179327941169</v>
+        <v>3.05760786736691</v>
       </c>
       <c r="C252">
-        <v>2.987179327941169</v>
+        <v>3.05760786736691</v>
       </c>
       <c r="D252">
-        <v>2.987179327941169</v>
+        <v>3.05760786736691</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253">
-        <v>3.112906877865764</v>
+        <v>3.18826586343863</v>
       </c>
       <c r="B253">
-        <v>3.112906877865764</v>
+        <v>3.18826586343863</v>
       </c>
       <c r="C253">
-        <v>3.112906877865764</v>
+        <v>3.18826586343863</v>
       </c>
       <c r="D253">
-        <v>3.112906877865764</v>
+        <v>3.18826586343863</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254">
-        <v>3.180347657469809</v>
+        <v>3.25749442385085</v>
       </c>
       <c r="B254">
-        <v>3.180347657469809</v>
+        <v>3.25749442385085</v>
       </c>
       <c r="C254">
-        <v>3.180347657469809</v>
+        <v>3.25749442385085</v>
       </c>
       <c r="D254">
-        <v>3.180347657469809</v>
+        <v>3.25749442385085</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255">
-        <v>3.248678867504236</v>
+        <v>3.32549263048436</v>
       </c>
       <c r="B255">
-        <v>3.248678867504236</v>
+        <v>3.32549263048436</v>
       </c>
       <c r="C255">
-        <v>3.248678867504236</v>
+        <v>3.32549263048436</v>
       </c>
       <c r="D255">
-        <v>3.248678867504236</v>
+        <v>3.32549263048436</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256">
-        <v>3.283596830413081</v>
+        <v>3.36071705790687</v>
       </c>
       <c r="B256">
-        <v>3.283596830413081</v>
+        <v>3.36071705790687</v>
       </c>
       <c r="C256">
-        <v>3.283596830413081</v>
+        <v>3.36071705790687</v>
       </c>
       <c r="D256">
-        <v>3.283596830413081</v>
+        <v>3.36071705790687</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257">
-        <v>3.324249950983565</v>
+        <v>3.39725739847327</v>
       </c>
       <c r="B257">
-        <v>3.324249950983565</v>
+        <v>3.39725739847327</v>
       </c>
       <c r="C257">
-        <v>3.324249950983565</v>
+        <v>3.39725739847327</v>
       </c>
       <c r="D257">
-        <v>3.324249950983565</v>
+        <v>3.39725739847327</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258">
-        <v>3.32971701838254</v>
+        <v>3.40319692848697</v>
       </c>
       <c r="B258">
-        <v>3.32971701838254</v>
+        <v>3.40319692848697</v>
       </c>
       <c r="C258">
-        <v>3.32971701838254</v>
+        <v>3.40319692848697</v>
       </c>
       <c r="D258">
-        <v>3.32971701838254</v>
+        <v>3.40319692848697</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259">
-        <v>3.315872143285675</v>
+        <v>3.3885524229524</v>
       </c>
       <c r="B259">
-        <v>3.315872143285675</v>
+        <v>3.3885524229524</v>
       </c>
       <c r="C259">
-        <v>3.315872143285675</v>
+        <v>3.3885524229524</v>
       </c>
       <c r="D259">
-        <v>3.315872143285675</v>
+        <v>3.3885524229524</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260">
-        <v>3.277717802279951</v>
+        <v>3.35874881186405</v>
       </c>
       <c r="B260">
-        <v>3.277717802279951</v>
+        <v>3.35874881186405</v>
       </c>
       <c r="C260">
-        <v>3.277717802279951</v>
+        <v>3.35874881186405</v>
       </c>
       <c r="D260">
-        <v>3.277717802279951</v>
+        <v>3.35874881186405</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261">
-        <v>3.219591542279868</v>
+        <v>3.29937964397615</v>
       </c>
       <c r="B261">
-        <v>3.219591542279868</v>
+        <v>3.29937964397615</v>
       </c>
       <c r="C261">
-        <v>3.219591542279868</v>
+        <v>3.29937964397615</v>
       </c>
       <c r="D261">
-        <v>3.219591542279868</v>
+        <v>3.29937964397615</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262">
-        <v>3.105479254899996</v>
+        <v>3.18068188017121</v>
       </c>
       <c r="B262">
-        <v>3.105479254899996</v>
+        <v>3.18068188017121</v>
       </c>
       <c r="C262">
-        <v>3.105479254899996</v>
+        <v>3.18068188017121</v>
       </c>
       <c r="D262">
-        <v>3.105479254899996</v>
+        <v>3.18068188017121</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263">
-        <v>2.987499517547464</v>
+        <v>3.04776056469017</v>
       </c>
       <c r="B263">
-        <v>2.987499517547464</v>
+        <v>3.04776056469017</v>
       </c>
       <c r="C263">
-        <v>2.987499517547464</v>
+        <v>3.04776056469017</v>
       </c>
       <c r="D263">
-        <v>2.987499517547464</v>
+        <v>3.04776056469017</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264">
-        <v>2.930410035588266</v>
+        <v>2.99440578591761</v>
       </c>
       <c r="B264">
-        <v>2.930410035588266</v>
+        <v>2.99440578591761</v>
       </c>
       <c r="C264">
-        <v>2.930410035588266</v>
+        <v>2.99440578591761</v>
       </c>
       <c r="D264">
-        <v>2.930410035588266</v>
+        <v>2.99440578591761</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265">
-        <v>2.843179109879268</v>
+        <v>2.89891271966051</v>
       </c>
       <c r="B265">
-        <v>2.843179109879268</v>
+        <v>2.89891271966051</v>
       </c>
       <c r="C265">
-        <v>2.843179109879268</v>
+        <v>2.89891271966051</v>
       </c>
       <c r="D265">
-        <v>2.843179109879268</v>
+        <v>2.89891271966051</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266">
-        <v>2.80994900261475</v>
+        <v>2.85892614126165</v>
       </c>
       <c r="B266">
-        <v>2.80994900261475</v>
+        <v>2.85892614126165</v>
       </c>
       <c r="C266">
-        <v>2.80994900261475</v>
+        <v>2.85892614126165</v>
       </c>
       <c r="D266">
-        <v>2.80994900261475</v>
+        <v>2.85892614126165</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267">
-        <v>2.736472646481448</v>
+        <v>2.78857820290458</v>
       </c>
       <c r="B267">
-        <v>2.736472646481448</v>
+        <v>2.78857820290458</v>
       </c>
       <c r="C267">
-        <v>2.736472646481448</v>
+        <v>2.78857820290458</v>
       </c>
       <c r="D267">
-        <v>2.736472646481448</v>
+        <v>2.78857820290458</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268">
-        <v>2.690996160359854</v>
+        <v>2.73367697041786</v>
       </c>
       <c r="B268">
-        <v>2.690996160359854</v>
+        <v>2.73367697041786</v>
       </c>
       <c r="C268">
-        <v>2.690996160359854</v>
+        <v>2.73367697041786</v>
       </c>
       <c r="D268">
-        <v>2.690996160359854</v>
+        <v>2.73367697041786</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269">
-        <v>2.672263011719749</v>
+        <v>2.71444039538535</v>
       </c>
       <c r="B269">
-        <v>2.672263011719749</v>
+        <v>2.71444039538535</v>
       </c>
       <c r="C269">
-        <v>2.672263011719749</v>
+        <v>2.71444039538535</v>
       </c>
       <c r="D269">
-        <v>2.672263011719749</v>
+        <v>2.71444039538535</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270">
-        <v>2.635454660102514</v>
+        <v>2.67695626266663</v>
       </c>
       <c r="B270">
-        <v>2.635454660102514</v>
+        <v>2.67695626266663</v>
       </c>
       <c r="C270">
-        <v>2.635454660102514</v>
+        <v>2.67695626266663</v>
       </c>
       <c r="D270">
-        <v>2.635454660102514</v>
+        <v>2.67695626266663</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271">
-        <v>2.603443304949431</v>
+        <v>2.64371940328787</v>
       </c>
       <c r="B271">
-        <v>2.603443304949431</v>
+        <v>2.64371940328787</v>
       </c>
       <c r="C271">
-        <v>2.603443304949431</v>
+        <v>2.64371940328787</v>
       </c>
       <c r="D271">
-        <v>2.603443304949431</v>
+        <v>2.64371940328787</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272">
-        <v>2.589497138716608</v>
+        <v>2.6300923585718</v>
       </c>
       <c r="B272">
-        <v>2.589497138716608</v>
+        <v>2.6300923585718</v>
       </c>
       <c r="C272">
-        <v>2.589497138716608</v>
+        <v>2.6300923585718</v>
       </c>
       <c r="D272">
-        <v>2.589497138716608</v>
+        <v>2.6300923585718</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273">
-        <v>2.669071923160274</v>
+        <v>2.71590997855827</v>
       </c>
       <c r="B273">
-        <v>2.669071923160274</v>
+        <v>2.71590997855827</v>
       </c>
       <c r="C273">
-        <v>2.669071923160274</v>
+        <v>2.71590997855827</v>
       </c>
       <c r="D273">
-        <v>2.669071923160274</v>
+        <v>2.71590997855827</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274">
-        <v>2.781358973463798</v>
+        <v>2.83758609742037</v>
       </c>
       <c r="B274">
-        <v>2.781358973463798</v>
+        <v>2.83758609742037</v>
       </c>
       <c r="C274">
-        <v>2.781358973463798</v>
+        <v>2.83758609742037</v>
       </c>
       <c r="D274">
-        <v>2.781358973463798</v>
+        <v>2.83758609742037</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275">
-        <v>2.893055787236509</v>
+        <v>2.95489099902866</v>
       </c>
       <c r="B275">
-        <v>2.893055787236509</v>
+        <v>2.95489099902866</v>
       </c>
       <c r="C275">
-        <v>2.893055787236509</v>
+        <v>2.95489099902866</v>
       </c>
       <c r="D275">
-        <v>2.893055787236509</v>
+        <v>2.95489099902866</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276">
-        <v>2.986890960100165</v>
+        <v>3.04906183871761</v>
       </c>
       <c r="B276">
-        <v>2.986890960100165</v>
+        <v>3.04906183871761</v>
       </c>
       <c r="C276">
-        <v>2.986890960100165</v>
+        <v>3.04906183871761</v>
       </c>
       <c r="D276">
-        <v>2.986890960100165</v>
+        <v>3.04906183871761</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277">
-        <v>3.092821686033817</v>
+        <v>3.16035958217539</v>
       </c>
       <c r="B277">
-        <v>3.092821686033817</v>
+        <v>3.16035958217539</v>
       </c>
       <c r="C277">
-        <v>3.092821686033817</v>
+        <v>3.16035958217539</v>
       </c>
       <c r="D277">
-        <v>3.092821686033817</v>
+        <v>3.16035958217539</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278">
-        <v>3.187137916605228</v>
+        <v>3.25709490397565</v>
       </c>
       <c r="B278">
-        <v>3.187137916605228</v>
+        <v>3.25709490397565</v>
       </c>
       <c r="C278">
-        <v>3.187137916605228</v>
+        <v>3.25709490397565</v>
       </c>
       <c r="D278">
-        <v>3.187137916605228</v>
+        <v>3.25709490397565</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279">
-        <v>3.248165078776247</v>
+        <v>3.31572036630584</v>
       </c>
       <c r="B279">
-        <v>3.248165078776247</v>
+        <v>3.31572036630584</v>
       </c>
       <c r="C279">
-        <v>3.248165078776247</v>
+        <v>3.31572036630584</v>
       </c>
       <c r="D279">
-        <v>3.248165078776247</v>
+        <v>3.31572036630584</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280">
-        <v>3.309324667984894</v>
+        <v>3.37354990404362</v>
       </c>
       <c r="B280">
-        <v>3.309324667984894</v>
+        <v>3.37354990404362</v>
       </c>
       <c r="C280">
-        <v>3.309324667984894</v>
+        <v>3.37354990404362</v>
       </c>
       <c r="D280">
-        <v>3.309324667984894</v>
+        <v>3.37354990404362</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281">
-        <v>3.358939662757888</v>
+        <v>3.42370185458593</v>
       </c>
       <c r="B281">
-        <v>3.358939662757888</v>
+        <v>3.42370185458593</v>
       </c>
       <c r="C281">
-        <v>3.358939662757888</v>
+        <v>3.42370185458593</v>
       </c>
       <c r="D281">
-        <v>3.358939662757888</v>
+        <v>3.42370185458593</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282">
-        <v>3.355102224140927</v>
+        <v>3.41825762387877</v>
       </c>
       <c r="B282">
-        <v>3.355102224140927</v>
+        <v>3.41825762387877</v>
       </c>
       <c r="C282">
-        <v>3.355102224140927</v>
+        <v>3.41825762387877</v>
       </c>
       <c r="D282">
-        <v>3.355102224140927</v>
+        <v>3.41825762387877</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283">
-        <v>3.337595588867601</v>
+        <v>3.40534187185733</v>
       </c>
       <c r="B283">
-        <v>3.337595588867601</v>
+        <v>3.40534187185733</v>
       </c>
       <c r="C283">
-        <v>3.337595588867601</v>
+        <v>3.40534187185733</v>
       </c>
       <c r="D283">
-        <v>3.337595588867601</v>
+        <v>3.40534187185733</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284">
-        <v>3.302449931398859</v>
+        <v>3.37474141665257</v>
       </c>
       <c r="B284">
-        <v>3.302449931398859</v>
+        <v>3.37474141665257</v>
       </c>
       <c r="C284">
-        <v>3.302449931398859</v>
+        <v>3.37474141665257</v>
       </c>
       <c r="D284">
-        <v>3.302449931398859</v>
+        <v>3.37474141665257</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285">
-        <v>3.201521382798993</v>
+        <v>3.26771078918887</v>
       </c>
       <c r="B285">
-        <v>3.201521382798993</v>
+        <v>3.26771078918887</v>
       </c>
       <c r="C285">
-        <v>3.201521382798993</v>
+        <v>3.26771078918887</v>
       </c>
       <c r="D285">
-        <v>3.201521382798993</v>
+        <v>3.26771078918887</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286">
-        <v>3.087182938017399</v>
+        <v>3.14126285821813</v>
       </c>
       <c r="B286">
-        <v>3.087182938017399</v>
+        <v>3.14126285821813</v>
       </c>
       <c r="C286">
-        <v>3.087182938017399</v>
+        <v>3.14126285821813</v>
       </c>
       <c r="D286">
-        <v>3.087182938017399</v>
+        <v>3.14126285821813</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287">
-        <v>2.968056851006379</v>
+        <v>3.01413499066005</v>
       </c>
       <c r="B287">
-        <v>2.968056851006379</v>
+        <v>3.01413499066005</v>
       </c>
       <c r="C287">
-        <v>2.968056851006379</v>
+        <v>3.01413499066005</v>
       </c>
       <c r="D287">
-        <v>2.968056851006379</v>
+        <v>3.01413499066005</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288">
-        <v>2.904986507951618</v>
+        <v>2.94561412413142</v>
       </c>
       <c r="B288">
-        <v>2.904986507951618</v>
+        <v>2.94561412413142</v>
       </c>
       <c r="C288">
-        <v>2.904986507951618</v>
+        <v>2.94561412413142</v>
       </c>
       <c r="D288">
-        <v>2.904986507951618</v>
+        <v>2.94561412413142</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289">
-        <v>2.876286856270101</v>
+        <v>2.91178179311896</v>
       </c>
       <c r="B289">
-        <v>2.876286856270101</v>
+        <v>2.91178179311896</v>
       </c>
       <c r="C289">
-        <v>2.876286856270101</v>
+        <v>2.91178179311896</v>
       </c>
       <c r="D289">
-        <v>2.876286856270101</v>
+        <v>2.91178179311896</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290">
-        <v>2.801638791980372</v>
+        <v>2.83711547321313</v>
       </c>
       <c r="B290">
-        <v>2.801638791980372</v>
+        <v>2.83711547321313</v>
       </c>
       <c r="C290">
-        <v>2.801638791980372</v>
+        <v>2.83711547321313</v>
       </c>
       <c r="D290">
-        <v>2.801638791980372</v>
+        <v>2.83711547321313</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291">
-        <v>2.780069376251726</v>
+        <v>2.81462777027248</v>
       </c>
       <c r="B291">
-        <v>2.780069376251726</v>
+        <v>2.81462777027248</v>
       </c>
       <c r="C291">
-        <v>2.780069376251726</v>
+        <v>2.81462777027248</v>
       </c>
       <c r="D291">
-        <v>2.780069376251726</v>
+        <v>2.81462777027248</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292">
-        <v>2.721907898602538</v>
+        <v>2.75537457966855</v>
       </c>
       <c r="B292">
-        <v>2.721907898602538</v>
+        <v>2.75537457966855</v>
       </c>
       <c r="C292">
-        <v>2.721907898602538</v>
+        <v>2.75537457966855</v>
       </c>
       <c r="D292">
-        <v>2.721907898602538</v>
+        <v>2.75537457966855</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293">
-        <v>2.706418939596392</v>
+        <v>2.73839283021592</v>
       </c>
       <c r="B293">
-        <v>2.706418939596392</v>
+        <v>2.73839283021592</v>
       </c>
       <c r="C293">
-        <v>2.706418939596392</v>
+        <v>2.73839283021592</v>
       </c>
       <c r="D293">
-        <v>2.706418939596392</v>
+        <v>2.73839283021592</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294">
-        <v>2.667424863117698</v>
+        <v>2.6960288952761</v>
       </c>
       <c r="B294">
-        <v>2.667424863117698</v>
+        <v>2.6960288952761</v>
       </c>
       <c r="C294">
-        <v>2.667424863117698</v>
+        <v>2.6960288952761</v>
       </c>
       <c r="D294">
-        <v>2.667424863117698</v>
+        <v>2.6960288952761</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295">
-        <v>2.643162624022852</v>
+        <v>2.67153736997703</v>
       </c>
       <c r="B295">
-        <v>2.643162624022852</v>
+        <v>2.67153736997703</v>
       </c>
       <c r="C295">
-        <v>2.643162624022852</v>
+        <v>2.67153736997703</v>
       </c>
       <c r="D295">
-        <v>2.643162624022852</v>
+        <v>2.67153736997703</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296">
-        <v>2.648460756718353</v>
+        <v>2.67679796615858</v>
       </c>
       <c r="B296">
-        <v>2.648460756718353</v>
+        <v>2.67679796615858</v>
       </c>
       <c r="C296">
-        <v>2.648460756718353</v>
+        <v>2.67679796615858</v>
       </c>
       <c r="D296">
-        <v>2.648460756718353</v>
+        <v>2.67679796615858</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297">
-        <v>2.696238091382169</v>
+        <v>2.73106186255301</v>
       </c>
       <c r="B297">
-        <v>2.696238091382169</v>
+        <v>2.73106186255301</v>
       </c>
       <c r="C297">
-        <v>2.696238091382169</v>
+        <v>2.73106186255301</v>
       </c>
       <c r="D297">
-        <v>2.696238091382169</v>
+        <v>2.73106186255301</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298">
-        <v>2.795384583752214</v>
+        <v>2.83968222446017</v>
       </c>
       <c r="B298">
-        <v>2.795384583752214</v>
+        <v>2.83968222446017</v>
       </c>
       <c r="C298">
-        <v>2.795384583752214</v>
+        <v>2.83968222446017</v>
       </c>
       <c r="D298">
-        <v>2.795384583752214</v>
+        <v>2.83968222446017</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299">
-        <v>2.923296423130555</v>
+        <v>2.97538486300147</v>
       </c>
       <c r="B299">
-        <v>2.923296423130555</v>
+        <v>2.97538486300147</v>
       </c>
       <c r="C299">
-        <v>2.923296423130555</v>
+        <v>2.97538486300147</v>
       </c>
       <c r="D299">
-        <v>2.923296423130555</v>
+        <v>2.97538486300147</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300">
-        <v>3.034111604989574</v>
+        <v>3.09577666551497</v>
       </c>
       <c r="B300">
-        <v>3.034111604989574</v>
+        <v>3.09577666551497</v>
       </c>
       <c r="C300">
-        <v>3.034111604989574</v>
+        <v>3.09577666551497</v>
       </c>
       <c r="D300">
-        <v>3.034111604989574</v>
+        <v>3.09577666551497</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301">
-        <v>3.140121964806216</v>
+        <v>3.20802945405922</v>
       </c>
       <c r="B301">
-        <v>3.140121964806216</v>
+        <v>3.20802945405922</v>
       </c>
       <c r="C301">
-        <v>3.140121964806216</v>
+        <v>3.20802945405922</v>
       </c>
       <c r="D301">
-        <v>3.140121964806216</v>
+        <v>3.20802945405922</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302">
-        <v>3.251790706933049</v>
+        <v>3.32733497247995</v>
       </c>
       <c r="B302">
-        <v>3.251790706933049</v>
+        <v>3.32733497247995</v>
       </c>
       <c r="C302">
-        <v>3.251790706933049</v>
+        <v>3.32733497247995</v>
       </c>
       <c r="D302">
-        <v>3.251790706933049</v>
+        <v>3.32733497247995</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303">
-        <v>3.343089252968637</v>
+        <v>3.41907437946243</v>
       </c>
       <c r="B303">
-        <v>3.343089252968637</v>
+        <v>3.41907437946243</v>
       </c>
       <c r="C303">
-        <v>3.343089252968637</v>
+        <v>3.41907437946243</v>
       </c>
       <c r="D303">
-        <v>3.343089252968637</v>
+        <v>3.41907437946243</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304">
-        <v>3.396903941412516</v>
+        <v>3.47690722244663</v>
       </c>
       <c r="B304">
-        <v>3.396903941412516</v>
+        <v>3.47690722244663</v>
       </c>
       <c r="C304">
-        <v>3.396903941412516</v>
+        <v>3.47690722244663</v>
       </c>
       <c r="D304">
-        <v>3.396903941412516</v>
+        <v>3.47690722244663</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305">
-        <v>3.443429981607999</v>
+        <v>3.52928753892801</v>
       </c>
       <c r="B305">
-        <v>3.443429981607999</v>
+        <v>3.52928753892801</v>
       </c>
       <c r="C305">
-        <v>3.443429981607999</v>
+        <v>3.52928753892801</v>
       </c>
       <c r="D305">
-        <v>3.443429981607999</v>
+        <v>3.52928753892801</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306">
-        <v>3.451638323029337</v>
+        <v>3.54187403089765</v>
       </c>
       <c r="B306">
-        <v>3.451638323029337</v>
+        <v>3.54187403089765</v>
       </c>
       <c r="C306">
-        <v>3.451638323029337</v>
+        <v>3.54187403089765</v>
       </c>
       <c r="D306">
-        <v>3.451638323029337</v>
+        <v>3.54187403089765</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307">
-        <v>3.407409618074935</v>
+        <v>3.49163127828189</v>
       </c>
       <c r="B307">
-        <v>3.407409618074935</v>
+        <v>3.49163127828189</v>
       </c>
       <c r="C307">
-        <v>3.407409618074935</v>
+        <v>3.49163127828189</v>
       </c>
       <c r="D307">
-        <v>3.407409618074935</v>
+        <v>3.49163127828189</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308">
-        <v>3.371519786746743</v>
+        <v>3.45483167049187</v>
       </c>
       <c r="B308">
-        <v>3.371519786746743</v>
+        <v>3.45483167049187</v>
       </c>
       <c r="C308">
-        <v>3.371519786746743</v>
+        <v>3.45483167049187</v>
       </c>
       <c r="D308">
-        <v>3.371519786746743</v>
+        <v>3.45483167049187</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309">
-        <v>3.257736240645767</v>
+        <v>3.33001396859886</v>
       </c>
       <c r="B309">
-        <v>3.257736240645767</v>
+        <v>3.33001396859886</v>
       </c>
       <c r="C309">
-        <v>3.257736240645767</v>
+        <v>3.33001396859886</v>
       </c>
       <c r="D309">
-        <v>3.257736240645767</v>
+        <v>3.33001396859886</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310">
-        <v>3.145209201708549</v>
+        <v>3.21141411062703</v>
       </c>
       <c r="B310">
-        <v>3.145209201708549</v>
+        <v>3.21141411062703</v>
       </c>
       <c r="C310">
-        <v>3.145209201708549</v>
+        <v>3.21141411062703</v>
       </c>
       <c r="D310">
-        <v>3.145209201708549</v>
+        <v>3.21141411062703</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311">
-        <v>3.064253075214131</v>
+        <v>3.12220498735785</v>
       </c>
       <c r="B311">
-        <v>3.064253075214131</v>
+        <v>3.12220498735785</v>
       </c>
       <c r="C311">
-        <v>3.064253075214131</v>
+        <v>3.12220498735785</v>
       </c>
       <c r="D311">
-        <v>3.064253075214131</v>
+        <v>3.12220498735785</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312">
-        <v>2.968222622189435</v>
+        <v>3.01787560629398</v>
       </c>
       <c r="B312">
-        <v>2.968222622189435</v>
+        <v>3.01787560629398</v>
       </c>
       <c r="C312">
-        <v>2.968222622189435</v>
+        <v>3.01787560629398</v>
       </c>
       <c r="D312">
-        <v>2.968222622189435</v>
+        <v>3.01787560629398</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313">
-        <v>2.917935285575547</v>
+        <v>2.96478811659332</v>
       </c>
       <c r="B313">
-        <v>2.917935285575547</v>
+        <v>2.96478811659332</v>
       </c>
       <c r="C313">
-        <v>2.917935285575547</v>
+        <v>2.96478811659332</v>
       </c>
       <c r="D313">
-        <v>2.917935285575547</v>
+        <v>2.96478811659332</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314">
-        <v>2.850740673905673</v>
+        <v>2.89369634154889</v>
       </c>
       <c r="B314">
-        <v>2.850740673905673</v>
+        <v>2.89369634154889</v>
       </c>
       <c r="C314">
-        <v>2.850740673905673</v>
+        <v>2.89369634154889</v>
       </c>
       <c r="D314">
-        <v>2.850740673905673</v>
+        <v>2.89369634154889</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315">
-        <v>2.771515633495572</v>
+        <v>2.80762469270828</v>
       </c>
       <c r="B315">
-        <v>2.771515633495572</v>
+        <v>2.80762469270828</v>
       </c>
       <c r="C315">
-        <v>2.771515633495572</v>
+        <v>2.80762469270828</v>
       </c>
       <c r="D315">
-        <v>2.771515633495572</v>
+        <v>2.80762469270828</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316">
-        <v>2.732804713584992</v>
+        <v>2.76822572825209</v>
       </c>
       <c r="B316">
-        <v>2.732804713584992</v>
+        <v>2.76822572825209</v>
       </c>
       <c r="C316">
-        <v>2.732804713584992</v>
+        <v>2.76822572825209</v>
       </c>
       <c r="D316">
-        <v>2.732804713584992</v>
+        <v>2.76822572825209</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317">
-        <v>2.698225262613426</v>
+        <v>2.73294650219268</v>
       </c>
       <c r="B317">
-        <v>2.698225262613426</v>
+        <v>2.73294650219268</v>
       </c>
       <c r="C317">
-        <v>2.698225262613426</v>
+        <v>2.73294650219268</v>
       </c>
       <c r="D317">
-        <v>2.698225262613426</v>
+        <v>2.73294650219268</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318">
-        <v>2.682664882503748</v>
+        <v>2.71939486916055</v>
       </c>
       <c r="B318">
-        <v>2.682664882503748</v>
+        <v>2.71939486916055</v>
       </c>
       <c r="C318">
-        <v>2.682664882503748</v>
+        <v>2.71939486916055</v>
       </c>
       <c r="D318">
-        <v>2.682664882503748</v>
+        <v>2.71939486916055</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319">
-        <v>2.654576659547954</v>
+        <v>2.68644954135645</v>
       </c>
       <c r="B319">
-        <v>2.654576659547954</v>
+        <v>2.68644954135645</v>
       </c>
       <c r="C319">
-        <v>2.654576659547954</v>
+        <v>2.68644954135645</v>
       </c>
       <c r="D319">
-        <v>2.654576659547954</v>
+        <v>2.68644954135645</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320">
-        <v>2.642253204024423</v>
+        <v>2.67549082340524</v>
       </c>
       <c r="B320">
-        <v>2.642253204024423</v>
+        <v>2.67549082340524</v>
       </c>
       <c r="C320">
-        <v>2.642253204024423</v>
+        <v>2.67549082340524</v>
       </c>
       <c r="D320">
-        <v>2.642253204024423</v>
+        <v>2.67549082340524</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321">
-        <v>2.670080176376343</v>
+        <v>2.70572259583695</v>
       </c>
       <c r="B321">
-        <v>2.670080176376343</v>
+        <v>2.70572259583695</v>
       </c>
       <c r="C321">
-        <v>2.670080176376343</v>
+        <v>2.70572259583695</v>
       </c>
       <c r="D321">
-        <v>2.670080176376343</v>
+        <v>2.70572259583695</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322">
-        <v>2.773600051890042</v>
+        <v>2.82421990180583</v>
       </c>
       <c r="B322">
-        <v>2.773600051890042</v>
+        <v>2.82421990180583</v>
       </c>
       <c r="C322">
-        <v>2.773600051890042</v>
+        <v>2.82421990180583</v>
       </c>
       <c r="D322">
-        <v>2.773600051890042</v>
+        <v>2.82421990180583</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323">
-        <v>2.908128566901151</v>
+        <v>2.96921286703565</v>
       </c>
       <c r="B323">
-        <v>2.908128566901151</v>
+        <v>2.96921286703565</v>
       </c>
       <c r="C323">
-        <v>2.908128566901151</v>
+        <v>2.96921286703565</v>
       </c>
       <c r="D323">
-        <v>2.908128566901151</v>
+        <v>2.96921286703565</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324">
-        <v>3.002442960639425</v>
+        <v>3.07083710814958</v>
       </c>
       <c r="B324">
-        <v>3.002442960639425</v>
+        <v>3.07083710814958</v>
       </c>
       <c r="C324">
-        <v>3.002442960639425</v>
+        <v>3.07083710814958</v>
       </c>
       <c r="D324">
-        <v>3.002442960639425</v>
+        <v>3.07083710814958</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325">
-        <v>3.109651484569284</v>
+        <v>3.18296512459905</v>
       </c>
       <c r="B325">
-        <v>3.109651484569284</v>
+        <v>3.18296512459905</v>
       </c>
       <c r="C325">
-        <v>3.109651484569284</v>
+        <v>3.18296512459905</v>
       </c>
       <c r="D325">
-        <v>3.109651484569284</v>
+        <v>3.18296512459905</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326">
-        <v>3.198175185794168</v>
+        <v>3.27546754171921</v>
       </c>
       <c r="B326">
-        <v>3.198175185794168</v>
+        <v>3.27546754171921</v>
       </c>
       <c r="C326">
-        <v>3.198175185794168</v>
+        <v>3.27546754171921</v>
       </c>
       <c r="D326">
-        <v>3.198175185794168</v>
+        <v>3.27546754171921</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327">
-        <v>3.237329175496795</v>
+        <v>3.31573148288679</v>
       </c>
       <c r="B327">
-        <v>3.237329175496795</v>
+        <v>3.31573148288679</v>
       </c>
       <c r="C327">
-        <v>3.237329175496795</v>
+        <v>3.31573148288679</v>
       </c>
       <c r="D327">
-        <v>3.237329175496795</v>
+        <v>3.31573148288679</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328">
-        <v>3.280707137190021</v>
+        <v>3.35553848164755</v>
       </c>
       <c r="B328">
-        <v>3.280707137190021</v>
+        <v>3.35553848164755</v>
       </c>
       <c r="C328">
-        <v>3.280707137190021</v>
+        <v>3.35553848164755</v>
       </c>
       <c r="D328">
-        <v>3.280707137190021</v>
+        <v>3.35553848164755</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329">
-        <v>3.328768330346591</v>
+        <v>3.39856993012163</v>
       </c>
       <c r="B329">
-        <v>3.328768330346591</v>
+        <v>3.39856993012163</v>
       </c>
       <c r="C329">
-        <v>3.328768330346591</v>
+        <v>3.39856993012163</v>
       </c>
       <c r="D329">
-        <v>3.328768330346591</v>
+        <v>3.39856993012163</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330">
-        <v>3.32172121626395</v>
+        <v>3.39207937315255</v>
       </c>
       <c r="B330">
-        <v>3.32172121626395</v>
+        <v>3.39207937315255</v>
       </c>
       <c r="C330">
-        <v>3.32172121626395</v>
+        <v>3.39207937315255</v>
       </c>
       <c r="D330">
-        <v>3.32172121626395</v>
+        <v>3.39207937315255</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331">
-        <v>3.313101679340209</v>
+        <v>3.39202742376175</v>
       </c>
       <c r="B331">
-        <v>3.313101679340209</v>
+        <v>3.39202742376175</v>
       </c>
       <c r="C331">
-        <v>3.313101679340209</v>
+        <v>3.39202742376175</v>
       </c>
       <c r="D331">
-        <v>3.313101679340209</v>
+        <v>3.39202742376175</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332">
-        <v>3.244180841402405</v>
+        <v>3.32004864347875</v>
       </c>
       <c r="B332">
-        <v>3.244180841402405</v>
+        <v>3.32004864347875</v>
       </c>
       <c r="C332">
-        <v>3.244180841402405</v>
+        <v>3.32004864347875</v>
       </c>
       <c r="D332">
-        <v>3.244180841402405</v>
+        <v>3.32004864347875</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333">
-        <v>3.16938699444539</v>
+        <v>3.24726445483445</v>
       </c>
       <c r="B333">
-        <v>3.16938699444539</v>
+        <v>3.24726445483445</v>
       </c>
       <c r="C333">
-        <v>3.16938699444539</v>
+        <v>3.24726445483445</v>
       </c>
       <c r="D333">
-        <v>3.16938699444539</v>
+        <v>3.24726445483445</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334">
-        <v>3.047075765903196</v>
+        <v>3.11968291070765</v>
       </c>
       <c r="B334">
-        <v>3.047075765903196</v>
+        <v>3.11968291070765</v>
       </c>
       <c r="C334">
-        <v>3.047075765903196</v>
+        <v>3.11968291070765</v>
       </c>
       <c r="D334">
-        <v>3.047075765903196</v>
+        <v>3.11968291070765</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335">
-        <v>2.983128560081256</v>
+        <v>3.05151759123416</v>
       </c>
       <c r="B335">
-        <v>2.983128560081256</v>
+        <v>3.05151759123416</v>
       </c>
       <c r="C335">
-        <v>2.983128560081256</v>
+        <v>3.05151759123416</v>
       </c>
       <c r="D335">
-        <v>2.983128560081256</v>
+        <v>3.05151759123416</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336">
-        <v>2.861883362704603</v>
+        <v>2.91855688338887</v>
       </c>
       <c r="B336">
-        <v>2.861883362704603</v>
+        <v>2.91855688338887</v>
       </c>
       <c r="C336">
-        <v>2.861883362704603</v>
+        <v>2.91855688338887</v>
       </c>
       <c r="D336">
-        <v>2.861883362704603</v>
+        <v>2.91855688338887</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337">
-        <v>2.814147394877148</v>
+        <v>2.87003305201031</v>
       </c>
       <c r="B337">
-        <v>2.814147394877148</v>
+        <v>2.87003305201031</v>
       </c>
       <c r="C337">
-        <v>2.814147394877148</v>
+        <v>2.87003305201031</v>
       </c>
       <c r="D337">
-        <v>2.814147394877148</v>
+        <v>2.87003305201031</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338">
-        <v>2.105452208757468</v>
+        <v>3.33666584048242</v>
       </c>
       <c r="B338">
-        <v>2.105452208757468</v>
+        <v>3.33666584048242</v>
       </c>
       <c r="C338">
-        <v>2.105452208757468</v>
+        <v>3.33666584048242</v>
       </c>
       <c r="D338">
-        <v>2.105452208757468</v>
+        <v>3.33666584048242</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339">
-        <v>2.093722087422552</v>
+        <v>3.25807954238744</v>
       </c>
       <c r="B339">
-        <v>2.093722087422552</v>
+        <v>3.25807954238744</v>
       </c>
       <c r="C339">
-        <v>2.093722087422552</v>
+        <v>3.25807954238744</v>
       </c>
       <c r="D339">
-        <v>2.093722087422552</v>
+        <v>3.25807954238744</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340">
-        <v>2.097051175614408</v>
+        <v>3.22830153784733</v>
       </c>
       <c r="B340">
-        <v>2.097051175614408</v>
+        <v>3.22830153784733</v>
       </c>
       <c r="C340">
-        <v>2.097051175614408</v>
+        <v>3.22830153784733</v>
       </c>
       <c r="D340">
-        <v>2.097051175614408</v>
+        <v>3.22830153784733</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341">
-        <v>2.07986845681566</v>
+        <v>3.21115248723774</v>
       </c>
       <c r="B341">
-        <v>2.07986845681566</v>
+        <v>3.21115248723774</v>
       </c>
       <c r="C341">
-        <v>2.07986845681566</v>
+        <v>3.21115248723774</v>
       </c>
       <c r="D341">
-        <v>2.07986845681566</v>
+        <v>3.21115248723774</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342">
-        <v>2.043107718632708</v>
+        <v>3.1525917182976</v>
       </c>
       <c r="B342">
-        <v>2.043107718632708</v>
+        <v>3.1525917182976</v>
       </c>
       <c r="C342">
-        <v>2.043107718632708</v>
+        <v>3.1525917182976</v>
       </c>
       <c r="D342">
-        <v>2.043107718632708</v>
+        <v>3.1525917182976</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343">
-        <v>2.025219159440162</v>
+        <v>3.11158684352502</v>
       </c>
       <c r="B343">
-        <v>2.025219159440162</v>
+        <v>3.11158684352502</v>
       </c>
       <c r="C343">
-        <v>2.025219159440162</v>
+        <v>3.11158684352502</v>
       </c>
       <c r="D343">
-        <v>2.025219159440162</v>
+        <v>3.11158684352502</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344">
-        <v>2.03509801122159</v>
+        <v>3.09574945418406</v>
       </c>
       <c r="B344">
-        <v>2.03509801122159</v>
+        <v>3.09574945418406</v>
       </c>
       <c r="C344">
-        <v>2.03509801122159</v>
+        <v>3.09574945418406</v>
       </c>
       <c r="D344">
-        <v>2.03509801122159</v>
+        <v>3.09574945418406</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345">
-        <v>2.024219778270636</v>
+        <v>3.17359067023824</v>
       </c>
       <c r="B345">
-        <v>2.024219778270636</v>
+        <v>3.17359067023824</v>
       </c>
       <c r="C345">
-        <v>2.024219778270636</v>
+        <v>3.17359067023824</v>
       </c>
       <c r="D345">
-        <v>2.024219778270636</v>
+        <v>3.17359067023824</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346">
-        <v>2.02788173655437</v>
+        <v>3.29292158258091</v>
       </c>
       <c r="B346">
-        <v>2.02788173655437</v>
+        <v>3.29292158258091</v>
       </c>
       <c r="C346">
-        <v>2.02788173655437</v>
+        <v>3.29292158258091</v>
       </c>
       <c r="D346">
-        <v>2.02788173655437</v>
+        <v>3.29292158258091</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347">
-        <v>2.066868524793033</v>
+        <v>3.42202608172635</v>
       </c>
       <c r="B347">
-        <v>2.066868524793033</v>
+        <v>3.42202608172635</v>
       </c>
       <c r="C347">
-        <v>2.066868524793033</v>
+        <v>3.42202608172635</v>
       </c>
       <c r="D347">
-        <v>2.066868524793033</v>
+        <v>3.42202608172635</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348">
-        <v>2.115240635308444</v>
+        <v>3.5385844897839</v>
       </c>
       <c r="B348">
-        <v>2.115240635308444</v>
+        <v>3.5385844897839</v>
       </c>
       <c r="C348">
-        <v>2.115240635308444</v>
+        <v>3.5385844897839</v>
       </c>
       <c r="D348">
-        <v>2.115240635308444</v>
+        <v>3.5385844897839</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349">
-        <v>2.169675884218198</v>
+        <v>3.63211826738837</v>
       </c>
       <c r="B349">
-        <v>2.169675884218198</v>
+        <v>3.63211826738837</v>
       </c>
       <c r="C349">
-        <v>2.169675884218198</v>
+        <v>3.63211826738837</v>
       </c>
       <c r="D349">
-        <v>2.169675884218198</v>
+        <v>3.63211826738837</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350">
-        <v>2.216953127316101</v>
+        <v>3.72237528903079</v>
       </c>
       <c r="B350">
-        <v>2.216953127316101</v>
+        <v>3.72237528903079</v>
       </c>
       <c r="C350">
-        <v>2.216953127316101</v>
+        <v>3.72237528903079</v>
       </c>
       <c r="D350">
-        <v>2.216953127316101</v>
+        <v>3.72237528903079</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351">
-        <v>2.243768904428025</v>
+        <v>3.76314902510455</v>
       </c>
       <c r="B351">
-        <v>2.243768904428025</v>
+        <v>3.76314902510455</v>
       </c>
       <c r="C351">
-        <v>2.243768904428025</v>
+        <v>3.76314902510455</v>
       </c>
       <c r="D351">
-        <v>2.243768904428025</v>
+        <v>3.76314902510455</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352">
-        <v>2.274357849288336</v>
+        <v>3.79205847025718</v>
       </c>
       <c r="B352">
-        <v>2.274357849288336</v>
+        <v>3.79205847025718</v>
       </c>
       <c r="C352">
-        <v>2.274357849288336</v>
+        <v>3.79205847025718</v>
       </c>
       <c r="D352">
-        <v>2.274357849288336</v>
+        <v>3.79205847025718</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353">
-        <v>2.260658672534946</v>
+        <v>3.83235498974269</v>
       </c>
       <c r="B353">
-        <v>2.260658672534946</v>
+        <v>3.83235498974269</v>
       </c>
       <c r="C353">
-        <v>2.260658672534946</v>
+        <v>3.83235498974269</v>
       </c>
       <c r="D353">
-        <v>2.260658672534946</v>
+        <v>3.83235498974269</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354">
-        <v>2.215578059234547</v>
+        <v>3.83573655702899</v>
       </c>
       <c r="B354">
-        <v>2.215578059234547</v>
+        <v>3.83573655702899</v>
       </c>
       <c r="C354">
-        <v>2.215578059234547</v>
+        <v>3.83573655702899</v>
       </c>
       <c r="D354">
-        <v>2.215578059234547</v>
+        <v>3.83573655702899</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355">
-        <v>2.176078320931492</v>
+        <v>3.83686275338325</v>
       </c>
       <c r="B355">
-        <v>2.176078320931492</v>
+        <v>3.83686275338325</v>
       </c>
       <c r="C355">
-        <v>2.176078320931492</v>
+        <v>3.83686275338325</v>
       </c>
       <c r="D355">
-        <v>2.176078320931492</v>
+        <v>3.83686275338325</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356">
-        <v>2.174302492616065</v>
+        <v>3.79351444020295</v>
       </c>
       <c r="B356">
-        <v>2.174302492616065</v>
+        <v>3.79351444020295</v>
       </c>
       <c r="C356">
-        <v>2.174302492616065</v>
+        <v>3.79351444020295</v>
       </c>
       <c r="D356">
-        <v>2.174302492616065</v>
+        <v>3.79351444020295</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357">
-        <v>2.159395071429716</v>
+        <v>3.77053233509539</v>
       </c>
       <c r="B357">
-        <v>2.159395071429716</v>
+        <v>3.77053233509539</v>
       </c>
       <c r="C357">
-        <v>2.159395071429716</v>
+        <v>3.77053233509539</v>
       </c>
       <c r="D357">
-        <v>2.159395071429716</v>
+        <v>3.77053233509539</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358">
-        <v>2.137279533645515</v>
+        <v>3.63752710926236</v>
       </c>
       <c r="B358">
-        <v>2.137279533645515</v>
+        <v>3.63752710926236</v>
       </c>
       <c r="C358">
-        <v>2.137279533645515</v>
+        <v>3.63752710926236</v>
       </c>
       <c r="D358">
-        <v>2.137279533645515</v>
+        <v>3.63752710926236</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359">
-        <v>2.110803031942319</v>
+        <v>3.53198135718229</v>
       </c>
       <c r="B359">
-        <v>2.110803031942319</v>
+        <v>3.53198135718229</v>
       </c>
       <c r="C359">
-        <v>2.110803031942319</v>
+        <v>3.53198135718229</v>
       </c>
       <c r="D359">
-        <v>2.110803031942319</v>
+        <v>3.53198135718229</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360">
-        <v>2.112669099799331</v>
+        <v>3.41472231292127</v>
       </c>
       <c r="B360">
-        <v>2.112669099799331</v>
+        <v>3.41472231292127</v>
       </c>
       <c r="C360">
-        <v>2.112669099799331</v>
+        <v>3.41472231292127</v>
       </c>
       <c r="D360">
-        <v>2.112669099799331</v>
+        <v>3.41472231292127</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361">
-        <v>2.104771777584214</v>
+        <v>3.3213106911709</v>
       </c>
       <c r="B361">
-        <v>2.104771777584214</v>
+        <v>3.3213106911709</v>
       </c>
       <c r="C361">
-        <v>2.104771777584214</v>
+        <v>3.3213106911709</v>
       </c>
       <c r="D361">
-        <v>2.104771777584214</v>
+        <v>3.3213106911709</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362">
-        <v>2.086736371489424</v>
+        <v>3.25063788780038</v>
       </c>
       <c r="B362">
-        <v>2.086736371489424</v>
+        <v>3.25063788780038</v>
       </c>
       <c r="C362">
-        <v>2.086736371489424</v>
+        <v>3.25063788780038</v>
       </c>
       <c r="D362">
-        <v>2.086736371489424</v>
+        <v>3.25063788780038</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363">
-        <v>2.066911693937853</v>
+        <v>3.21366026950514</v>
       </c>
       <c r="B363">
-        <v>2.066911693937853</v>
+        <v>3.21366026950514</v>
       </c>
       <c r="C363">
-        <v>2.066911693937853</v>
+        <v>3.21366026950514</v>
       </c>
       <c r="D363">
-        <v>2.066911693937853</v>
+        <v>3.21366026950514</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364">
-        <v>2.043668089483744</v>
+        <v>3.15037980071422</v>
       </c>
       <c r="B364">
-        <v>2.043668089483744</v>
+        <v>3.15037980071422</v>
       </c>
       <c r="C364">
-        <v>2.043668089483744</v>
+        <v>3.15037980071422</v>
       </c>
       <c r="D364">
-        <v>2.043668089483744</v>
+        <v>3.15037980071422</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365">
-        <v>2.025239824793151</v>
+        <v>3.10685290967842</v>
       </c>
       <c r="B365">
-        <v>2.025239824793151</v>
+        <v>3.10685290967842</v>
       </c>
       <c r="C365">
-        <v>2.025239824793151</v>
+        <v>3.10685290967842</v>
       </c>
       <c r="D365">
-        <v>2.025239824793151</v>
+        <v>3.10685290967842</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366">
-        <v>2.012574759890349</v>
+        <v>3.07408679700057</v>
       </c>
       <c r="B366">
-        <v>2.012574759890349</v>
+        <v>3.07408679700057</v>
       </c>
       <c r="C366">
-        <v>2.012574759890349</v>
+        <v>3.07408679700057</v>
       </c>
       <c r="D366">
-        <v>2.012574759890349</v>
+        <v>3.07408679700057</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367">
-        <v>1.999745136189243</v>
+        <v>3.0508315434098</v>
       </c>
       <c r="B367">
-        <v>1.999745136189243</v>
+        <v>3.0508315434098</v>
       </c>
       <c r="C367">
-        <v>1.999745136189243</v>
+        <v>3.0508315434098</v>
       </c>
       <c r="D367">
-        <v>1.999745136189243</v>
+        <v>3.0508315434098</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368">
-        <v>1.985906989437297</v>
+        <v>3.0331542564378</v>
       </c>
       <c r="B368">
-        <v>1.985906989437297</v>
+        <v>3.0331542564378</v>
       </c>
       <c r="C368">
-        <v>1.985906989437297</v>
+        <v>3.0331542564378</v>
       </c>
       <c r="D368">
-        <v>1.985906989437297</v>
+        <v>3.0331542564378</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369">
-        <v>1.962772727149602</v>
+        <v>3.07473436794144</v>
       </c>
       <c r="B369">
-        <v>1.962772727149602</v>
+        <v>3.07473436794144</v>
       </c>
       <c r="C369">
-        <v>1.962772727149602</v>
+        <v>3.07473436794144</v>
       </c>
       <c r="D369">
-        <v>1.962772727149602</v>
+        <v>3.07473436794144</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370">
-        <v>1.980697152578256</v>
+        <v>3.18095718806866</v>
       </c>
       <c r="B370">
-        <v>1.980697152578256</v>
+        <v>3.18095718806866</v>
       </c>
       <c r="C370">
-        <v>1.980697152578256</v>
+        <v>3.18095718806866</v>
       </c>
       <c r="D370">
-        <v>1.980697152578256</v>
+        <v>3.18095718806866</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371">
-        <v>2.02233505773424</v>
+        <v>3.34766474519985</v>
       </c>
       <c r="B371">
-        <v>2.02233505773424</v>
+        <v>3.34766474519985</v>
       </c>
       <c r="C371">
-        <v>2.02233505773424</v>
+        <v>3.34766474519985</v>
       </c>
       <c r="D371">
-        <v>2.02233505773424</v>
+        <v>3.34766474519985</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372">
-        <v>2.06738334461537</v>
+        <v>3.48366509733759</v>
       </c>
       <c r="B372">
-        <v>2.06738334461537</v>
+        <v>3.48366509733759</v>
       </c>
       <c r="C372">
-        <v>2.06738334461537</v>
+        <v>3.48366509733759</v>
       </c>
       <c r="D372">
-        <v>2.06738334461537</v>
+        <v>3.48366509733759</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373">
-        <v>2.126417015182242</v>
+        <v>3.57673565312517</v>
       </c>
       <c r="B373">
-        <v>2.126417015182242</v>
+        <v>3.57673565312517</v>
       </c>
       <c r="C373">
-        <v>2.126417015182242</v>
+        <v>3.57673565312517</v>
       </c>
       <c r="D373">
-        <v>2.126417015182242</v>
+        <v>3.57673565312517</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374">
-        <v>2.161408478812093</v>
+        <v>3.65169976417685</v>
       </c>
       <c r="B374">
-        <v>2.161408478812093</v>
+        <v>3.65169976417685</v>
       </c>
       <c r="C374">
-        <v>2.161408478812093</v>
+        <v>3.65169976417685</v>
       </c>
       <c r="D374">
-        <v>2.161408478812093</v>
+        <v>3.65169976417685</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375">
-        <v>2.211377592993432</v>
+        <v>3.6854983533434</v>
       </c>
       <c r="B375">
-        <v>2.211377592993432</v>
+        <v>3.6854983533434</v>
       </c>
       <c r="C375">
-        <v>2.211377592993432</v>
+        <v>3.6854983533434</v>
       </c>
       <c r="D375">
-        <v>2.211377592993432</v>
+        <v>3.6854983533434</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376">
-        <v>2.234359926306964</v>
+        <v>3.71497834686587</v>
       </c>
       <c r="B376">
-        <v>2.234359926306964</v>
+        <v>3.71497834686587</v>
       </c>
       <c r="C376">
-        <v>2.234359926306964</v>
+        <v>3.71497834686587</v>
       </c>
       <c r="D376">
-        <v>2.234359926306964</v>
+        <v>3.71497834686587</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377">
-        <v>2.224270270103555</v>
+        <v>3.7321814975516</v>
       </c>
       <c r="B377">
-        <v>2.224270270103555</v>
+        <v>3.7321814975516</v>
       </c>
       <c r="C377">
-        <v>2.224270270103555</v>
+        <v>3.7321814975516</v>
       </c>
       <c r="D377">
-        <v>2.224270270103555</v>
+        <v>3.7321814975516</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378">
-        <v>2.177095859266494</v>
+        <v>3.75299268181686</v>
       </c>
       <c r="B378">
-        <v>2.177095859266494</v>
+        <v>3.75299268181686</v>
       </c>
       <c r="C378">
-        <v>2.177095859266494</v>
+        <v>3.75299268181686</v>
       </c>
       <c r="D378">
-        <v>2.177095859266494</v>
+        <v>3.75299268181686</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379">
-        <v>2.134380475045047</v>
+        <v>3.74703772916214</v>
       </c>
       <c r="B379">
-        <v>2.134380475045047</v>
+        <v>3.74703772916214</v>
       </c>
       <c r="C379">
-        <v>2.134380475045047</v>
+        <v>3.74703772916214</v>
       </c>
       <c r="D379">
-        <v>2.134380475045047</v>
+        <v>3.74703772916214</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380">
-        <v>2.111037311579038</v>
+        <v>3.68798337799791</v>
       </c>
       <c r="B380">
-        <v>2.111037311579038</v>
+        <v>3.68798337799791</v>
       </c>
       <c r="C380">
-        <v>2.111037311579038</v>
+        <v>3.68798337799791</v>
       </c>
       <c r="D380">
-        <v>2.111037311579038</v>
+        <v>3.68798337799791</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381">
-        <v>2.079826936164921</v>
+        <v>3.69285067040836</v>
       </c>
       <c r="B381">
-        <v>2.079826936164921</v>
+        <v>3.69285067040836</v>
       </c>
       <c r="C381">
-        <v>2.079826936164921</v>
+        <v>3.69285067040836</v>
       </c>
       <c r="D381">
-        <v>2.079826936164921</v>
+        <v>3.69285067040836</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382">
-        <v>2.05669711570503</v>
+        <v>3.66804241120927</v>
       </c>
       <c r="B382">
-        <v>2.05669711570503</v>
+        <v>3.66804241120927</v>
       </c>
       <c r="C382">
-        <v>2.05669711570503</v>
+        <v>3.66804241120927</v>
       </c>
       <c r="D382">
-        <v>2.05669711570503</v>
+        <v>3.66804241120927</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383">
-        <v>2.046142920308811</v>
+        <v>3.59081651709195</v>
       </c>
       <c r="B383">
-        <v>2.046142920308811</v>
+        <v>3.59081651709195</v>
       </c>
       <c r="C383">
-        <v>2.046142920308811</v>
+        <v>3.59081651709195</v>
       </c>
       <c r="D383">
-        <v>2.046142920308811</v>
+        <v>3.59081651709195</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384">
-        <v>2.024290318739836</v>
+        <v>3.50708437319481</v>
       </c>
       <c r="B384">
-        <v>2.024290318739836</v>
+        <v>3.50708437319481</v>
       </c>
       <c r="C384">
-        <v>2.024290318739836</v>
+        <v>3.50708437319481</v>
       </c>
       <c r="D384">
-        <v>2.024290318739836</v>
+        <v>3.50708437319481</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385">
-        <v>1.992668590687465</v>
+        <v>3.40395606009953</v>
       </c>
       <c r="B385">
-        <v>1.992668590687465</v>
+        <v>3.40395606009953</v>
       </c>
       <c r="C385">
-        <v>1.992668590687465</v>
+        <v>3.40395606009953</v>
       </c>
       <c r="D385">
-        <v>1.992668590687465</v>
+        <v>3.40395606009953</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386">
-        <v>1.974943655134406</v>
+        <v>3.38120591902055</v>
       </c>
       <c r="B386">
-        <v>1.974943655134406</v>
+        <v>3.38120591902055</v>
       </c>
       <c r="C386">
-        <v>1.974943655134406</v>
+        <v>3.38120591902055</v>
       </c>
       <c r="D386">
-        <v>1.974943655134406</v>
+        <v>3.38120591902055</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387">
-        <v>1.951754578718051</v>
+        <v>3.34133172222642</v>
       </c>
       <c r="B387">
-        <v>1.951754578718051</v>
+        <v>3.34133172222642</v>
       </c>
       <c r="C387">
-        <v>1.951754578718051</v>
+        <v>3.34133172222642</v>
       </c>
       <c r="D387">
-        <v>1.951754578718051</v>
+        <v>3.34133172222642</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388">
-        <v>1.956242626993636</v>
+        <v>3.23179303262174</v>
       </c>
       <c r="B388">
-        <v>1.956242626993636</v>
+        <v>3.23179303262174</v>
       </c>
       <c r="C388">
-        <v>1.956242626993636</v>
+        <v>3.23179303262174</v>
       </c>
       <c r="D388">
-        <v>1.956242626993636</v>
+        <v>3.23179303262174</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389">
-        <v>1.966541840811026</v>
+        <v>3.24723067632687</v>
       </c>
       <c r="B389">
-        <v>1.966541840811026</v>
+        <v>3.24723067632687</v>
       </c>
       <c r="C389">
-        <v>1.966541840811026</v>
+        <v>3.24723067632687</v>
       </c>
       <c r="D389">
-        <v>1.966541840811026</v>
+        <v>3.24723067632687</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390">
-        <v>1.960068418445724</v>
+        <v>3.26224253552508</v>
       </c>
       <c r="B390">
-        <v>1.960068418445724</v>
+        <v>3.26224253552508</v>
       </c>
       <c r="C390">
-        <v>1.960068418445724</v>
+        <v>3.26224253552508</v>
       </c>
       <c r="D390">
-        <v>1.960068418445724</v>
+        <v>3.26224253552508</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391">
-        <v>1.945770319780372</v>
+        <v>3.19902625631386</v>
       </c>
       <c r="B391">
-        <v>1.945770319780372</v>
+        <v>3.19902625631386</v>
       </c>
       <c r="C391">
-        <v>1.945770319780372</v>
+        <v>3.19902625631386</v>
       </c>
       <c r="D391">
-        <v>1.945770319780372</v>
+        <v>3.19902625631386</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392">
-        <v>1.940561945416006</v>
+        <v>3.16471272577798</v>
       </c>
       <c r="B392">
-        <v>1.940561945416006</v>
+        <v>3.16471272577798</v>
       </c>
       <c r="C392">
-        <v>1.940561945416006</v>
+        <v>3.16471272577798</v>
       </c>
       <c r="D392">
-        <v>1.940561945416006</v>
+        <v>3.16471272577798</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393">
-        <v>1.941363999750356</v>
+        <v>3.19391479019561</v>
       </c>
       <c r="B393">
-        <v>1.941363999750356</v>
+        <v>3.19391479019561</v>
       </c>
       <c r="C393">
-        <v>1.941363999750356</v>
+        <v>3.19391479019561</v>
       </c>
       <c r="D393">
-        <v>1.941363999750356</v>
+        <v>3.19391479019561</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394">
-        <v>1.968984410267711</v>
+        <v>3.27475641300613</v>
       </c>
       <c r="B394">
-        <v>1.968984410267711</v>
+        <v>3.27475641300613</v>
       </c>
       <c r="C394">
-        <v>1.968984410267711</v>
+        <v>3.27475641300613</v>
       </c>
       <c r="D394">
-        <v>1.968984410267711</v>
+        <v>3.27475641300613</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395">
-        <v>2.02101222152416</v>
+        <v>3.43497149458287</v>
       </c>
       <c r="B395">
-        <v>2.02101222152416</v>
+        <v>3.43497149458287</v>
       </c>
       <c r="C395">
-        <v>2.02101222152416</v>
+        <v>3.43497149458287</v>
       </c>
       <c r="D395">
-        <v>2.02101222152416</v>
+        <v>3.43497149458287</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396">
-        <v>2.059895648581069</v>
+        <v>3.54883089177506</v>
       </c>
       <c r="B396">
-        <v>2.059895648581069</v>
+        <v>3.54883089177506</v>
       </c>
       <c r="C396">
-        <v>2.059895648581069</v>
+        <v>3.54883089177506</v>
       </c>
       <c r="D396">
-        <v>2.059895648581069</v>
+        <v>3.54883089177506</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397">
-        <v>2.096455581093535</v>
+        <v>3.65405800454811</v>
       </c>
       <c r="B397">
-        <v>2.096455581093535</v>
+        <v>3.65405800454811</v>
       </c>
       <c r="C397">
-        <v>2.096455581093535</v>
+        <v>3.65405800454811</v>
       </c>
       <c r="D397">
-        <v>2.096455581093535</v>
+        <v>3.65405800454811</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398">
-        <v>2.15153742313609</v>
+        <v>3.69008728817596</v>
       </c>
       <c r="B398">
-        <v>2.15153742313609</v>
+        <v>3.69008728817596</v>
       </c>
       <c r="C398">
-        <v>2.15153742313609</v>
+        <v>3.69008728817596</v>
       </c>
       <c r="D398">
-        <v>2.15153742313609</v>
+        <v>3.69008728817596</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399">
-        <v>2.181095931543268</v>
+        <v>3.7427090180844</v>
       </c>
       <c r="B399">
-        <v>2.181095931543268</v>
+        <v>3.7427090180844</v>
       </c>
       <c r="C399">
-        <v>2.181095931543268</v>
+        <v>3.7427090180844</v>
       </c>
       <c r="D399">
-        <v>2.181095931543268</v>
+        <v>3.7427090180844</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400">
-        <v>2.195890168230753</v>
+        <v>3.78616878012559</v>
       </c>
       <c r="B400">
-        <v>2.195890168230753</v>
+        <v>3.78616878012559</v>
       </c>
       <c r="C400">
-        <v>2.195890168230753</v>
+        <v>3.78616878012559</v>
       </c>
       <c r="D400">
-        <v>2.195890168230753</v>
+        <v>3.78616878012559</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401">
-        <v>2.18167344667146</v>
+        <v>3.7848707168232</v>
       </c>
       <c r="B401">
-        <v>2.18167344667146</v>
+        <v>3.7848707168232</v>
       </c>
       <c r="C401">
-        <v>2.18167344667146</v>
+        <v>3.7848707168232</v>
       </c>
       <c r="D401">
-        <v>2.18167344667146</v>
+        <v>3.7848707168232</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402">
-        <v>2.153444864794912</v>
+        <v>3.84210765516357</v>
       </c>
       <c r="B402">
-        <v>2.153444864794912</v>
+        <v>3.84210765516357</v>
       </c>
       <c r="C402">
-        <v>2.153444864794912</v>
+        <v>3.84210765516357</v>
       </c>
       <c r="D402">
-        <v>2.153444864794912</v>
+        <v>3.84210765516357</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403">
-        <v>2.113836028504286</v>
+        <v>3.81171882624013</v>
       </c>
       <c r="B403">
-        <v>2.113836028504286</v>
+        <v>3.81171882624013</v>
       </c>
       <c r="C403">
-        <v>2.113836028504286</v>
+        <v>3.81171882624013</v>
       </c>
       <c r="D403">
-        <v>2.113836028504286</v>
+        <v>3.81171882624013</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404">
-        <v>2.067532367846085</v>
+        <v>3.75613306663353</v>
       </c>
       <c r="B404">
-        <v>2.067532367846085</v>
+        <v>3.75613306663353</v>
       </c>
       <c r="C404">
-        <v>2.067532367846085</v>
+        <v>3.75613306663353</v>
       </c>
       <c r="D404">
-        <v>2.067532367846085</v>
+        <v>3.75613306663353</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405">
-        <v>2.036807989245965</v>
+        <v>3.71686079969955</v>
       </c>
       <c r="B405">
-        <v>2.036807989245965</v>
+        <v>3.71686079969955</v>
       </c>
       <c r="C405">
-        <v>2.036807989245965</v>
+        <v>3.71686079969955</v>
       </c>
       <c r="D405">
-        <v>2.036807989245965</v>
+        <v>3.71686079969955</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406">
-        <v>2.012511285594341</v>
+        <v>3.64666725932073</v>
       </c>
       <c r="B406">
-        <v>2.012511285594341</v>
+        <v>3.64666725932073</v>
       </c>
       <c r="C406">
-        <v>2.012511285594341</v>
+        <v>3.64666725932073</v>
       </c>
       <c r="D406">
-        <v>2.012511285594341</v>
+        <v>3.64666725932073</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407">
-        <v>2.002374446005341</v>
+        <v>3.49716500731159</v>
       </c>
       <c r="B407">
-        <v>2.002374446005341</v>
+        <v>3.49716500731159</v>
       </c>
       <c r="C407">
-        <v>2.002374446005341</v>
+        <v>3.49716500731159</v>
       </c>
       <c r="D407">
-        <v>2.002374446005341</v>
+        <v>3.49716500731159</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408">
-        <v>1.970295340339399</v>
+        <v>3.43644803327426</v>
       </c>
       <c r="B408">
-        <v>1.970295340339399</v>
+        <v>3.43644803327426</v>
       </c>
       <c r="C408">
-        <v>1.970295340339399</v>
+        <v>3.43644803327426</v>
       </c>
       <c r="D408">
-        <v>1.970295340339399</v>
+        <v>3.43644803327426</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409">
-        <v>1.95340653152445</v>
+        <v>3.38331362635313</v>
       </c>
       <c r="B409">
-        <v>1.95340653152445</v>
+        <v>3.38331362635313</v>
       </c>
       <c r="C409">
-        <v>1.95340653152445</v>
+        <v>3.38331362635313</v>
       </c>
       <c r="D409">
-        <v>1.95340653152445</v>
+        <v>3.38331362635313</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410">
-        <v>1.936629168238517</v>
+        <v>3.36017817660825</v>
       </c>
       <c r="B410">
-        <v>1.936629168238517</v>
+        <v>3.36017817660825</v>
       </c>
       <c r="C410">
-        <v>1.936629168238517</v>
+        <v>3.36017817660825</v>
       </c>
       <c r="D410">
-        <v>1.936629168238517</v>
+        <v>3.36017817660825</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411">
-        <v>1.933273987146266</v>
+        <v>3.2767802492544</v>
       </c>
       <c r="B411">
-        <v>1.933273987146266</v>
+        <v>3.2767802492544</v>
       </c>
       <c r="C411">
-        <v>1.933273987146266</v>
+        <v>3.2767802492544</v>
       </c>
       <c r="D411">
-        <v>1.933273987146266</v>
+        <v>3.2767802492544</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412">
-        <v>1.930945241127454</v>
+        <v>3.24343318836375</v>
       </c>
       <c r="B412">
-        <v>1.930945241127454</v>
+        <v>3.24343318836375</v>
       </c>
       <c r="C412">
-        <v>1.930945241127454</v>
+        <v>3.24343318836375</v>
       </c>
       <c r="D412">
-        <v>1.930945241127454</v>
+        <v>3.24343318836375</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413">
-        <v>1.903557518017909</v>
+        <v>3.17081786604665</v>
       </c>
       <c r="B413">
-        <v>1.903557518017909</v>
+        <v>3.17081786604665</v>
       </c>
       <c r="C413">
-        <v>1.903557518017909</v>
+        <v>3.17081786604665</v>
       </c>
       <c r="D413">
-        <v>1.903557518017909</v>
+        <v>3.17081786604665</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414">
-        <v>1.882589173752752</v>
+        <v>3.14495838366205</v>
       </c>
       <c r="B414">
-        <v>1.882589173752752</v>
+        <v>3.14495838366205</v>
       </c>
       <c r="C414">
-        <v>1.882589173752752</v>
+        <v>3.14495838366205</v>
       </c>
       <c r="D414">
-        <v>1.882589173752752</v>
+        <v>3.14495838366205</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415">
-        <v>1.887680698742163</v>
+        <v>3.1016026539132</v>
       </c>
       <c r="B415">
-        <v>1.887680698742163</v>
+        <v>3.1016026539132</v>
       </c>
       <c r="C415">
-        <v>1.887680698742163</v>
+        <v>3.1016026539132</v>
       </c>
       <c r="D415">
-        <v>1.887680698742163</v>
+        <v>3.1016026539132</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416">
-        <v>1.879944490233656</v>
+        <v>3.06178421219448</v>
       </c>
       <c r="B416">
-        <v>1.879944490233656</v>
+        <v>3.06178421219448</v>
       </c>
       <c r="C416">
-        <v>1.879944490233656</v>
+        <v>3.06178421219448</v>
       </c>
       <c r="D416">
-        <v>1.879944490233656</v>
+        <v>3.06178421219448</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417">
-        <v>1.871559849682254</v>
+        <v>3.13741757693888</v>
       </c>
       <c r="B417">
-        <v>1.871559849682254</v>
+        <v>3.13741757693888</v>
       </c>
       <c r="C417">
-        <v>1.871559849682254</v>
+        <v>3.13741757693888</v>
       </c>
       <c r="D417">
-        <v>1.871559849682254</v>
+        <v>3.13741757693888</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418">
-        <v>1.878539855269151</v>
+        <v>3.28253010123067</v>
       </c>
       <c r="B418">
-        <v>1.878539855269151</v>
+        <v>3.28253010123067</v>
       </c>
       <c r="C418">
-        <v>1.878539855269151</v>
+        <v>3.28253010123067</v>
       </c>
       <c r="D418">
-        <v>1.878539855269151</v>
+        <v>3.28253010123067</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419">
-        <v>1.939658048668286</v>
+        <v>3.43795435664495</v>
       </c>
       <c r="B419">
-        <v>1.939658048668286</v>
+        <v>3.43795435664495</v>
       </c>
       <c r="C419">
-        <v>1.939658048668286</v>
+        <v>3.43795435664495</v>
       </c>
       <c r="D419">
-        <v>1.939658048668286</v>
+        <v>3.43795435664495</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420">
-        <v>1.982129415426085</v>
+        <v>3.59485341410353</v>
       </c>
       <c r="B420">
-        <v>1.982129415426085</v>
+        <v>3.59485341410353</v>
       </c>
       <c r="C420">
-        <v>1.982129415426085</v>
+        <v>3.59485341410353</v>
       </c>
       <c r="D420">
-        <v>1.982129415426085</v>
+        <v>3.59485341410353</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421">
-        <v>2.050137845205296</v>
+        <v>3.68531513625168</v>
       </c>
       <c r="B421">
-        <v>2.050137845205296</v>
+        <v>3.68531513625168</v>
       </c>
       <c r="C421">
-        <v>2.050137845205296</v>
+        <v>3.68531513625168</v>
       </c>
       <c r="D421">
-        <v>2.050137845205296</v>
+        <v>3.68531513625168</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422">
-        <v>2.088155427183844</v>
+        <v>3.77932629815276</v>
       </c>
       <c r="B422">
-        <v>2.088155427183844</v>
+        <v>3.77932629815276</v>
       </c>
       <c r="C422">
-        <v>2.088155427183844</v>
+        <v>3.77932629815276</v>
       </c>
       <c r="D422">
-        <v>2.088155427183844</v>
+        <v>3.77932629815276</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423">
-        <v>2.125894731370772</v>
+        <v>3.86408471638825</v>
       </c>
       <c r="B423">
-        <v>2.125894731370772</v>
+        <v>3.86408471638825</v>
       </c>
       <c r="C423">
-        <v>2.125894731370772</v>
+        <v>3.86408471638825</v>
       </c>
       <c r="D423">
-        <v>2.125894731370772</v>
+        <v>3.86408471638825</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424">
-        <v>2.141134611958758</v>
+        <v>3.91081293129968</v>
       </c>
       <c r="B424">
-        <v>2.141134611958758</v>
+        <v>3.91081293129968</v>
       </c>
       <c r="C424">
-        <v>2.141134611958758</v>
+        <v>3.91081293129968</v>
       </c>
       <c r="D424">
-        <v>2.141134611958758</v>
+        <v>3.91081293129968</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425">
-        <v>2.139910216572317</v>
+        <v>3.93275632645057</v>
       </c>
       <c r="B425">
-        <v>2.139910216572317</v>
+        <v>3.93275632645057</v>
       </c>
       <c r="C425">
-        <v>2.139910216572317</v>
+        <v>3.93275632645057</v>
       </c>
       <c r="D425">
-        <v>2.139910216572317</v>
+        <v>3.93275632645057</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426">
-        <v>2.113110274906641</v>
+        <v>3.95132820906892</v>
       </c>
       <c r="B426">
-        <v>2.113110274906641</v>
+        <v>3.95132820906892</v>
       </c>
       <c r="C426">
-        <v>2.113110274906641</v>
+        <v>3.95132820906892</v>
       </c>
       <c r="D426">
-        <v>2.113110274906641</v>
+        <v>3.95132820906892</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427">
-        <v>2.059267565384385</v>
+        <v>3.94513833973585</v>
       </c>
       <c r="B427">
-        <v>2.059267565384385</v>
+        <v>3.94513833973585</v>
       </c>
       <c r="C427">
-        <v>2.059267565384385</v>
+        <v>3.94513833973585</v>
       </c>
       <c r="D427">
-        <v>2.059267565384385</v>
+        <v>3.94513833973585</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428">
-        <v>2.020037770638707</v>
+        <v>3.90333726352388</v>
       </c>
       <c r="B428">
-        <v>2.020037770638707</v>
+        <v>3.90333726352388</v>
       </c>
       <c r="C428">
-        <v>2.020037770638707</v>
+        <v>3.90333726352388</v>
       </c>
       <c r="D428">
-        <v>2.020037770638707</v>
+        <v>3.90333726352388</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429">
-        <v>1.988807975887843</v>
+        <v>3.87519895309484</v>
       </c>
       <c r="B429">
-        <v>1.988807975887843</v>
+        <v>3.87519895309484</v>
       </c>
       <c r="C429">
-        <v>1.988807975887843</v>
+        <v>3.87519895309484</v>
       </c>
       <c r="D429">
-        <v>1.988807975887843</v>
+        <v>3.87519895309484</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430">
-        <v>1.975536003146625</v>
+        <v>3.78440631493401</v>
       </c>
       <c r="B430">
-        <v>1.975536003146625</v>
+        <v>3.78440631493401</v>
       </c>
       <c r="C430">
-        <v>1.975536003146625</v>
+        <v>3.78440631493401</v>
       </c>
       <c r="D430">
-        <v>1.975536003146625</v>
+        <v>3.78440631493401</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431">
-        <v>1.95733547291829</v>
+        <v>3.61865547737368</v>
       </c>
       <c r="B431">
-        <v>1.95733547291829</v>
+        <v>3.61865547737368</v>
       </c>
       <c r="C431">
-        <v>1.95733547291829</v>
+        <v>3.61865547737368</v>
       </c>
       <c r="D431">
-        <v>1.95733547291829</v>
+        <v>3.61865547737368</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432">
-        <v>1.945966701100311</v>
+        <v>3.52863542344618</v>
       </c>
       <c r="B432">
-        <v>1.945966701100311</v>
+        <v>3.52863542344618</v>
       </c>
       <c r="C432">
-        <v>1.945966701100311</v>
+        <v>3.52863542344618</v>
       </c>
       <c r="D432">
-        <v>1.945966701100311</v>
+        <v>3.52863542344618</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433">
-        <v>1.931720215137092</v>
+        <v>3.45473955525449</v>
       </c>
       <c r="B433">
-        <v>1.931720215137092</v>
+        <v>3.45473955525449</v>
       </c>
       <c r="C433">
-        <v>1.931720215137092</v>
+        <v>3.45473955525449</v>
       </c>
       <c r="D433">
-        <v>1.931720215137092</v>
+        <v>3.45473955525449</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434">
-        <v>1.926144174094847</v>
+        <v>3.40682940780877</v>
       </c>
       <c r="B434">
-        <v>1.926144174094847</v>
+        <v>3.40682940780877</v>
       </c>
       <c r="C434">
-        <v>1.926144174094847</v>
+        <v>3.40682940780877</v>
       </c>
       <c r="D434">
-        <v>1.926144174094847</v>
+        <v>3.40682940780877</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435">
-        <v>1.927961819938608</v>
+        <v>3.35025296724323</v>
       </c>
       <c r="B435">
-        <v>1.927961819938608</v>
+        <v>3.35025296724323</v>
       </c>
       <c r="C435">
-        <v>1.927961819938608</v>
+        <v>3.35025296724323</v>
       </c>
       <c r="D435">
-        <v>1.927961819938608</v>
+        <v>3.35025296724323</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436">
-        <v>1.928471545817124</v>
+        <v>3.28744823510782</v>
       </c>
       <c r="B436">
-        <v>1.928471545817124</v>
+        <v>3.28744823510782</v>
       </c>
       <c r="C436">
-        <v>1.928471545817124</v>
+        <v>3.28744823510782</v>
       </c>
       <c r="D436">
-        <v>1.928471545817124</v>
+        <v>3.28744823510782</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437">
-        <v>1.911267942002097</v>
+        <v>3.20255887313243</v>
       </c>
       <c r="B437">
-        <v>1.911267942002097</v>
+        <v>3.20255887313243</v>
       </c>
       <c r="C437">
-        <v>1.911267942002097</v>
+        <v>3.20255887313243</v>
       </c>
       <c r="D437">
-        <v>1.911267942002097</v>
+        <v>3.20255887313243</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438">
-        <v>1.909752259566394</v>
+        <v>3.16167240321257</v>
       </c>
       <c r="B438">
-        <v>1.909752259566394</v>
+        <v>3.16167240321257</v>
       </c>
       <c r="C438">
-        <v>1.909752259566394</v>
+        <v>3.16167240321257</v>
       </c>
       <c r="D438">
-        <v>1.909752259566394</v>
+        <v>3.16167240321257</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439">
-        <v>1.916115961841574</v>
+        <v>3.09208213171545</v>
       </c>
       <c r="B439">
-        <v>1.916115961841574</v>
+        <v>3.09208213171545</v>
       </c>
       <c r="C439">
-        <v>1.916115961841574</v>
+        <v>3.09208213171545</v>
       </c>
       <c r="D439">
-        <v>1.916115961841574</v>
+        <v>3.09208213171545</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440">
-        <v>1.898165033203737</v>
+        <v>3.08996781124206</v>
       </c>
       <c r="B440">
-        <v>1.898165033203737</v>
+        <v>3.08996781124206</v>
       </c>
       <c r="C440">
-        <v>1.898165033203737</v>
+        <v>3.08996781124206</v>
       </c>
       <c r="D440">
-        <v>1.898165033203737</v>
+        <v>3.08996781124206</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441">
-        <v>1.902085943542594</v>
+        <v>3.16419831292126</v>
       </c>
       <c r="B441">
-        <v>1.902085943542594</v>
+        <v>3.16419831292126</v>
       </c>
       <c r="C441">
-        <v>1.902085943542594</v>
+        <v>3.16419831292126</v>
       </c>
       <c r="D441">
-        <v>1.902085943542594</v>
+        <v>3.16419831292126</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442">
-        <v>1.926278251875884</v>
+        <v>3.31997217806474</v>
       </c>
       <c r="B442">
-        <v>1.926278251875884</v>
+        <v>3.31997217806474</v>
       </c>
       <c r="C442">
-        <v>1.926278251875884</v>
+        <v>3.31997217806474</v>
       </c>
       <c r="D442">
-        <v>1.926278251875884</v>
+        <v>3.31997217806474</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443">
-        <v>1.952309329872129</v>
+        <v>3.51022926286515</v>
       </c>
       <c r="B443">
-        <v>1.952309329872129</v>
+        <v>3.51022926286515</v>
       </c>
       <c r="C443">
-        <v>1.952309329872129</v>
+        <v>3.51022926286515</v>
       </c>
       <c r="D443">
-        <v>1.952309329872129</v>
+        <v>3.51022926286515</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444">
-        <v>2.001069050271851</v>
+        <v>3.63083215635897</v>
       </c>
       <c r="B444">
-        <v>2.001069050271851</v>
+        <v>3.63083215635897</v>
       </c>
       <c r="C444">
-        <v>2.001069050271851</v>
+        <v>3.63083215635897</v>
       </c>
       <c r="D444">
-        <v>2.001069050271851</v>
+        <v>3.63083215635897</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445">
-        <v>2.058830921106689</v>
+        <v>3.73591023388708</v>
       </c>
       <c r="B445">
-        <v>2.058830921106689</v>
+        <v>3.73591023388708</v>
       </c>
       <c r="C445">
-        <v>2.058830921106689</v>
+        <v>3.73591023388708</v>
       </c>
       <c r="D445">
-        <v>2.058830921106689</v>
+        <v>3.73591023388708</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446">
-        <v>2.095511766272502</v>
+        <v>3.84528172627646</v>
       </c>
       <c r="B446">
-        <v>2.095511766272502</v>
+        <v>3.84528172627646</v>
       </c>
       <c r="C446">
-        <v>2.095511766272502</v>
+        <v>3.84528172627646</v>
       </c>
       <c r="D446">
-        <v>2.095511766272502</v>
+        <v>3.84528172627646</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447">
-        <v>2.114994732868682</v>
+        <v>3.90079794964364</v>
       </c>
       <c r="B447">
-        <v>2.114994732868682</v>
+        <v>3.90079794964364</v>
       </c>
       <c r="C447">
-        <v>2.114994732868682</v>
+        <v>3.90079794964364</v>
       </c>
       <c r="D447">
-        <v>2.114994732868682</v>
+        <v>3.90079794964364</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448">
-        <v>2.123505160643709</v>
+        <v>3.86799436749448</v>
       </c>
       <c r="B448">
-        <v>2.123505160643709</v>
+        <v>3.86799436749448</v>
       </c>
       <c r="C448">
-        <v>2.123505160643709</v>
+        <v>3.86799436749448</v>
       </c>
       <c r="D448">
-        <v>2.123505160643709</v>
+        <v>3.86799436749448</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449">
-        <v>2.122904202828428</v>
+        <v>3.85344026819733</v>
       </c>
       <c r="B449">
-        <v>2.122904202828428</v>
+        <v>3.85344026819733</v>
       </c>
       <c r="C449">
-        <v>2.122904202828428</v>
+        <v>3.85344026819733</v>
       </c>
       <c r="D449">
-        <v>2.122904202828428</v>
+        <v>3.85344026819733</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450">
-        <v>2.107310910614752</v>
+        <v>3.83964534347058</v>
       </c>
       <c r="B450">
-        <v>2.107310910614752</v>
+        <v>3.83964534347058</v>
       </c>
       <c r="C450">
-        <v>2.107310910614752</v>
+        <v>3.83964534347058</v>
       </c>
       <c r="D450">
-        <v>2.107310910614752</v>
+        <v>3.83964534347058</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451">
-        <v>2.068386519601307</v>
+        <v>3.831160920599</v>
       </c>
       <c r="B451">
-        <v>2.068386519601307</v>
+        <v>3.831160920599</v>
       </c>
       <c r="C451">
-        <v>2.068386519601307</v>
+        <v>3.831160920599</v>
       </c>
       <c r="D451">
-        <v>2.068386519601307</v>
+        <v>3.831160920599</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452">
-        <v>2.048101845285867</v>
+        <v>3.81872150138769</v>
       </c>
       <c r="B452">
-        <v>2.048101845285867</v>
+        <v>3.81872150138769</v>
       </c>
       <c r="C452">
-        <v>2.048101845285867</v>
+        <v>3.81872150138769</v>
       </c>
       <c r="D452">
-        <v>2.048101845285867</v>
+        <v>3.81872150138769</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453">
-        <v>2.031910139775636</v>
+        <v>3.80214703390907</v>
       </c>
       <c r="B453">
-        <v>2.031910139775636</v>
+        <v>3.80214703390907</v>
       </c>
       <c r="C453">
-        <v>2.031910139775636</v>
+        <v>3.80214703390907</v>
       </c>
       <c r="D453">
-        <v>2.031910139775636</v>
+        <v>3.80214703390907</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454">
-        <v>2.015684136368201</v>
+        <v>3.73332735173172</v>
       </c>
       <c r="B454">
-        <v>2.015684136368201</v>
+        <v>3.73332735173172</v>
       </c>
       <c r="C454">
-        <v>2.015684136368201</v>
+        <v>3.73332735173172</v>
       </c>
       <c r="D454">
-        <v>2.015684136368201</v>
+        <v>3.73332735173172</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455">
-        <v>1.999995116366537</v>
+        <v>3.64131688801674</v>
       </c>
       <c r="B455">
-        <v>1.999995116366537</v>
+        <v>3.64131688801674</v>
       </c>
       <c r="C455">
-        <v>1.999995116366537</v>
+        <v>3.64131688801674</v>
       </c>
       <c r="D455">
-        <v>1.999995116366537</v>
+        <v>3.64131688801674</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456">
-        <v>1.969827398226394</v>
+        <v>3.54517050825214</v>
       </c>
       <c r="B456">
-        <v>1.969827398226394</v>
+        <v>3.54517050825214</v>
       </c>
       <c r="C456">
-        <v>1.969827398226394</v>
+        <v>3.54517050825214</v>
       </c>
       <c r="D456">
-        <v>1.969827398226394</v>
+        <v>3.54517050825214</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457">
-        <v>1.965919274180673</v>
+        <v>3.48051782584488</v>
       </c>
       <c r="B457">
-        <v>1.965919274180673</v>
+        <v>3.48051782584488</v>
       </c>
       <c r="C457">
-        <v>1.965919274180673</v>
+        <v>3.48051782584488</v>
       </c>
       <c r="D457">
-        <v>1.965919274180673</v>
+        <v>3.48051782584488</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458">
-        <v>1.924475207580071</v>
+        <v>3.40048643192351</v>
       </c>
       <c r="B458">
-        <v>1.924475207580071</v>
+        <v>3.40048643192351</v>
       </c>
       <c r="C458">
-        <v>1.924475207580071</v>
+        <v>3.40048643192351</v>
       </c>
       <c r="D458">
-        <v>1.924475207580071</v>
+        <v>3.40048643192351</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459">
-        <v>1.940993039447177</v>
+        <v>3.36427058755875</v>
       </c>
       <c r="B459">
-        <v>1.940993039447177</v>
+        <v>3.36427058755875</v>
       </c>
       <c r="C459">
-        <v>1.940993039447177</v>
+        <v>3.36427058755875</v>
       </c>
       <c r="D459">
-        <v>1.940993039447177</v>
+        <v>3.36427058755875</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460">
-        <v>1.946033566562557</v>
+        <v>3.37811246384127</v>
       </c>
       <c r="B460">
-        <v>1.946033566562557</v>
+        <v>3.37811246384127</v>
       </c>
       <c r="C460">
-        <v>1.946033566562557</v>
+        <v>3.37811246384127</v>
       </c>
       <c r="D460">
-        <v>1.946033566562557</v>
+        <v>3.37811246384127</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461">
-        <v>1.937950649426415</v>
+        <v>3.2750117772417</v>
       </c>
       <c r="B461">
-        <v>1.937950649426415</v>
+        <v>3.2750117772417</v>
       </c>
       <c r="C461">
-        <v>1.937950649426415</v>
+        <v>3.2750117772417</v>
       </c>
       <c r="D461">
-        <v>1.937950649426415</v>
+        <v>3.2750117772417</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462">
-        <v>1.940011197989055</v>
+        <v>3.19901110237292</v>
       </c>
       <c r="B462">
-        <v>1.940011197989055</v>
+        <v>3.19901110237292</v>
       </c>
       <c r="C462">
-        <v>1.940011197989055</v>
+        <v>3.19901110237292</v>
       </c>
       <c r="D462">
-        <v>1.940011197989055</v>
+        <v>3.19901110237292</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463">
-        <v>1.930049924408576</v>
+        <v>3.16173872704581</v>
       </c>
       <c r="B463">
-        <v>1.930049924408576</v>
+        <v>3.16173872704581</v>
       </c>
       <c r="C463">
-        <v>1.930049924408576</v>
+        <v>3.16173872704581</v>
       </c>
       <c r="D463">
-        <v>1.930049924408576</v>
+        <v>3.16173872704581</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464">
-        <v>1.925431700333303</v>
+        <v>3.1403198021227</v>
       </c>
       <c r="B464">
-        <v>1.925431700333303</v>
+        <v>3.1403198021227</v>
       </c>
       <c r="C464">
-        <v>1.925431700333303</v>
+        <v>3.1403198021227</v>
       </c>
       <c r="D464">
-        <v>1.925431700333303</v>
+        <v>3.1403198021227</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465">
-        <v>1.907854145806433</v>
+        <v>3.15275979775251</v>
       </c>
       <c r="B465">
-        <v>1.907854145806433</v>
+        <v>3.15275979775251</v>
       </c>
       <c r="C465">
-        <v>1.907854145806433</v>
+        <v>3.15275979775251</v>
       </c>
       <c r="D465">
-        <v>1.907854145806433</v>
+        <v>3.15275979775251</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466">
-        <v>1.915990920448988</v>
+        <v>3.30180462121734</v>
       </c>
       <c r="B466">
-        <v>1.915990920448988</v>
+        <v>3.30180462121734</v>
       </c>
       <c r="C466">
-        <v>1.915990920448988</v>
+        <v>3.30180462121734</v>
       </c>
       <c r="D466">
-        <v>1.915990920448988</v>
+        <v>3.30180462121734</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467">
-        <v>1.951771987387507</v>
+        <v>3.48743140324149</v>
       </c>
       <c r="B467">
-        <v>1.951771987387507</v>
+        <v>3.48743140324149</v>
       </c>
       <c r="C467">
-        <v>1.951771987387507</v>
+        <v>3.48743140324149</v>
       </c>
       <c r="D467">
-        <v>1.951771987387507</v>
+        <v>3.48743140324149</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468">
-        <v>1.981226493729698</v>
+        <v>3.58423106958633</v>
       </c>
       <c r="B468">
-        <v>1.981226493729698</v>
+        <v>3.58423106958633</v>
       </c>
       <c r="C468">
-        <v>1.981226493729698</v>
+        <v>3.58423106958633</v>
       </c>
       <c r="D468">
-        <v>1.981226493729698</v>
+        <v>3.58423106958633</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469">
-        <v>2.023858206536203</v>
+        <v>3.6050159386878</v>
       </c>
       <c r="B469">
-        <v>2.023858206536203</v>
+        <v>3.6050159386878</v>
       </c>
       <c r="C469">
-        <v>2.023858206536203</v>
+        <v>3.6050159386878</v>
       </c>
       <c r="D469">
-        <v>2.023858206536203</v>
+        <v>3.6050159386878</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470">
-        <v>2.080881591005386</v>
+        <v>3.68077705884249</v>
       </c>
       <c r="B470">
-        <v>2.080881591005386</v>
+        <v>3.68077705884249</v>
       </c>
       <c r="C470">
-        <v>2.080881591005386</v>
+        <v>3.68077705884249</v>
       </c>
       <c r="D470">
-        <v>2.080881591005386</v>
+        <v>3.68077705884249</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471">
-        <v>2.099196246044154</v>
+        <v>3.76505895347182</v>
       </c>
       <c r="B471">
-        <v>2.099196246044154</v>
+        <v>3.76505895347182</v>
       </c>
       <c r="C471">
-        <v>2.099196246044154</v>
+        <v>3.76505895347182</v>
       </c>
       <c r="D471">
-        <v>2.099196246044154</v>
+        <v>3.76505895347182</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472">
-        <v>2.125167329599729</v>
+        <v>3.79024866926921</v>
       </c>
       <c r="B472">
-        <v>2.125167329599729</v>
+        <v>3.79024866926921</v>
       </c>
       <c r="C472">
-        <v>2.125167329599729</v>
+        <v>3.79024866926921</v>
       </c>
       <c r="D472">
-        <v>2.125167329599729</v>
+        <v>3.79024866926921</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473">
-        <v>2.116879451843449</v>
+        <v>3.80916778129683</v>
       </c>
       <c r="B473">
-        <v>2.116879451843449</v>
+        <v>3.80916778129683</v>
       </c>
       <c r="C473">
-        <v>2.116879451843449</v>
+        <v>3.80916778129683</v>
       </c>
       <c r="D473">
-        <v>2.116879451843449</v>
+        <v>3.80916778129683</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474">
-        <v>2.113689899158416</v>
+        <v>3.82988081965029</v>
       </c>
       <c r="B474">
-        <v>2.113689899158416</v>
+        <v>3.82988081965029</v>
       </c>
       <c r="C474">
-        <v>2.113689899158416</v>
+        <v>3.82988081965029</v>
       </c>
       <c r="D474">
-        <v>2.113689899158416</v>
+        <v>3.82988081965029</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475">
-        <v>2.090095245284792</v>
+        <v>3.79885104567362</v>
       </c>
       <c r="B475">
-        <v>2.090095245284792</v>
+        <v>3.79885104567362</v>
       </c>
       <c r="C475">
-        <v>2.090095245284792</v>
+        <v>3.79885104567362</v>
       </c>
       <c r="D475">
-        <v>2.090095245284792</v>
+        <v>3.79885104567362</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476">
-        <v>2.050596776747024</v>
+        <v>3.72282368863135</v>
       </c>
       <c r="B476">
-        <v>2.050596776747024</v>
+        <v>3.72282368863135</v>
       </c>
       <c r="C476">
-        <v>2.050596776747024</v>
+        <v>3.72282368863135</v>
       </c>
       <c r="D476">
-        <v>2.050596776747024</v>
+        <v>3.72282368863135</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477">
-        <v>2.0364718107654</v>
+        <v>3.65292705356253</v>
       </c>
       <c r="B477">
-        <v>2.0364718107654</v>
+        <v>3.65292705356253</v>
       </c>
       <c r="C477">
-        <v>2.0364718107654</v>
+        <v>3.65292705356253</v>
       </c>
       <c r="D477">
-        <v>2.0364718107654</v>
+        <v>3.65292705356253</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478">
-        <v>2.012736423151547</v>
+        <v>3.56477578313631</v>
       </c>
       <c r="B478">
-        <v>2.012736423151547</v>
+        <v>3.56477578313631</v>
       </c>
       <c r="C478">
-        <v>2.012736423151547</v>
+        <v>3.56477578313631</v>
       </c>
       <c r="D478">
-        <v>2.012736423151547</v>
+        <v>3.56477578313631</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479">
-        <v>2.016390739533015</v>
+        <v>3.44487843246213</v>
       </c>
       <c r="B479">
-        <v>2.016390739533015</v>
+        <v>3.44487843246213</v>
       </c>
       <c r="C479">
-        <v>2.016390739533015</v>
+        <v>3.44487843246213</v>
       </c>
       <c r="D479">
-        <v>2.016390739533015</v>
+        <v>3.44487843246213</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480">
-        <v>1.996318603890301</v>
+        <v>3.43499079119273</v>
       </c>
       <c r="B480">
-        <v>1.996318603890301</v>
+        <v>3.43499079119273</v>
       </c>
       <c r="C480">
-        <v>1.996318603890301</v>
+        <v>3.43499079119273</v>
       </c>
       <c r="D480">
-        <v>1.996318603890301</v>
+        <v>3.43499079119273</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481">
-        <v>1.982125741170994</v>
+        <v>3.36457708109961</v>
       </c>
       <c r="B481">
-        <v>1.982125741170994</v>
+        <v>3.36457708109961</v>
       </c>
       <c r="C481">
-        <v>1.982125741170994</v>
+        <v>3.36457708109961</v>
       </c>
       <c r="D481">
-        <v>1.982125741170994</v>
+        <v>3.36457708109961</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482">
-        <v>1.96992387632274</v>
+        <v>3.31649973167883</v>
       </c>
       <c r="B482">
-        <v>1.96992387632274</v>
+        <v>3.31649973167883</v>
       </c>
       <c r="C482">
-        <v>1.96992387632274</v>
+        <v>3.31649973167883</v>
       </c>
       <c r="D482">
-        <v>1.96992387632274</v>
+        <v>3.31649973167883</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483">
-        <v>1.97646162499392</v>
+        <v>3.26135916320629</v>
       </c>
       <c r="B483">
-        <v>1.97646162499392</v>
+        <v>3.26135916320629</v>
       </c>
       <c r="C483">
-        <v>1.97646162499392</v>
+        <v>3.26135916320629</v>
       </c>
       <c r="D483">
-        <v>1.97646162499392</v>
+        <v>3.26135916320629</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484">
-        <v>1.9891863339769</v>
+        <v>3.2071824158229</v>
       </c>
       <c r="B484">
-        <v>1.9891863339769</v>
+        <v>3.2071824158229</v>
       </c>
       <c r="C484">
-        <v>1.9891863339769</v>
+        <v>3.2071824158229</v>
       </c>
       <c r="D484">
-        <v>1.9891863339769</v>
+        <v>3.2071824158229</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485">
-        <v>1.97541472873096</v>
+        <v>3.16829080910297</v>
       </c>
       <c r="B485">
-        <v>1.97541472873096</v>
+        <v>3.16829080910297</v>
       </c>
       <c r="C485">
-        <v>1.97541472873096</v>
+        <v>3.16829080910297</v>
       </c>
       <c r="D485">
-        <v>1.97541472873096</v>
+        <v>3.16829080910297</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486">
-        <v>1.951804772725663</v>
+        <v>3.1267453844856</v>
       </c>
       <c r="B486">
-        <v>1.951804772725663</v>
+        <v>3.1267453844856</v>
       </c>
       <c r="C486">
-        <v>1.951804772725663</v>
+        <v>3.1267453844856</v>
       </c>
       <c r="D486">
-        <v>1.951804772725663</v>
+        <v>3.1267453844856</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487">
-        <v>1.956989358240014</v>
+        <v>3.10023747272475</v>
       </c>
       <c r="B487">
-        <v>1.956989358240014</v>
+        <v>3.10023747272475</v>
       </c>
       <c r="C487">
-        <v>1.956989358240014</v>
+        <v>3.10023747272475</v>
       </c>
       <c r="D487">
-        <v>1.956989358240014</v>
+        <v>3.10023747272475</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488">
-        <v>1.97068086016086</v>
+        <v>3.13333010950344</v>
       </c>
       <c r="B488">
-        <v>1.97068086016086</v>
+        <v>3.13333010950344</v>
       </c>
       <c r="C488">
-        <v>1.97068086016086</v>
+        <v>3.13333010950344</v>
       </c>
       <c r="D488">
-        <v>1.97068086016086</v>
+        <v>3.13333010950344</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489">
-        <v>1.969859438674218</v>
+        <v>3.18996772728053</v>
       </c>
       <c r="B489">
-        <v>1.969859438674218</v>
+        <v>3.18996772728053</v>
       </c>
       <c r="C489">
-        <v>1.969859438674218</v>
+        <v>3.18996772728053</v>
       </c>
       <c r="D489">
-        <v>1.969859438674218</v>
+        <v>3.18996772728053</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490">
-        <v>1.979993528890263</v>
+        <v>3.2950746373016</v>
       </c>
       <c r="B490">
-        <v>1.979993528890263</v>
+        <v>3.2950746373016</v>
       </c>
       <c r="C490">
-        <v>1.979993528890263</v>
+        <v>3.2950746373016</v>
       </c>
       <c r="D490">
-        <v>1.979993528890263</v>
+        <v>3.2950746373016</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491">
-        <v>2.005825548388067</v>
+        <v>3.41080476772268</v>
       </c>
       <c r="B491">
-        <v>2.005825548388067</v>
+        <v>3.41080476772268</v>
       </c>
       <c r="C491">
-        <v>2.005825548388067</v>
+        <v>3.41080476772268</v>
       </c>
       <c r="D491">
-        <v>2.005825548388067</v>
+        <v>3.41080476772268</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492">
-        <v>2.047742668276546</v>
+        <v>3.51585986310588</v>
       </c>
       <c r="B492">
-        <v>2.047742668276546</v>
+        <v>3.51585986310588</v>
       </c>
       <c r="C492">
-        <v>2.047742668276546</v>
+        <v>3.51585986310588</v>
       </c>
       <c r="D492">
-        <v>2.047742668276546</v>
+        <v>3.51585986310588</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493">
-        <v>2.110062352487927</v>
+        <v>3.5693845031579</v>
       </c>
       <c r="B493">
-        <v>2.110062352487927</v>
+        <v>3.5693845031579</v>
       </c>
       <c r="C493">
-        <v>2.110062352487927</v>
+        <v>3.5693845031579</v>
       </c>
       <c r="D493">
-        <v>2.110062352487927</v>
+        <v>3.5693845031579</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494">
-        <v>2.165744282054434</v>
+        <v>3.65442383727513</v>
       </c>
       <c r="B494">
-        <v>2.165744282054434</v>
+        <v>3.65442383727513</v>
       </c>
       <c r="C494">
-        <v>2.165744282054434</v>
+        <v>3.65442383727513</v>
       </c>
       <c r="D494">
-        <v>2.165744282054434</v>
+        <v>3.65442383727513</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495">
-        <v>2.218246103343172</v>
+        <v>3.69418645930204</v>
       </c>
       <c r="B495">
-        <v>2.218246103343172</v>
+        <v>3.69418645930204</v>
       </c>
       <c r="C495">
-        <v>2.218246103343172</v>
+        <v>3.69418645930204</v>
       </c>
       <c r="D495">
-        <v>2.218246103343172</v>
+        <v>3.69418645930204</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496">
-        <v>2.255654461692469</v>
+        <v>3.67957222898821</v>
       </c>
       <c r="B496">
-        <v>2.255654461692469</v>
+        <v>3.67957222898821</v>
       </c>
       <c r="C496">
-        <v>2.255654461692469</v>
+        <v>3.67957222898821</v>
       </c>
       <c r="D496">
-        <v>2.255654461692469</v>
+        <v>3.67957222898821</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497">
-        <v>2.243308059700913</v>
+        <v>3.70376119125616</v>
       </c>
       <c r="B497">
-        <v>2.243308059700913</v>
+        <v>3.70376119125616</v>
       </c>
       <c r="C497">
-        <v>2.243308059700913</v>
+        <v>3.70376119125616</v>
       </c>
       <c r="D497">
-        <v>2.243308059700913</v>
+        <v>3.70376119125616</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498">
-        <v>2.210850811555161</v>
+        <v>3.72529542364532</v>
       </c>
       <c r="B498">
-        <v>2.210850811555161</v>
+        <v>3.72529542364532</v>
       </c>
       <c r="C498">
-        <v>2.210850811555161</v>
+        <v>3.72529542364532</v>
       </c>
       <c r="D498">
-        <v>2.210850811555161</v>
+        <v>3.72529542364532</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499">
-        <v>2.177003746474204</v>
+        <v>3.76878232918584</v>
       </c>
       <c r="B499">
-        <v>2.177003746474204</v>
+        <v>3.76878232918584</v>
       </c>
       <c r="C499">
-        <v>2.177003746474204</v>
+        <v>3.76878232918584</v>
       </c>
       <c r="D499">
-        <v>2.177003746474204</v>
+        <v>3.76878232918584</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500">
-        <v>2.142637241203939</v>
+        <v>3.74210008671605</v>
       </c>
       <c r="B500">
-        <v>2.142637241203939</v>
+        <v>3.74210008671605</v>
       </c>
       <c r="C500">
-        <v>2.142637241203939</v>
+        <v>3.74210008671605</v>
       </c>
       <c r="D500">
-        <v>2.142637241203939</v>
+        <v>3.74210008671605</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501">
-        <v>2.140073186651257</v>
+        <v>3.71486801693155</v>
       </c>
       <c r="B501">
-        <v>2.140073186651257</v>
+        <v>3.71486801693155</v>
       </c>
       <c r="C501">
-        <v>2.140073186651257</v>
+        <v>3.71486801693155</v>
       </c>
       <c r="D501">
-        <v>2.140073186651257</v>
+        <v>3.71486801693155</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502">
-        <v>2.124706745954203</v>
+        <v>3.60084853523266</v>
       </c>
       <c r="B502">
-        <v>2.124706745954203</v>
+        <v>3.60084853523266</v>
       </c>
       <c r="C502">
-        <v>2.124706745954203</v>
+        <v>3.60084853523266</v>
       </c>
       <c r="D502">
-        <v>2.124706745954203</v>
+        <v>3.60084853523266</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503">
-        <v>2.122338579654348</v>
+        <v>3.50037567503536</v>
       </c>
       <c r="B503">
-        <v>2.122338579654348</v>
+        <v>3.50037567503536</v>
       </c>
       <c r="C503">
-        <v>2.122338579654348</v>
+        <v>3.50037567503536</v>
       </c>
       <c r="D503">
-        <v>2.122338579654348</v>
+        <v>3.50037567503536</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504">
-        <v>2.106609178689232</v>
+        <v>3.38574676258535</v>
       </c>
       <c r="B504">
-        <v>2.106609178689232</v>
+        <v>3.38574676258535</v>
       </c>
       <c r="C504">
-        <v>2.106609178689232</v>
+        <v>3.38574676258535</v>
       </c>
       <c r="D504">
-        <v>2.106609178689232</v>
+        <v>3.38574676258535</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505">
-        <v>2.086229555714754</v>
+        <v>3.32670559654734</v>
       </c>
       <c r="B505">
-        <v>2.086229555714754</v>
+        <v>3.32670559654734</v>
       </c>
       <c r="C505">
-        <v>2.086229555714754</v>
+        <v>3.32670559654734</v>
       </c>
       <c r="D505">
-        <v>2.086229555714754</v>
+        <v>3.32670559654734</v>
       </c>
     </row>
   </sheetData>
